--- a/CdS_Mastodon/lib/toots/xlsx/toots_CdS_5.xlsx
+++ b/CdS_Mastodon/lib/toots/xlsx/toots_CdS_5.xlsx
@@ -468,12 +468,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12:00:30</t>
+          <t>13:14:16</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier ta lettre du 13, mon cher Félix, et tu as dû voir par celle que je t'avais écrite 2 jours avant que notre départ est enfin décidé ..." à Francq, 1842-12-17, https://constance-de-salm.de/archiv/#/document/5312 #onthisday</t>
+          <t>»J'ai reçu hier ta lettre du 13, mon cher Félix, et tu as dû voir par celle que je t'avais écrite 2 jours avant que notre départ est enfin décidé ...« à Francq, 1842-12-17, https://constance-de-salm.de/archiv/#/document/5312 #onthisday</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -495,12 +495,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>17:40:05</t>
+          <t>09:25:17</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"Je suis, comme vous voyez, à Aix-la-Chapelle, Monsieur; j'y suis arrivée hier à cinq heures, me croyant assez bien ..." à Drais, 1839-12-20, https://constance-de-salm.de/archiv/#/document/8142 #onthisday</t>
+          <t>»Je suis, comme vous voyez, à Aix-la-Chapelle, Monsieur; j'y suis arrivée hier à cinq heures, me croyant assez bien ...« à Drais, 1839-12-20, https://constance-de-salm.de/archiv/#/document/8142 #onthisday</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -522,12 +522,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13:00:40</t>
+          <t>14:32:21</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"J’apprends par Monsieur Berville, Monsieur, qu’il se propose de faire insérer dans la „France littéraire“ une Épître sur la rime qu’il m’a adressée ..." à Malo, 1835-12-21, https://constance-de-salm.de/archiv/#/document/9674 #onthisday</t>
+          <t>»J’apprends par Monsieur Berville, Monsieur, qu’il se propose de faire insérer dans la „France littéraire“ une Épître sur la rime qu’il m’a adressée ...« à Malo, 1835-12-21, https://constance-de-salm.de/archiv/#/document/9674 #onthisday</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -549,12 +549,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>08:03:50</t>
+          <t>16:03:55</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"Que vous dire, mon ancien ami, sur mon long silence? ..." à Raboteau, 1821-12-22, https://constance-de-salm.de/archiv/#/document/3992 #onthisday</t>
+          <t>»Que vous dire, mon ancien ami, sur mon long silence? ...« à Raboteau, 1821-12-22, https://constance-de-salm.de/archiv/#/document/3992 #onthisday</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -576,12 +576,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>19:37:27</t>
+          <t>19:25:10</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"Je veux joindre une lettre pour vous, Monsieur, à une foule de billets que j'envoie à Monsieur Drais ..." à Boucharlat, 1833-12-24, https://constance-de-salm.de/archiv/#/document/5308 #onthisday</t>
+          <t>»Je veux joindre une lettre pour vous, Monsieur, à une foule de billets que j'envoie à Monsieur Drais ...« à Boucharlat, 1833-12-24, https://constance-de-salm.de/archiv/#/document/5308 #onthisday</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>17:06:35</t>
+          <t>09:20:10</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"J’étais sur le point de quitter la campagne, Monsieur, lorsque j’ai reçu votre dernière lettre ..." à Pailliet, 1826-12-25, https://constance-de-salm.de/archiv/#/document/11361 #onthisday</t>
+          <t>»J’étais sur le point de quitter la campagne, Monsieur, lorsque j’ai reçu votre dernière lettre ...« à Pailliet, 1826-12-25, https://constance-de-salm.de/archiv/#/document/11361 #onthisday</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -630,12 +630,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>13:38:51</t>
+          <t>08:24:03</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre lettre et votre réponse, mon ancien voisin ..." à Prous, 1819-12-26, https://constance-de-salm.de/archiv/#/document/2824 #onthisday</t>
+          <t>»J'ai reçu votre lettre et votre réponse, mon ancien voisin ...« à Prous, 1819-12-26, https://constance-de-salm.de/archiv/#/document/2824 #onthisday</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>19:33:17</t>
+          <t>17:31:55</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"Il y a déjà longtemps que j’ai reçu votre lettre, ma chère ancienne voisine, et je vous aurais répondu beaucoup plutôt ..." à Lenders, 1828-12-27, https://constance-de-salm.de/archiv/#/document/9304 #onthisday</t>
+          <t>»Il y a déjà longtemps que j’ai reçu votre lettre, ma chère ancienne voisine, et je vous aurais répondu beaucoup plutôt ...« à Lenders, 1828-12-27, https://constance-de-salm.de/archiv/#/document/9304 #onthisday</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -684,12 +684,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>08:02:40</t>
+          <t>10:49:43</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"J’ai reçu il y a quelques jours votre très bonne lettre, ma chère sœur, je reçois à l’instant celle de mon frère ..." à Théis, 1828-12-28, https://constance-de-salm.de/archiv/#/document/10747 #onthisday</t>
+          <t>»J’ai reçu il y a quelques jours votre très bonne lettre, ma chère sœur, je reçois à l’instant celle de mon frère ...« à Théis, 1828-12-28, https://constance-de-salm.de/archiv/#/document/10747 #onthisday</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -711,12 +711,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12:34:10</t>
+          <t>09:21:04</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"Vous aurez été étonné, Monsieur, de ne pas entendre parler de moi depuis que j’ai reçu votre bonne et grande lettre ..." à Villenave, 1834-12-29, https://constance-de-salm.de/archiv/#/document/9555 #onthisday</t>
+          <t>»Vous aurez été étonné, Monsieur, de ne pas entendre parler de moi depuis que j’ai reçu votre bonne et grande lettre ...« à Villenave, 1834-12-29, https://constance-de-salm.de/archiv/#/document/9555 #onthisday</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -738,12 +738,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>17:04:20</t>
+          <t>11:28:40</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"Je reçois à l'instant, Monsieur, votre numéro 3 des lettres (écrites de la rue du rocher) ..." à Jullien de Paris, 1831-12-31, https://constance-de-salm.de/archiv/#/document/6636 #onthisday</t>
+          <t>»Je reçois à l'instant, Monsieur, votre numéro 3 des lettres (écrites de la rue du rocher) ...« à Jullien de Paris, 1831-12-31, https://constance-de-salm.de/archiv/#/document/6636 #onthisday</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -760,17 +760,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2028-1-1</t>
+          <t>2028-01-01</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16:27:56</t>
+          <t>17:32:08</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"Je reçois votre billet, Monsieur, et je me hâte de vous remercier de vos bons souhaits ..." à Villenave, 1830-01-01, https://constance-de-salm.de/archiv/#/document/9480 #onthisday</t>
+          <t>»Je reçois votre billet, Monsieur, et je me hâte de vous remercier de vos bons souhaits ...« à Villenave, 1830-01-01, https://constance-de-salm.de/archiv/#/document/9480 #onthisday</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -787,17 +787,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2028-1-2</t>
+          <t>2028-01-02</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>13:43:48</t>
+          <t>17:47:17</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps que Madame la Princesse de Salm a vu Monsieur Ferdinand Denis; elle l’engage à venir dîner sans façon ..." à Denis, 1836-01-02, https://constance-de-salm.de/archiv/#/document/9684 #onthisday</t>
+          <t>»Il y a bien longtemps que Madame la Princesse de Salm a vu Monsieur Ferdinand Denis; elle l’engage à venir dîner sans façon ...« à Denis, 1836-01-02, https://constance-de-salm.de/archiv/#/document/9684 #onthisday</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -814,17 +814,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2028-1-4</t>
+          <t>2028-01-04</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>08:45:39</t>
+          <t>12:06:43</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"Mais cette bêtise me contrarie plus que je ne puis vous le dire, il y a dans les journaux ..." à Drais, 1840-01-04, https://constance-de-salm.de/archiv/#/document/8145 #onthisday</t>
+          <t>»Mais cette bêtise me contrarie plus que je ne puis vous le dire, il y a dans les journaux ...« à Drais, 1840-01-04, https://constance-de-salm.de/archiv/#/document/8145 #onthisday</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -841,17 +841,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2028-1-7</t>
+          <t>2028-01-07</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>14:01:40</t>
+          <t>19:45:35</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"Je reçois à l'instant, Monsieur, une lettre de Monsieur Pailliet ..." à Berville, 1830-01-07, https://constance-de-salm.de/archiv/#/document/5146 #onthisday</t>
+          <t>»Je reçois à l'instant, Monsieur, une lettre de Monsieur Pailliet ...« à Berville, 1830-01-07, https://constance-de-salm.de/archiv/#/document/5146 #onthisday</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -868,17 +868,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2028-1-8</t>
+          <t>2028-01-08</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>11:14:34</t>
+          <t>19:17:28</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"J'ai reçu vos deux bonnes et aimables lettres, ma chère amie, elles m'ont fait grand plaisir ..." à Naigeon, 1838-01-08, https://constance-de-salm.de/archiv/#/document/7881 #onthisday</t>
+          <t>»J'ai reçu vos deux bonnes et aimables lettres, ma chère amie, elles m'ont fait grand plaisir ...« à Naigeon, 1838-01-08, https://constance-de-salm.de/archiv/#/document/7881 #onthisday</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -895,17 +895,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2028-1-9</t>
+          <t>2028-01-09</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>08:09:31</t>
+          <t>15:09:21</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"J’ai bien tardé, Monsieur, à vous répondre et à vous remercier du numéro de la Psychée et de l’intéressant ouvrage ..." à Dumas, 1828-01-09, https://constance-de-salm.de/archiv/#/document/9126 #onthisday</t>
+          <t>»J’ai bien tardé, Monsieur, à vous répondre et à vous remercier du numéro de la Psychée et de l’intéressant ouvrage ...« à Dumas, 1828-01-09, https://constance-de-salm.de/archiv/#/document/9126 #onthisday</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -922,17 +922,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2028-1-10</t>
+          <t>2028-01-10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>19:33:44</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"Qu'elle est aimable cette voix qui rappelant notre jeunesse ..." à La Chabeaussière, 1820-01-10, https://constance-de-salm.de/archiv/#/document/4497 #onthisday</t>
+          <t>»Qu'elle est aimable cette voix qui rappelant notre jeunesse ...« à La Chabeaussière, 1820-01-10, https://constance-de-salm.de/archiv/#/document/4497 #onthisday</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -949,17 +949,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2028-1-12</t>
+          <t>2028-01-12</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>09:09:31</t>
+          <t>17:22:44</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"J'ai eu si souvent le plaisir d'avoir de vos nouvelles ici, Madame ..." à Vaulgrenand, 1831-01-12, https://constance-de-salm.de/archiv/#/document/6370 #onthisday</t>
+          <t>»J'ai eu si souvent le plaisir d'avoir de vos nouvelles ici, Madame ...« à Vaulgrenand, 1831-01-12, https://constance-de-salm.de/archiv/#/document/6370 #onthisday</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -976,17 +976,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2028-1-14</t>
+          <t>2028-01-14</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>12:30:12</t>
+          <t>08:14:50</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"Depuis quelque jours, Monsieur le baron, je passe ma vie à écrire ..." à Ladoucette, 1831-01-14, https://constance-de-salm.de/archiv/#/document/6374 #onthisday</t>
+          <t>»Depuis quelque jours, Monsieur le baron, je passe ma vie à écrire ...« à Ladoucette, 1831-01-14, https://constance-de-salm.de/archiv/#/document/6374 #onthisday</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1003,17 +1003,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2028-1-14</t>
+          <t>2028-01-14</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>09:12:12</t>
+          <t>11:56:57</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"Le Baron de Senft, que j'ai vu hier, Monsieur, et à qui je me suis empressée de demander de vos nouvelles ..." à Paganel, 1832-01-14, https://constance-de-salm.de/archiv/#/document/5393 #onthisday</t>
+          <t>»Le Baron de Senft, que j'ai vu hier, Monsieur, et à qui je me suis empressée de demander de vos nouvelles ...« à Paganel, 1832-01-14, https://constance-de-salm.de/archiv/#/document/5393 #onthisday</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1030,17 +1030,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2028-1-15</t>
+          <t>2028-01-15</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>09:11:13</t>
+          <t>13:03:07</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>"Monsieur Drais m’a dit, mon ancienne amie, que vous lui auriez écrit pour savoir si j’étais enfin arrivée à Paris ..." à Salis, 1836-01-15, https://constance-de-salm.de/archiv/#/document/9689 #onthisday</t>
+          <t>»Monsieur Drais m’a dit, mon ancienne amie, que vous lui auriez écrit pour savoir si j’étais enfin arrivée à Paris ...« à Salis, 1836-01-15, https://constance-de-salm.de/archiv/#/document/9689 #onthisday</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1057,17 +1057,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2028-1-16</t>
+          <t>2028-01-16</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>09:26:27</t>
+          <t>12:21:40</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>"Voici, Monsieur, le fragment dont je vous ai parlé ..." à Auger, 1827-01-16, https://constance-de-salm.de/archiv/#/document/9055 #onthisday</t>
+          <t>»Voici, Monsieur, le fragment dont je vous ai parlé ...« à Auger, 1827-01-16, https://constance-de-salm.de/archiv/#/document/9055 #onthisday</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1084,17 +1084,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2028-1-18</t>
+          <t>2028-01-18</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>12:10:13</t>
+          <t>13:54:11</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>"Je reçois à l’instant, Monsieur, le numéro de la „France littéraire“ où est mon „Épître“ ..." à Malo, 1836-01-18, https://constance-de-salm.de/archiv/#/document/9691 #onthisday</t>
+          <t>»Je reçois à l’instant, Monsieur, le numéro de la „France littéraire“ où est mon „Épître“ ...« à Malo, 1836-01-18, https://constance-de-salm.de/archiv/#/document/9691 #onthisday</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1111,17 +1111,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2028-1-21</t>
+          <t>2028-01-21</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16:41:55</t>
+          <t>11:39:09</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"La Princesse de Salm se rappelle que Monsieur de Villenave n’a pu lui dire hier ..." à Villenave, 1828-01-21, https://constance-de-salm.de/archiv/#/document/10999 #onthisday</t>
+          <t>»La Princesse de Salm se rappelle que Monsieur de Villenave n’a pu lui dire hier ...« à Villenave, 1828-01-21, https://constance-de-salm.de/archiv/#/document/10999 #onthisday</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1138,17 +1138,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2028-1-23</t>
+          <t>2028-01-23</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>14:36:46</t>
+          <t>17:56:35</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"Je reçois à l’instant votre seconde lettre, Monsieur, et je me hâte d’y répondre un mot ..." à Pailliet, 1828-01-23, https://constance-de-salm.de/archiv/#/document/11325 #onthisday</t>
+          <t>»Je reçois à l’instant votre seconde lettre, Monsieur, et je me hâte d’y répondre un mot ...« à Pailliet, 1828-01-23, https://constance-de-salm.de/archiv/#/document/11325 #onthisday</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1165,17 +1165,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2028-1-25</t>
+          <t>2028-01-25</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>17:05:23</t>
+          <t>09:57:49</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"Votre notice est copiée, mon cher voisin, mais avant de la donner à Pongerville ..." à Ladoucette, 1836-01-25, https://constance-de-salm.de/archiv/#/document/9694 #onthisday</t>
+          <t>»Votre notice est copiée, mon cher voisin, mais avant de la donner à Pongerville ...« à Ladoucette, 1836-01-25, https://constance-de-salm.de/archiv/#/document/9694 #onthisday</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1192,17 +1192,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2028-1-27</t>
+          <t>2028-01-27</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>17:16:07</t>
+          <t>09:52:50</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>"Mes notes et mes copies sont prêtes, Monsieur, mais au moment de vous les envoyer je m’aperçois ..." à Sanson de Pongerville, 1836-01-27, https://constance-de-salm.de/archiv/#/document/9698 #onthisday</t>
+          <t>»Mes notes et mes copies sont prêtes, Monsieur, mais au moment de vous les envoyer je m’aperçois ...« à Sanson de Pongerville, 1836-01-27, https://constance-de-salm.de/archiv/#/document/9698 #onthisday</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1219,17 +1219,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2028-1-28</t>
+          <t>2028-01-28</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>15:36:13</t>
+          <t>10:11:00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>"Je me hâte de répondre, Monsieur, à la lettre que j’ai reçue de vous hier ..." à Pailliet, 1826-01-28, https://constance-de-salm.de/archiv/#/document/11328 #onthisday</t>
+          <t>»Je me hâte de répondre, Monsieur, à la lettre que j’ai reçue de vous hier ...« à Pailliet, 1826-01-28, https://constance-de-salm.de/archiv/#/document/11328 #onthisday</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1246,17 +1246,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2028-1-29</t>
+          <t>2028-01-29</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>15:29:02</t>
+          <t>16:05:32</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>"Je suis en effet à Paris, et depuis près de 6 semaines, comme on vous l’a dit ..." à Salis, 1842-01-29, https://constance-de-salm.de/archiv/#/document/10444 #onthisday</t>
+          <t>»Je suis en effet à Paris, et depuis près de 6 semaines, comme on vous l’a dit ...« à Salis, 1842-01-29, https://constance-de-salm.de/archiv/#/document/10444 #onthisday</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1273,17 +1273,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2028-1-30</t>
+          <t>2028-01-30</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>10:42:48</t>
+          <t>19:35:56</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps, Monsieur, que j'ai reçu votre dernière lettre ..." à Mathon de Fogères, 1838-01-30, https://constance-de-salm.de/archiv/#/document/7887 #onthisday</t>
+          <t>»Il y a bien longtemps, Monsieur, que j'ai reçu votre dernière lettre ...« à Mathon de Fogères, 1838-01-30, https://constance-de-salm.de/archiv/#/document/7887 #onthisday</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1300,17 +1300,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2028-2-3</t>
+          <t>2028-02-03</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>17:42:40</t>
+          <t>15:22:56</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>"Je n'entends point parler de vous, ma bien chère voisine, et je m'en inquiète, car vous m'aviez promis ..." à Locquenghien, 1839-02-03, https://constance-de-salm.de/archiv/#/document/7993 #onthisday</t>
+          <t>»Je n'entends point parler de vous, ma bien chère voisine, et je m'en inquiète, car vous m'aviez promis ...« à Locquenghien, 1839-02-03, https://constance-de-salm.de/archiv/#/document/7993 #onthisday</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1327,17 +1327,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2028-2-5</t>
+          <t>2028-02-05</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>10:32:26</t>
+          <t>12:13:44</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>"Je reçois vos livres, et je les remettrai demain en place ..." à Prous, 1821-02-05, https://constance-de-salm.de/archiv/#/document/4553 #onthisday</t>
+          <t>»Je reçois vos livres, et je les remettrai demain en place ...« à Prous, 1821-02-05, https://constance-de-salm.de/archiv/#/document/4553 #onthisday</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1354,17 +1354,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2028-2-6</t>
+          <t>2028-02-06</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>18:30:41</t>
+          <t>18:42:08</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>"Il me serait impossible de vous dire, ma bien chère amie, combien de fois ..." à Salis, 1837-02-06, https://constance-de-salm.de/archiv/#/document/10440 #onthisday</t>
+          <t>»Il me serait impossible de vous dire, ma bien chère amie, combien de fois ...« à Salis, 1837-02-06, https://constance-de-salm.de/archiv/#/document/10440 #onthisday</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1381,17 +1381,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2028-2-7</t>
+          <t>2028-02-07</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>11:49:02</t>
+          <t>15:16:11</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>"Je reçois votre lettre, Monsieur, au moment où j'en vais faire partir une pour Monsieur Drais ..." à Mirault, 1838-02-07, https://constance-de-salm.de/archiv/#/document/7889 #onthisday</t>
+          <t>»Je reçois votre lettre, Monsieur, au moment où j'en vais faire partir une pour Monsieur Drais ...« à Mirault, 1838-02-07, https://constance-de-salm.de/archiv/#/document/7889 #onthisday</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1408,17 +1408,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2028-2-8</t>
+          <t>2028-02-08</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>13:57:32</t>
+          <t>11:08:32</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>"Il y a déjà bien longtemps, ma chère cousine, que j'ai reçu à Dyck votre bonne et aimable lettre ..." à Novakowsky, 1839-02-08, https://constance-de-salm.de/archiv/#/document/7995 #onthisday</t>
+          <t>»Il y a déjà bien longtemps, ma chère cousine, que j'ai reçu à Dyck votre bonne et aimable lettre ...« à Novakowsky, 1839-02-08, https://constance-de-salm.de/archiv/#/document/7995 #onthisday</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1435,17 +1435,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2028-2-11</t>
+          <t>2028-02-11</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>12:01:50</t>
+          <t>13:32:24</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>"La Princesse de Salm rappelle à Monsieur Cooper qu’il lui a promis de dîner chez elle jeudi et de s’inscrire sur son album ..." à Cooper, 1828-02-11, https://constance-de-salm.de/archiv/#/document/9131 #onthisday</t>
+          <t>»La Princesse de Salm rappelle à Monsieur Cooper qu’il lui a promis de dîner chez elle jeudi et de s’inscrire sur son album ...« à Cooper, 1828-02-11, https://constance-de-salm.de/archiv/#/document/9131 #onthisday</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1462,17 +1462,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2028-2-12</t>
+          <t>2028-02-12</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>08:51:37</t>
+          <t>15:58:21</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>"Chère Princesse, j'apprends par un journal que vous venez d'éprouver un accident qui pouvait avoir les suites les plus funestes ..." à Thurn und Taxis, 1832-02-12, https://constance-de-salm.de/archiv/#/document/259 #onthisday</t>
+          <t>»Chère Princesse, j'apprends par un journal que vous venez d'éprouver un accident qui pouvait avoir les suites les plus funestes ...« à Thurn und Taxis, 1832-02-12, https://constance-de-salm.de/archiv/#/document/259 #onthisday</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1489,17 +1489,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2028-2-13</t>
+          <t>2028-02-13</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>09:22:55</t>
+          <t>17:33:06</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"Votre excellent ouvrage m'a été envoyé, Monsieur, d'abord à la campagne et ensuite à Aix-la-Chapelle ..." à Fabre, 1834-02-13, https://constance-de-salm.de/archiv/#/document/5541 #onthisday</t>
+          <t>»Votre excellent ouvrage m'a été envoyé, Monsieur, d'abord à la campagne et ensuite à Aix-la-Chapelle ...« à Fabre, 1834-02-13, https://constance-de-salm.de/archiv/#/document/5541 #onthisday</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1516,17 +1516,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2028-2-15</t>
+          <t>2028-02-15</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>12:25:01</t>
+          <t>17:21:19</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"Mon petit-fils Constant, qui a été de ma part engager Monsieur et Madame Vien à venir dîner avec nous mercredi prochain ..." à Coubard d'Aulnay, 1834-02-15, https://constance-de-salm.de/archiv/#/document/9548 #onthisday</t>
+          <t>»Mon petit-fils Constant, qui a été de ma part engager Monsieur et Madame Vien à venir dîner avec nous mercredi prochain ...« à Coubard d'Aulnay, 1834-02-15, https://constance-de-salm.de/archiv/#/document/9548 #onthisday</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1543,17 +1543,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2028-2-17</t>
+          <t>2028-02-17</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>12:55:32</t>
+          <t>09:32:45</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"Je suis ici depuis quelques jours, cher frère, mais encore si souffrante, tant mon pénible voyage ..." à Théis, 1841-02-17, https://constance-de-salm.de/archiv/#/document/7208 #onthisday</t>
+          <t>»Je suis ici depuis quelques jours, cher frère, mais encore si souffrante, tant mon pénible voyage ...« à Théis, 1841-02-17, https://constance-de-salm.de/archiv/#/document/7208 #onthisday</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1570,17 +1570,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2028-2-18</t>
+          <t>2028-02-18</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>13:45:55</t>
+          <t>12:28:08</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"Vous êtes parti si vite hier, Monsieur, que je n'ai pu, comme je me le proposais ..." à Bignan, 1840-02-18, https://constance-de-salm.de/archiv/#/document/8156 #onthisday</t>
+          <t>»Vous êtes parti si vite hier, Monsieur, que je n'ai pu, comme je me le proposais ...« à Bignan, 1840-02-18, https://constance-de-salm.de/archiv/#/document/8156 #onthisday</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1597,17 +1597,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2028-2-19</t>
+          <t>2028-02-19</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>14:25:24</t>
+          <t>14:11:50</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>"Voici la copie de la note dans laquelle je parle du „Lycée des arts“ ..." à Delestre-Poirson, 1834-02-19, https://constance-de-salm.de/archiv/#/document/5546 #onthisday</t>
+          <t>»Voici la copie de la note dans laquelle je parle du „Lycée des arts“ ...« à Delestre-Poirson, 1834-02-19, https://constance-de-salm.de/archiv/#/document/5546 #onthisday</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1624,17 +1624,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2028-2-19</t>
+          <t>2028-02-19</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>15:19:16</t>
+          <t>14:29:01</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>"J’ai reçu ici, Monsieur et ancien ami, votre réponse à ma dernière lettre, et quoique j’espère être à Paris ..." à Duval, 1835-02-19, https://constance-de-salm.de/archiv/#/document/9570 #onthisday</t>
+          <t>»J’ai reçu ici, Monsieur et ancien ami, votre réponse à ma dernière lettre, et quoique j’espère être à Paris ...« à Duval, 1835-02-19, https://constance-de-salm.de/archiv/#/document/9570 #onthisday</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1651,17 +1651,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2028-2-20</t>
+          <t>2028-02-20</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>10:09:24</t>
+          <t>08:26:15</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>"Il y a déjà quelque temps que je suis ici et que je projette chaque jour d‘écrire ..." à Prony, 1836-02-20, https://constance-de-salm.de/archiv/#/document/9710 #onthisday</t>
+          <t>»Il y a déjà quelque temps que je suis ici et que je projette chaque jour d‘écrire ...« à Prony, 1836-02-20, https://constance-de-salm.de/archiv/#/document/9710 #onthisday</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1678,17 +1678,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2028-2-21</t>
+          <t>2028-02-21</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>12:26:41</t>
+          <t>12:44:28</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>"Je vous rappelle, Monsieur, que nous avons projeté une nouvelle petite réunion amicale pour vendredi prochain ..." à Sanson de Pongerville, 1836-02-21, https://constance-de-salm.de/archiv/#/document/9711 #onthisday</t>
+          <t>»Je vous rappelle, Monsieur, que nous avons projeté une nouvelle petite réunion amicale pour vendredi prochain ...« à Sanson de Pongerville, 1836-02-21, https://constance-de-salm.de/archiv/#/document/9711 #onthisday</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1705,17 +1705,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2028-2-22</t>
+          <t>2028-02-22</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>17:32:53</t>
+          <t>19:08:17</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"Madame de Berr m’avait fait espérer, mon cher Docteur et ami, que vous viendriez me voir ..." à Alibert, 1836-02-22, https://constance-de-salm.de/archiv/#/document/9713 #onthisday</t>
+          <t>»Madame de Berr m’avait fait espérer, mon cher Docteur et ami, que vous viendriez me voir ...« à Alibert, 1836-02-22, https://constance-de-salm.de/archiv/#/document/9713 #onthisday</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1732,17 +1732,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2028-2-23</t>
+          <t>2028-02-23</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>11:37:05</t>
+          <t>08:25:43</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>"Votre lettre m’a fort touchée, ma chère amie, et il y a longtemps que j’y aurais répondu ..." à Leroy de Bacre, 1835-02-23, https://constance-de-salm.de/archiv/#/document/9575 #onthisday</t>
+          <t>»Votre lettre m’a fort touchée, ma chère amie, et il y a longtemps que j’y aurais répondu ...« à Leroy de Bacre, 1835-02-23, https://constance-de-salm.de/archiv/#/document/9575 #onthisday</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1759,17 +1759,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2028-2-26</t>
+          <t>2028-02-26</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>19:37:51</t>
+          <t>19:00:32</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>"J'envoie à Monsieur de Pongerville une note (imprimée) que Jullien m'a priée de lui donner ..." à Sanson de Pongerville, 1841-02-26, https://constance-de-salm.de/archiv/#/document/7210 #onthisday</t>
+          <t>»J'envoie à Monsieur de Pongerville une note (imprimée) que Jullien m'a priée de lui donner ...« à Sanson de Pongerville, 1841-02-26, https://constance-de-salm.de/archiv/#/document/7210 #onthisday</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1786,17 +1786,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2028-2-27</t>
+          <t>2028-02-27</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>12:52:02</t>
+          <t>14:50:54</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>"Sire, j’ai l’honneur d’adresser à Votre Majesté un petit volume de Pensées que je viens de faire imprimer à Aix-la-Chapelle ..." à Friedrich Wilhelm III., 1829-02-27, https://constance-de-salm.de/archiv/#/document/9314 #onthisday</t>
+          <t>»Sire, j’ai l’honneur d’adresser à Votre Majesté un petit volume de Pensées que je viens de faire imprimer à Aix-la-Chapelle ...« à Friedrich Wilhelm III., 1829-02-27, https://constance-de-salm.de/archiv/#/document/9314 #onthisday</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1813,17 +1813,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2028-3-2</t>
+          <t>2028-03-02</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>12:00:32</t>
+          <t>16:26:03</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>"Enfin, cher frère, je commence à me porter un peu moins mal ..." à Théis, 1841-03-02, https://constance-de-salm.de/archiv/#/document/10952 #onthisday</t>
+          <t>»Enfin, cher frère, je commence à me porter un peu moins mal ...« à Théis, 1841-03-02, https://constance-de-salm.de/archiv/#/document/10952 #onthisday</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1840,17 +1840,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2028-3-3</t>
+          <t>2028-03-03</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>13:44:28</t>
+          <t>16:13:39</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre lettre du 5 février très exactement, mon ancien ami ..." à Raboteau, 1820-03-03, https://constance-de-salm.de/archiv/#/document/4500 #onthisday</t>
+          <t>»J'ai reçu votre lettre du 5 février très exactement, mon ancien ami ...« à Raboteau, 1820-03-03, https://constance-de-salm.de/archiv/#/document/4500 #onthisday</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1867,17 +1867,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2028-3-5</t>
+          <t>2028-03-05</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>12:13:19</t>
+          <t>19:17:55</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>"J’ai reçu hier, Monsieur, une lettre fort détaillée de M[aîtr]e Chambert fils ..." à Pailliet, 1826-03-05, https://constance-de-salm.de/archiv/#/document/11329 #onthisday</t>
+          <t>»J’ai reçu hier, Monsieur, une lettre fort détaillée de M[aîtr]e Chambert fils ...« à Pailliet, 1826-03-05, https://constance-de-salm.de/archiv/#/document/11329 #onthisday</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1894,17 +1894,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2028-3-6</t>
+          <t>2028-03-06</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>08:40:00</t>
+          <t>11:06:30</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>"Mon projet de spectacle pour le vendredi ne me réussit pas du tout, Monsieur, encore moins celui du mardi ..." à Villenave, 1834-03-06, https://constance-de-salm.de/archiv/#/document/5560 #onthisday</t>
+          <t>»Mon projet de spectacle pour le vendredi ne me réussit pas du tout, Monsieur, encore moins celui du mardi ...« à Villenave, 1834-03-06, https://constance-de-salm.de/archiv/#/document/5560 #onthisday</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1921,17 +1921,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2028-3-8</t>
+          <t>2028-03-08</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>15:09:31</t>
+          <t>08:47:38</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>"J’ai été bien fâchée, Monsieur le baron, de ne pas m‘être trouvée hier chez moi, lorsque vous y êtes venue ..." à Ladoucette, 1829-03-08, https://constance-de-salm.de/archiv/#/document/9316 #onthisday</t>
+          <t>»J’ai été bien fâchée, Monsieur le baron, de ne pas m‘être trouvée hier chez moi, lorsque vous y êtes venue ...« à Ladoucette, 1829-03-08, https://constance-de-salm.de/archiv/#/document/9316 #onthisday</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1948,17 +1948,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2028-3-9</t>
+          <t>2028-03-09</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>13:27:06</t>
+          <t>18:09:16</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"Je n'ai reçu qu'il y a peu de temps, Monsieur, la lettre que vous m'avez écrite, et qui m'avait été renvoyée en Allemagne ..." à Faucheux, 1834-03-09, https://constance-de-salm.de/archiv/#/document/5549 #onthisday</t>
+          <t>»Je n'ai reçu qu'il y a peu de temps, Monsieur, la lettre que vous m'avez écrite, et qui m'avait été renvoyée en Allemagne ...« à Faucheux, 1834-03-09, https://constance-de-salm.de/archiv/#/document/5549 #onthisday</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1975,17 +1975,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2028-3-10</t>
+          <t>2028-03-10</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16:40:47</t>
+          <t>14:13:52</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>"Je crains, Monsieur, que vous ne veniez pas encore demain dîner avec nous; ..." à Barbier, 1836-03-10, https://constance-de-salm.de/archiv/#/document/9719 #onthisday</t>
+          <t>»Je crains, Monsieur, que vous ne veniez pas encore demain dîner avec nous; ...« à Barbier, 1836-03-10, https://constance-de-salm.de/archiv/#/document/9719 #onthisday</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2002,17 +2002,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2028-3-12</t>
+          <t>2028-03-12</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>18:34:13</t>
+          <t>08:58:00</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>"Peu de jours après avoir reçu votre lettre, Monsieur, j’ai fait part au Maréchal Maison du désir ..." à Audouard, 1836-03-12, https://constance-de-salm.de/archiv/#/document/9722 #onthisday</t>
+          <t>»Peu de jours après avoir reçu votre lettre, Monsieur, j’ai fait part au Maréchal Maison du désir ...« à Audouard, 1836-03-12, https://constance-de-salm.de/archiv/#/document/9722 #onthisday</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2029,17 +2029,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2028-3-14</t>
+          <t>2028-03-14</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>08:54:36</t>
+          <t>13:52:02</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"Je suis à Paris depuis quelque jours, Monsieur, et j’y reçois votre lettre ..." à Pailliet, 1829-03-14, https://constance-de-salm.de/archiv/#/document/11352 #onthisday</t>
+          <t>»Je suis à Paris depuis quelque jours, Monsieur, et j’y reçois votre lettre ...« à Pailliet, 1829-03-14, https://constance-de-salm.de/archiv/#/document/11352 #onthisday</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2056,17 +2056,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2028-3-15</t>
+          <t>2028-03-15</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>15:45:54</t>
+          <t>13:24:02</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"Je suis fort flattée, Monsieur, du désir que témoigne la Société d’encouragement pour les lettres et les beaux-arts ..." à Roosmalen, 1836-03-15, https://constance-de-salm.de/archiv/#/document/9724 #onthisday</t>
+          <t>»Je suis fort flattée, Monsieur, du désir que témoigne la Société d’encouragement pour les lettres et les beaux-arts ...« à Roosmalen, 1836-03-15, https://constance-de-salm.de/archiv/#/document/9724 #onthisday</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2083,17 +2083,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2028-3-18</t>
+          <t>2028-03-18</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>13:31:07</t>
+          <t>14:03:47</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>"J’ai été tellement accablée par une foule d’occupations et d’affaires de tout genre ..." à Pailliet, 1830-03-18, https://constance-de-salm.de/archiv/#/document/9496 #onthisday</t>
+          <t>»J’ai été tellement accablée par une foule d’occupations et d’affaires de tout genre ...« à Pailliet, 1830-03-18, https://constance-de-salm.de/archiv/#/document/9496 #onthisday</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2110,17 +2110,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2028-3-19</t>
+          <t>2028-03-19</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>17:26:21</t>
+          <t>15:09:16</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps, Monsieur, que nous n'avons entendu parler l'un de l'autre ..." à Ritz, 1842-03-19, https://constance-de-salm.de/archiv/#/document/7592 #onthisday</t>
+          <t>»Il y a bien longtemps, Monsieur, que nous n'avons entendu parler l'un de l'autre ...« à Ritz, 1842-03-19, https://constance-de-salm.de/archiv/#/document/7592 #onthisday</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2137,17 +2137,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2028-3-20</t>
+          <t>2028-03-20</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16:23:54</t>
+          <t>17:51:52</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>"Permettez, mon ancien ami, que je dicte le commencement de cette lettre à Monsieur Drais à qui vous venez d'écrire ..." à Raboteau, 1823-03-20, https://constance-de-salm.de/archiv/#/document/4867 #onthisday</t>
+          <t>»Permettez, mon ancien ami, que je dicte le commencement de cette lettre à Monsieur Drais à qui vous venez d'écrire ...« à Raboteau, 1823-03-20, https://constance-de-salm.de/archiv/#/document/4867 #onthisday</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2164,17 +2164,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2028-3-20</t>
+          <t>2028-03-20</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>12:30:27</t>
+          <t>16:25:31</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>"Permettez, mon ancien ami, que je dicte le commencement de cette lettre à Monsieur Drais à qui vous venez d'écrire ..." à Raboteau, 1823-03-20, https://constance-de-salm.de/archiv/#/document/57 #onthisday</t>
+          <t>»Permettez, mon ancien ami, que je dicte le commencement de cette lettre à Monsieur Drais à qui vous venez d'écrire ...« à Raboteau, 1823-03-20, https://constance-de-salm.de/archiv/#/document/57 #onthisday</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2191,17 +2191,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2028-3-21</t>
+          <t>2028-03-21</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>09:30:48</t>
+          <t>19:14:27</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"Je suis fort souffrante, mon cher voisin, je n'ai encore eu le courage d'écrire à personne ..." à Ladoucette, 1844-03-21, https://constance-de-salm.de/archiv/#/document/7528 #onthisday</t>
+          <t>»Je suis fort souffrante, mon cher voisin, je n'ai encore eu le courage d'écrire à personne ...« à Ladoucette, 1844-03-21, https://constance-de-salm.de/archiv/#/document/7528 #onthisday</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2218,17 +2218,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2028-3-22</t>
+          <t>2028-03-22</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>13:02:04</t>
+          <t>11:10:07</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>"Nous avons été si interrompus hier, Monsieur, que je n'ai pu vous expliquer assez tout ce que j'avais ..." à Sanson de Pongerville, 1842-03-22, https://constance-de-salm.de/archiv/#/document/7595 #onthisday</t>
+          <t>»Nous avons été si interrompus hier, Monsieur, que je n'ai pu vous expliquer assez tout ce que j'avais ...« à Sanson de Pongerville, 1842-03-22, https://constance-de-salm.de/archiv/#/document/7595 #onthisday</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2245,17 +2245,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2028-3-23</t>
+          <t>2028-03-23</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>15:25:31</t>
+          <t>11:11:23</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"Il me semble, mon très cher Pair, qu’il est impossible que vous ayez un engagement pour le samedi saint ..." à Viennet, 1842-03-23, https://constance-de-salm.de/archiv/#/document/10979 #onthisday</t>
+          <t>»Il me semble, mon très cher Pair, qu’il est impossible que vous ayez un engagement pour le samedi saint ...« à Viennet, 1842-03-23, https://constance-de-salm.de/archiv/#/document/10979 #onthisday</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2272,17 +2272,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2028-3-24</t>
+          <t>2028-03-24</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>14:31:20</t>
+          <t>14:40:48</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"Je reçois aujourd’hui votre lettre du 21, Monsieur, et le besoin continuel que j’ai de parler au moins de ce qui m’occupe ..." à Drais, 1835-03-24, https://constance-de-salm.de/archiv/#/document/9588 #onthisday</t>
+          <t>»Je reçois aujourd’hui votre lettre du 21, Monsieur, et le besoin continuel que j’ai de parler au moins de ce qui m’occupe ...« à Drais, 1835-03-24, https://constance-de-salm.de/archiv/#/document/9588 #onthisday</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2299,17 +2299,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2028-3-25</t>
+          <t>2028-03-25</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>10:02:51</t>
+          <t>11:47:22</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"Voici l’épreuve, mon cher voisin, je l’ai revue avec soin ..." à Ladoucette, 1836-03-25, https://constance-de-salm.de/archiv/#/document/9726 #onthisday</t>
+          <t>»Voici l’épreuve, mon cher voisin, je l’ai revue avec soin ...« à Ladoucette, 1836-03-25, https://constance-de-salm.de/archiv/#/document/9726 #onthisday</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2326,17 +2326,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2028-3-25</t>
+          <t>2028-03-25</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>18:33:36</t>
+          <t>14:25:45</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>"Monsieur de Ladoucette a dû vous dire, Madame, par quelle suite de petits fâcheux hasards ..." à Colet, 1838-03-25, https://constance-de-salm.de/archiv/#/document/7894 #onthisday</t>
+          <t>»Monsieur de Ladoucette a dû vous dire, Madame, par quelle suite de petits fâcheux hasards ...« à Colet, 1838-03-25, https://constance-de-salm.de/archiv/#/document/7894 #onthisday</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2353,17 +2353,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2028-3-26</t>
+          <t>2028-03-26</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>19:49:31</t>
+          <t>13:02:20</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"Le lendemain du jour, où nous avons eu le plaisir de vous voir, Monsieur, je voulais vous écrire ..." à Villenave, 1837-03-26, https://constance-de-salm.de/archiv/#/document/7742 #onthisday</t>
+          <t>»Le lendemain du jour, où nous avons eu le plaisir de vous voir, Monsieur, je voulais vous écrire ...« à Villenave, 1837-03-26, https://constance-de-salm.de/archiv/#/document/7742 #onthisday</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2380,17 +2380,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2028-3-27</t>
+          <t>2028-03-27</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16:04:08</t>
+          <t>16:24:13</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>"À lundi donc, j’ai à peine le temps de vous le dire; ..." à Ladoucette, 1829-03-27, https://constance-de-salm.de/archiv/#/document/9325 #onthisday</t>
+          <t>»À lundi donc, j’ai à peine le temps de vous le dire; ...« à Ladoucette, 1829-03-27, https://constance-de-salm.de/archiv/#/document/9325 #onthisday</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2407,17 +2407,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2028-3-28</t>
+          <t>2028-03-28</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>15:28:10</t>
+          <t>10:09:27</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps que je n'ai vu Monsieur Ferdinand Denis ..." à Denis, 1841-03-28, https://constance-de-salm.de/archiv/#/document/7217 #onthisday</t>
+          <t>»Il y a bien longtemps que je n'ai vu Monsieur Ferdinand Denis ...« à Denis, 1841-03-28, https://constance-de-salm.de/archiv/#/document/7217 #onthisday</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2434,17 +2434,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2028-3-29</t>
+          <t>2028-03-29</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>17:44:50</t>
+          <t>09:32:55</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"Voici trois exemplaires que je n’ai pu vous donner hier soir, Monsieur le baron, parce que je venais ..." à Ladoucette, 1829-03-29, https://constance-de-salm.de/archiv/#/document/9329 #onthisday</t>
+          <t>»Voici trois exemplaires que je n’ai pu vous donner hier soir, Monsieur le baron, parce que je venais ...« à Ladoucette, 1829-03-29, https://constance-de-salm.de/archiv/#/document/9329 #onthisday</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2461,17 +2461,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2028-3-29</t>
+          <t>2028-03-29</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>15:18:17</t>
+          <t>11:05:17</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>"Je reçois à l’instant la lettre qui m’annonce que ma petite édition est en route, et je ne veux pas attendre ..." à Gay, 1829-03-29, https://constance-de-salm.de/archiv/#/document/9328 #onthisday</t>
+          <t>»Je reçois à l’instant la lettre qui m’annonce que ma petite édition est en route, et je ne veux pas attendre ...« à Gay, 1829-03-29, https://constance-de-salm.de/archiv/#/document/9328 #onthisday</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2488,17 +2488,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2028-3-30</t>
+          <t>2028-03-30</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16:30:33</t>
+          <t>13:13:28</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>"Je vous avais promis de vous écrire un mot à mon retour de Cologne ..." à Ladoucette, 1831-03-30, https://constance-de-salm.de/archiv/#/document/6345 #onthisday</t>
+          <t>»Je vous avais promis de vous écrire un mot à mon retour de Cologne ...« à Ladoucette, 1831-03-30, https://constance-de-salm.de/archiv/#/document/6345 #onthisday</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2515,17 +2515,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2028-3-30</t>
+          <t>2028-03-30</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>08:08:10</t>
+          <t>19:28:07</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>"Je suis depuis quelque temps, Monsieur, toujours souffrante, toujours occupée ..." à Tissot, 1834-03-30, https://constance-de-salm.de/archiv/#/document/5556 #onthisday</t>
+          <t>»Je suis depuis quelque temps, Monsieur, toujours souffrante, toujours occupée ...« à Tissot, 1834-03-30, https://constance-de-salm.de/archiv/#/document/5556 #onthisday</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2542,17 +2542,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2028-4-1</t>
+          <t>2028-04-01</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>12:29:08</t>
+          <t>09:15:39</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>"Je reçois votre lettre, Monsieur le président, et je ne veux perdre un instant pour vous dire que c'est avec une véritable satisfaction que j'ai appris qu'il avait été décidé ..." à Moreau, 1834-04-01, https://constance-de-salm.de/archiv/#/document/8250 #onthisday</t>
+          <t>»Je reçois votre lettre, Monsieur le président, et je ne veux perdre un instant pour vous dire que c'est avec une véritable satisfaction que j'ai appris qu'il avait été décidé ...« à Moreau, 1834-04-01, https://constance-de-salm.de/archiv/#/document/8250 #onthisday</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2569,17 +2569,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2028-4-2</t>
+          <t>2028-04-02</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>16:50:55</t>
+          <t>16:29:01</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"Il y a déjà quelques jours que j’ai reçu ta lettre, cher frère, et j’y aurais répondu à l’instant ..." à Théis, 1832-04-02, https://constance-de-salm.de/archiv/#/document/10814 #onthisday</t>
+          <t>»Il y a déjà quelques jours que j’ai reçu ta lettre, cher frère, et j’y aurais répondu à l’instant ...« à Théis, 1832-04-02, https://constance-de-salm.de/archiv/#/document/10814 #onthisday</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2596,17 +2596,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2028-4-2</t>
+          <t>2028-04-02</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>11:08:43</t>
+          <t>11:05:00</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>"J'ai reçu, Mademoiselle, le très intéressant ouvrage que vous m'avez adressé; ..." à Ayzac, 1833-04-02, https://constance-de-salm.de/archiv/#/document/5299 #onthisday</t>
+          <t>»J'ai reçu, Mademoiselle, le très intéressant ouvrage que vous m'avez adressé; ...« à Ayzac, 1833-04-02, https://constance-de-salm.de/archiv/#/document/5299 #onthisday</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2623,17 +2623,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2028-4-3</t>
+          <t>2028-04-03</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>17:06:26</t>
+          <t>12:42:13</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>"Madame la Princesse de Salm recevra avec beaucoup de plaisir Mademoiselle Paxton ..." à Paxton, 1829-04-03, https://constance-de-salm.de/archiv/#/document/9337 #onthisday</t>
+          <t>»Madame la Princesse de Salm recevra avec beaucoup de plaisir Mademoiselle Paxton ...« à Paxton, 1829-04-03, https://constance-de-salm.de/archiv/#/document/9337 #onthisday</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2650,17 +2650,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2028-4-4</t>
+          <t>2028-04-04</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>15:41:49</t>
+          <t>13:12:16</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"Monsieur Villenave et Monsieur son fils peuvent-ils venir dîner samedi ..." à Villenave, 1829-04-04, https://constance-de-salm.de/archiv/#/document/11015 #onthisday</t>
+          <t>»Monsieur Villenave et Monsieur son fils peuvent-ils venir dîner samedi ...« à Villenave, 1829-04-04, https://constance-de-salm.de/archiv/#/document/11015 #onthisday</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2677,17 +2677,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2028-4-4</t>
+          <t>2028-04-04</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>13:18:15</t>
+          <t>10:25:43</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>"Voici, Monsieur, l'exemplaire de mes „Pensées“ que je vous avais promis ..." à Villenave, 1830-04-04, https://constance-de-salm.de/archiv/#/document/4980 #onthisday</t>
+          <t>»Voici, Monsieur, l'exemplaire de mes „Pensées“ que je vous avais promis ...« à Villenave, 1830-04-04, https://constance-de-salm.de/archiv/#/document/4980 #onthisday</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2704,17 +2704,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2028-4-5</t>
+          <t>2028-04-05</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>18:53:16</t>
+          <t>18:51:06</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>"Votre frère Amaury vient dîner chez moi, demain samedi, mon cher Duval ..." à Duval, 1838-04-05, https://constance-de-salm.de/archiv/#/document/7900 #onthisday</t>
+          <t>»Votre frère Amaury vient dîner chez moi, demain samedi, mon cher Duval ...« à Duval, 1838-04-05, https://constance-de-salm.de/archiv/#/document/7900 #onthisday</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2731,17 +2731,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2028-4-6</t>
+          <t>2028-04-06</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>09:10:42</t>
+          <t>14:05:50</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>"Au moment où j’ai quitté Aix, il y a 4 jours, ma bien chère amie, on m’a assurée que votre santé commençait à se rétablir; ..." à Hompesch, 1835-04-06, https://constance-de-salm.de/archiv/#/document/9592 #onthisday</t>
+          <t>»Au moment où j’ai quitté Aix, il y a 4 jours, ma bien chère amie, on m’a assurée que votre santé commençait à se rétablir; ...« à Hompesch, 1835-04-06, https://constance-de-salm.de/archiv/#/document/9592 #onthisday</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2758,17 +2758,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2028-4-7</t>
+          <t>2028-04-07</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>19:52:57</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>"Vous allez être bien surpris, Monsieur, de recevoir si vite ma réponse à votre lettre du 3 ..." à Barbier, 1825-04-07, https://constance-de-salm.de/archiv/#/document/8946 #onthisday</t>
+          <t>»Vous allez être bien surpris, Monsieur, de recevoir si vite ma réponse à votre lettre du 3 ...« à Barbier, 1825-04-07, https://constance-de-salm.de/archiv/#/document/8946 #onthisday</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2785,17 +2785,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2028-4-8</t>
+          <t>2028-04-08</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>14:55:51</t>
+          <t>10:55:51</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>"Je regrette beaucoup, Mademoiselle, de n'avoir pu profiter des deux billets que vous m'avez adressés ..." à N.N., 1841-04-08, https://constance-de-salm.de/archiv/#/document/7225 #onthisday</t>
+          <t>»Je regrette beaucoup, Mademoiselle, de n'avoir pu profiter des deux billets que vous m'avez adressés ...« à N.N., 1841-04-08, https://constance-de-salm.de/archiv/#/document/7225 #onthisday</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2812,17 +2812,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2028-4-8</t>
+          <t>2028-04-08</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>17:40:07</t>
+          <t>13:39:37</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>"J'allais vous inviter, très aimable dame, à venir dîner samedi avec nous ..." à Waldor, 1841-04-08, https://constance-de-salm.de/archiv/#/document/7228 #onthisday</t>
+          <t>»J'allais vous inviter, très aimable dame, à venir dîner samedi avec nous ...« à Waldor, 1841-04-08, https://constance-de-salm.de/archiv/#/document/7228 #onthisday</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2839,17 +2839,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2028-4-9</t>
+          <t>2028-04-09</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>17:43:16</t>
+          <t>11:30:38</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>"Nous avons fort regretté hier de ne pas voir Monsieur et Madame de Pongerville ..." à Sanson de Pongerville, 1839-04-09, https://constance-de-salm.de/archiv/#/document/8022 #onthisday</t>
+          <t>»Nous avons fort regretté hier de ne pas voir Monsieur et Madame de Pongerville ...« à Sanson de Pongerville, 1839-04-09, https://constance-de-salm.de/archiv/#/document/8022 #onthisday</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2866,17 +2866,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2028-4-10</t>
+          <t>2028-04-10</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>10:57:07</t>
+          <t>14:05:14</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>"Votre article est parfait, Monsieur, c’est un des meilleurs qui ait été fait sur mes Pensées ..." à Audiffret, 1836-04-10, https://constance-de-salm.de/archiv/#/document/9728 #onthisday</t>
+          <t>»Votre article est parfait, Monsieur, c’est un des meilleurs qui ait été fait sur mes Pensées ...« à Audiffret, 1836-04-10, https://constance-de-salm.de/archiv/#/document/9728 #onthisday</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2893,17 +2893,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2028-4-11</t>
+          <t>2028-04-11</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>18:08:52</t>
+          <t>19:13:56</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>"Je n'ai pas oublié, Monsieur, que je me proposais de vous engager à mon retour de la campagne, à venir dîner chez moi ..." à Guyet, 1837-04-11, https://constance-de-salm.de/archiv/#/document/7759 #onthisday</t>
+          <t>»Je n'ai pas oublié, Monsieur, que je me proposais de vous engager à mon retour de la campagne, à venir dîner chez moi ...« à Guyet, 1837-04-11, https://constance-de-salm.de/archiv/#/document/7759 #onthisday</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2920,17 +2920,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2028-4-12</t>
+          <t>2028-04-12</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>19:55:18</t>
+          <t>11:57:53</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>"Je m’empresse de remercier Monsieur Émeric David de son obligeant billet, et de lui dire que ..." à Émeric-David, 1833-04-12, https://constance-de-salm.de/archiv/#/document/9521 #onthisday</t>
+          <t>»Je m’empresse de remercier Monsieur Émeric David de son obligeant billet, et de lui dire que ...« à Émeric-David, 1833-04-12, https://constance-de-salm.de/archiv/#/document/9521 #onthisday</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2947,17 +2947,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2028-4-12</t>
+          <t>2028-04-12</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>13:21:38</t>
+          <t>19:06:39</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>"Mon petit-fils a été, de ma part, vous dire, mon ancien ami, combien j’avais été satisfaite ..." à Duval, 1836-04-12, https://constance-de-salm.de/archiv/#/document/9729 #onthisday</t>
+          <t>»Mon petit-fils a été, de ma part, vous dire, mon ancien ami, combien j’avais été satisfaite ...« à Duval, 1836-04-12, https://constance-de-salm.de/archiv/#/document/9729 #onthisday</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2974,17 +2974,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2028-4-13</t>
+          <t>2028-04-13</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>13:28:20</t>
+          <t>09:32:54</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>"J’étais si souffrante tous ces jours-ci, Monsieur, qu’il m’est encore impossible de vous écrire de ma main; ..." à Villenave, 1828-04-13, https://constance-de-salm.de/archiv/#/document/11003 #onthisday</t>
+          <t>»J’étais si souffrante tous ces jours-ci, Monsieur, qu’il m’est encore impossible de vous écrire de ma main; ...« à Villenave, 1828-04-13, https://constance-de-salm.de/archiv/#/document/11003 #onthisday</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3001,17 +3001,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2028-4-13</t>
+          <t>2028-04-13</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>17:23:17</t>
+          <t>14:35:58</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>"Madame la Princesse de Salm engage Monsieur Boucharlat à venir dîner chez elle mercredi 15 ..." à Boucharlat, 1829-04-13, https://constance-de-salm.de/archiv/#/document/9345 #onthisday</t>
+          <t>»Madame la Princesse de Salm engage Monsieur Boucharlat à venir dîner chez elle mercredi 15 ...« à Boucharlat, 1829-04-13, https://constance-de-salm.de/archiv/#/document/9345 #onthisday</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3028,17 +3028,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2028-4-14</t>
+          <t>2028-04-14</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>15:08:18</t>
+          <t>15:56:46</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>"La nuit porte conseil, Monsieur, j’ai craint tout à coup qu’en ayant l’air de me disculper dans le petit article ..." à Sanson de Pongerville, 1836-04-14, https://constance-de-salm.de/archiv/#/document/9731 #onthisday</t>
+          <t>»La nuit porte conseil, Monsieur, j’ai craint tout à coup qu’en ayant l’air de me disculper dans le petit article ...« à Sanson de Pongerville, 1836-04-14, https://constance-de-salm.de/archiv/#/document/9731 #onthisday</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3055,17 +3055,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2028-4-15</t>
+          <t>2028-04-15</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>18:13:50</t>
+          <t>10:15:29</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>"Je reçois ici votre bonne lettre, ma bien chère amie; ..." à Salis, 1836-04-15, https://constance-de-salm.de/archiv/#/document/10359 #onthisday</t>
+          <t>»Je reçois ici votre bonne lettre, ma bien chère amie; ...« à Salis, 1836-04-15, https://constance-de-salm.de/archiv/#/document/10359 #onthisday</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3082,17 +3082,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2028-4-16</t>
+          <t>2028-04-16</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>09:09:49</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>"C’est avec beaucoup de plaisir, Monsieur, que j’ai appris par vous le mariage de Mademoiselle votre fille ..." à Vernéjoul, 1829-04-16, https://constance-de-salm.de/archiv/#/document/9348 #onthisday</t>
+          <t>»C’est avec beaucoup de plaisir, Monsieur, que j’ai appris par vous le mariage de Mademoiselle votre fille ...« à Vernéjoul, 1829-04-16, https://constance-de-salm.de/archiv/#/document/9348 #onthisday</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3109,17 +3109,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2028-4-17</t>
+          <t>2028-04-17</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>11:16:32</t>
+          <t>10:03:53</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>"Je reçois ici votre excellente lettre, Madame et bien chère amie; j'en suis vivement touchée, et je me reprocherais de ne pas vous répondre à l'instant ..." à Salis, 1832-04-17, https://constance-de-salm.de/archiv/#/document/10352 #onthisday</t>
+          <t>»Je reçois ici votre excellente lettre, Madame et bien chère amie; j'en suis vivement touchée, et je me reprocherais de ne pas vous répondre à l'instant ...« à Salis, 1832-04-17, https://constance-de-salm.de/archiv/#/document/10352 #onthisday</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3136,17 +3136,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2028-4-17</t>
+          <t>2028-04-17</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>13:36:04</t>
+          <t>12:39:24</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>"La perte cruelle que vous venez de faire, Monsieur, m’a rappelé tant de douloureuses circonstances ..." à Depping, 1836-04-17, https://constance-de-salm.de/archiv/#/document/9735 #onthisday</t>
+          <t>»La perte cruelle que vous venez de faire, Monsieur, m’a rappelé tant de douloureuses circonstances ...« à Depping, 1836-04-17, https://constance-de-salm.de/archiv/#/document/9735 #onthisday</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3163,17 +3163,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2028-4-18</t>
+          <t>2028-04-18</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>19:46:02</t>
+          <t>16:36:21</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>"Je suis encore si fatiguée de ma soirée d’hier, Monsieur, que je ne peux vous écrire ..." à Villenave, 1828-04-18, https://constance-de-salm.de/archiv/#/document/11002 #onthisday</t>
+          <t>»Je suis encore si fatiguée de ma soirée d’hier, Monsieur, que je ne peux vous écrire ...« à Villenave, 1828-04-18, https://constance-de-salm.de/archiv/#/document/11002 #onthisday</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3190,17 +3190,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2028-4-20</t>
+          <t>2028-04-20</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>11:16:30</t>
+          <t>17:38:16</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>"J’ai entendu parler avec éloge, Monsieur, de l’ouvrage que vous publiez; je serai charmée de l’avoir, et vous prie de me mettre au nombre de vos souscripteurs ..." à Gosse, 1829-04-20, https://constance-de-salm.de/archiv/#/document/9352 #onthisday</t>
+          <t>»J’ai entendu parler avec éloge, Monsieur, de l’ouvrage que vous publiez; je serai charmée de l’avoir, et vous prie de me mettre au nombre de vos souscripteurs ...« à Gosse, 1829-04-20, https://constance-de-salm.de/archiv/#/document/9352 #onthisday</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3217,17 +3217,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2028-4-20</t>
+          <t>2028-04-20</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>15:23:18</t>
+          <t>18:18:31</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>"Si mon aimable rapporteur voulait bien m’apporter sa personne, et celle de ses dames, demain dimanche ..." à Ladoucette, 1829-04-20, https://constance-de-salm.de/archiv/#/document/9353 #onthisday</t>
+          <t>»Si mon aimable rapporteur voulait bien m’apporter sa personne, et celle de ses dames, demain dimanche ...« à Ladoucette, 1829-04-20, https://constance-de-salm.de/archiv/#/document/9353 #onthisday</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3244,17 +3244,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2028-4-23</t>
+          <t>2028-04-23</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>19:33:07</t>
+          <t>10:38:02</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>"Je reçois votre lettre, mon cher Anténor, et je ne veux pas tarder à vous répondre; je suis à la campagne ..." à Lantier, 1825-04-23, https://constance-de-salm.de/archiv/#/document/8955 #onthisday</t>
+          <t>»Je reçois votre lettre, mon cher Anténor, et je ne veux pas tarder à vous répondre; je suis à la campagne ...« à Lantier, 1825-04-23, https://constance-de-salm.de/archiv/#/document/8955 #onthisday</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3271,17 +3271,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2028-4-24</t>
+          <t>2028-04-24</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>19:16:19</t>
+          <t>10:23:31</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>"Monsieur Drais me remet votre lettre, ma bien chère amie, je ne perds pas un moment pour vous dire ..." à Salis, 1838-04-24, https://constance-de-salm.de/archiv/#/document/7905 #onthisday</t>
+          <t>»Monsieur Drais me remet votre lettre, ma bien chère amie, je ne perds pas un moment pour vous dire ...« à Salis, 1838-04-24, https://constance-de-salm.de/archiv/#/document/7905 #onthisday</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3298,17 +3298,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2028-4-25</t>
+          <t>2028-04-25</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>10:57:54</t>
+          <t>19:47:52</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>"Depuis bien des jours, ma chère amie, je me propose de vous donner moi-même de mes nouvelles; ..." à Leroy de Bacre, 1835-04-25, https://constance-de-salm.de/archiv/#/document/9598 #onthisday</t>
+          <t>»Depuis bien des jours, ma chère amie, je me propose de vous donner moi-même de mes nouvelles; ...« à Leroy de Bacre, 1835-04-25, https://constance-de-salm.de/archiv/#/document/9598 #onthisday</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3325,17 +3325,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2028-4-26</t>
+          <t>2028-04-26</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>19:43:53</t>
+          <t>19:05:12</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>"Monsieur Thiessé s’est chargé à ma demande, Monsieur, de faire pour le „Constitutionnel“ un article sur une Épître que je viens de publier ..." à Jay, 1828-04-26, https://constance-de-salm.de/archiv/#/document/9153 #onthisday</t>
+          <t>»Monsieur Thiessé s’est chargé à ma demande, Monsieur, de faire pour le „Constitutionnel“ un article sur une Épître que je viens de publier ...« à Jay, 1828-04-26, https://constance-de-salm.de/archiv/#/document/9153 #onthisday</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3352,17 +3352,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2028-4-27</t>
+          <t>2028-04-27</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>14:01:15</t>
+          <t>13:36:39</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>"J’ai remis de jour en jour, cher frère, à te donner de mes nouvelles quoique je sois, comme on dit, en pleine convalescence ..." à Théis, 1833-04-27, https://constance-de-salm.de/archiv/#/document/10829 #onthisday</t>
+          <t>»J’ai remis de jour en jour, cher frère, à te donner de mes nouvelles quoique je sois, comme on dit, en pleine convalescence ...« à Théis, 1833-04-27, https://constance-de-salm.de/archiv/#/document/10829 #onthisday</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3379,17 +3379,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2028-4-28</t>
+          <t>2028-04-28</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>09:07:22</t>
+          <t>13:13:48</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>"Je me serais empressée, Madame, de répondre à la lettre aussi flatteuse que touchante que j’ai reçue ..." à Babois, 1829-04-28, https://constance-de-salm.de/archiv/#/document/9362 #onthisday</t>
+          <t>»Je me serais empressée, Madame, de répondre à la lettre aussi flatteuse que touchante que j’ai reçue ...« à Babois, 1829-04-28, https://constance-de-salm.de/archiv/#/document/9362 #onthisday</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3406,17 +3406,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2028-4-29</t>
+          <t>2028-04-29</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>08:17:05</t>
+          <t>09:10:02</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>"Charles et Joséphine sont venus, il y a quelques jours, me voir, cher frère ..." à Théis, 1840-04-29, https://constance-de-salm.de/archiv/#/document/8174 #onthisday</t>
+          <t>»Charles et Joséphine sont venus, il y a quelques jours, me voir, cher frère ...« à Théis, 1840-04-29, https://constance-de-salm.de/archiv/#/document/8174 #onthisday</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3433,17 +3433,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2028-4-30</t>
+          <t>2028-04-30</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>11:17:05</t>
+          <t>13:54:44</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>"Je viens d'écrire à plusieurs de mes amis, Monsieur, pour leur annoncer mon arrivée ici, et les engager à me donner de leurs nouvelles ..." à Montémont, 1830-04-30, https://constance-de-salm.de/archiv/#/document/5166 #onthisday</t>
+          <t>»Je viens d'écrire à plusieurs de mes amis, Monsieur, pour leur annoncer mon arrivée ici, et les engager à me donner de leurs nouvelles ...« à Montémont, 1830-04-30, https://constance-de-salm.de/archiv/#/document/5166 #onthisday</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3460,17 +3460,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2028-5-1</t>
+          <t>2028-05-01</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>10:21:16</t>
+          <t>10:58:33</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>"Monsieur Drais m'a écrit, Monsieur, que Monsieur Chazal devait aller chez vous pour vous copier le portrait de Gudin ..." à Audiffret, 1830-05-01, https://constance-de-salm.de/archiv/#/document/5167 #onthisday</t>
+          <t>»Monsieur Drais m'a écrit, Monsieur, que Monsieur Chazal devait aller chez vous pour vous copier le portrait de Gudin ...« à Audiffret, 1830-05-01, https://constance-de-salm.de/archiv/#/document/5167 #onthisday</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3487,17 +3487,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2028-5-2</t>
+          <t>2028-05-02</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>18:30:31</t>
+          <t>12:09:53</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>"L’article que vous m’avez envoyé, Monsieur, est parfait; rien n’y manque; ..." à Sanson de Pongerville, 1829-05-02, https://constance-de-salm.de/archiv/#/document/9366 #onthisday</t>
+          <t>»L’article que vous m’avez envoyé, Monsieur, est parfait; rien n’y manque; ...« à Sanson de Pongerville, 1829-05-02, https://constance-de-salm.de/archiv/#/document/9366 #onthisday</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3514,17 +3514,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2028-5-3</t>
+          <t>2028-05-03</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>10:29:39</t>
+          <t>17:18:56</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>"Je veux, Monsieur, vous écrire un mot, c’est un besoin pour moi de dire à ceux que je voyais souvent à Paris où j’en suis de mon voyage ..." à Villenave, 1828-05-03, https://constance-de-salm.de/archiv/#/document/9162 #onthisday</t>
+          <t>»Je veux, Monsieur, vous écrire un mot, c’est un besoin pour moi de dire à ceux que je voyais souvent à Paris où j’en suis de mon voyage ...« à Villenave, 1828-05-03, https://constance-de-salm.de/archiv/#/document/9162 #onthisday</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3541,17 +3541,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2028-5-4</t>
+          <t>2028-05-04</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>11:08:37</t>
+          <t>16:24:06</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>"L’accueil fait à votre rapport et à mes „Pensées“ m’a extrêmement flattée, Monsieur le Baron; ..." à Ladoucette, 1829-05-04, https://constance-de-salm.de/archiv/#/document/9367 #onthisday</t>
+          <t>»L’accueil fait à votre rapport et à mes „Pensées“ m’a extrêmement flattée, Monsieur le Baron; ...« à Ladoucette, 1829-05-04, https://constance-de-salm.de/archiv/#/document/9367 #onthisday</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3568,17 +3568,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2028-5-5</t>
+          <t>2028-05-05</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>17:06:10</t>
+          <t>19:55:46</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>"La note en question est partie avec les recommandations les plus pressantes ..." à Villenave, 1829-05-05, https://constance-de-salm.de/archiv/#/document/9372 #onthisday</t>
+          <t>»La note en question est partie avec les recommandations les plus pressantes ...« à Villenave, 1829-05-05, https://constance-de-salm.de/archiv/#/document/9372 #onthisday</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3595,17 +3595,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2028-5-6</t>
+          <t>2028-05-06</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>08:05:53</t>
+          <t>18:58:53</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>"Depuis que j’ai reçu ta lettre de Berlin je me suis bien souvent proposé de t’écrire, Charles, mais j’avais le cœur ..." à Théis, 1836-05-06, https://constance-de-salm.de/archiv/#/document/10858 #onthisday</t>
+          <t>»Depuis que j’ai reçu ta lettre de Berlin je me suis bien souvent proposé de t’écrire, Charles, mais j’avais le cœur ...« à Théis, 1836-05-06, https://constance-de-salm.de/archiv/#/document/10858 #onthisday</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3622,17 +3622,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2028-5-7</t>
+          <t>2028-05-07</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>11:56:24</t>
+          <t>09:10:57</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>"On me dit que Monsieur le baron part demain matin, il n’est pas venu chercher ses fables; ..." à Ladoucette, 1829-05-07, https://constance-de-salm.de/archiv/#/document/9378 #onthisday</t>
+          <t>»On me dit que Monsieur le baron part demain matin, il n’est pas venu chercher ses fables; ...« à Ladoucette, 1829-05-07, https://constance-de-salm.de/archiv/#/document/9378 #onthisday</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3649,17 +3649,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2028-5-8</t>
+          <t>2028-05-08</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>09:25:29</t>
+          <t>18:26:46</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>"Depuis que j’ai reçu votre dernière lettre, Monsieur, je me propose chaque jour de vous écrire; ..." à Villenave, 1835-05-08, https://constance-de-salm.de/archiv/#/document/9600 #onthisday</t>
+          <t>»Depuis que j’ai reçu votre dernière lettre, Monsieur, je me propose chaque jour de vous écrire; ...« à Villenave, 1835-05-08, https://constance-de-salm.de/archiv/#/document/9600 #onthisday</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3676,17 +3676,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2028-5-10</t>
+          <t>2028-05-10</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>18:42:17</t>
+          <t>19:51:39</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>"Je réunis quelques amis lundi prochain, Monsieur, et pour la dernière fois, devant, sous peu de temps, partir pour la campagne ..." à Tissot, 1834-05-10, https://constance-de-salm.de/archiv/#/document/5564 #onthisday</t>
+          <t>»Je réunis quelques amis lundi prochain, Monsieur, et pour la dernière fois, devant, sous peu de temps, partir pour la campagne ...« à Tissot, 1834-05-10, https://constance-de-salm.de/archiv/#/document/5564 #onthisday</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3703,17 +3703,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2028-5-12</t>
+          <t>2028-05-12</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>13:03:54</t>
+          <t>08:43:32</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>"L’article est charmant; j’en remercie mille fois celui qui l’a fait et aussi Monsieur le baron ..." à Ladoucette, 1829-05-12, https://constance-de-salm.de/archiv/#/document/9382 #onthisday</t>
+          <t>»L’article est charmant; j’en remercie mille fois celui qui l’a fait et aussi Monsieur le baron ...« à Ladoucette, 1829-05-12, https://constance-de-salm.de/archiv/#/document/9382 #onthisday</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3730,17 +3730,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2028-5-13</t>
+          <t>2028-05-13</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>11:34:20</t>
+          <t>10:47:17</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>"J’engage Monsieur Villenave et Monsieur son fils à venir dîner avec nous après demain dimanche ..." à Villenave, 1831-05-13, https://constance-de-salm.de/archiv/#/document/11021 #onthisday</t>
+          <t>»J’engage Monsieur Villenave et Monsieur son fils à venir dîner avec nous après demain dimanche ...« à Villenave, 1831-05-13, https://constance-de-salm.de/archiv/#/document/11021 #onthisday</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3757,17 +3757,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2028-5-14</t>
+          <t>2028-05-14</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>14:04:29</t>
+          <t>09:58:32</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>"Mon ancien ami, un de mes premiers soins en arrivant est de vous écrire un mot ..." à Raboteau, 1819-05-14, https://constance-de-salm.de/archiv/#/document/3976 #onthisday</t>
+          <t>»Mon ancien ami, un de mes premiers soins en arrivant est de vous écrire un mot ...« à Raboteau, 1819-05-14, https://constance-de-salm.de/archiv/#/document/3976 #onthisday</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3784,17 +3784,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2028-5-15</t>
+          <t>2028-05-15</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>08:52:16</t>
+          <t>10:36:16</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>"Dites-moi, mon cher voisin, ce qui vous a empêché de venir dimanche, ainsi que ces dames ..." à Prous, 1821-05-15, https://constance-de-salm.de/archiv/#/document/4555 #onthisday</t>
+          <t>»Dites-moi, mon cher voisin, ce qui vous a empêché de venir dimanche, ainsi que ces dames ...« à Prous, 1821-05-15, https://constance-de-salm.de/archiv/#/document/4555 #onthisday</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3811,17 +3811,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2028-5-16</t>
+          <t>2028-05-16</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>16:08:32</t>
+          <t>08:19:41</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>"Je vous ai promis, Monsieur, que je vous écrirais la première ..." à Marron, 1819-05-16, https://constance-de-salm.de/archiv/#/document/4471 #onthisday</t>
+          <t>»Je vous ai promis, Monsieur, que je vous écrirais la première ...« à Marron, 1819-05-16, https://constance-de-salm.de/archiv/#/document/4471 #onthisday</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3838,17 +3838,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2028-5-16</t>
+          <t>2028-05-16</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>15:21:01</t>
+          <t>15:22:12</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>"Je reçois votre belle et propre lettre, sur mon canapé ..." à Prous, 1821-05-16, https://constance-de-salm.de/archiv/#/document/2844 #onthisday</t>
+          <t>»Je reçois votre belle et propre lettre, sur mon canapé ...« à Prous, 1821-05-16, https://constance-de-salm.de/archiv/#/document/2844 #onthisday</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3865,17 +3865,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2028-5-17</t>
+          <t>2028-05-17</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>09:18:18</t>
+          <t>18:07:35</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>"Je reçois ici votre excellente lettre, qui m'a été renvoyée de la campagne, Monsieur, et je m'empresse d'y répondre ..." à Say, 1832-05-17, https://constance-de-salm.de/archiv/#/document/5389 #onthisday</t>
+          <t>»Je reçois ici votre excellente lettre, qui m'a été renvoyée de la campagne, Monsieur, et je m'empresse d'y répondre ...« à Say, 1832-05-17, https://constance-de-salm.de/archiv/#/document/5389 #onthisday</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3892,17 +3892,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2028-5-18</t>
+          <t>2028-05-18</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>10:36:30</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>"Impromptu en réponse à l'impromptu ..." à Ladoucette, 1831-05-18, https://constance-de-salm.de/archiv/#/document/8402 #onthisday</t>
+          <t>»Impromptu en réponse à l'impromptu ...« à Ladoucette, 1831-05-18, https://constance-de-salm.de/archiv/#/document/8402 #onthisday</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3919,17 +3919,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2028-5-19</t>
+          <t>2028-05-19</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>08:48:16</t>
+          <t>19:49:13</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>"Avant-hier, Madame, après que vous m'avez eu quittée, j'ai pensé tout-à-coup ..." à Vien, 1834-05-19, https://constance-de-salm.de/archiv/#/document/5568 #onthisday</t>
+          <t>»Avant-hier, Madame, après que vous m'avez eu quittée, j'ai pensé tout-à-coup ...« à Vien, 1834-05-19, https://constance-de-salm.de/archiv/#/document/5568 #onthisday</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3946,17 +3946,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2028-5-20</t>
+          <t>2028-05-20</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>08:28:02</t>
+          <t>18:25:52</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps que je ne vous ai écrit, Monsieur et ancien ami ..." à Raboteau, 1820-05-20, https://constance-de-salm.de/archiv/#/document/3982 #onthisday</t>
+          <t>»Il y a bien longtemps que je ne vous ai écrit, Monsieur et ancien ami ...« à Raboteau, 1820-05-20, https://constance-de-salm.de/archiv/#/document/3982 #onthisday</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3973,17 +3973,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2028-5-20</t>
+          <t>2028-05-20</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>16:06:57</t>
+          <t>17:28:02</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps que je ne vous ai écrit, Monsieur et ancien ami ..." à Raboteau, 1820-05-20, https://constance-de-salm.de/archiv/#/document/4531 #onthisday</t>
+          <t>»Il y a bien longtemps que je ne vous ai écrit, Monsieur et ancien ami ...« à Raboteau, 1820-05-20, https://constance-de-salm.de/archiv/#/document/4531 #onthisday</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4000,17 +4000,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2028-5-21</t>
+          <t>2028-05-21</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>18:16:12</t>
+          <t>13:15:05</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>"Me voilà enfin ici, Monsieur, après avoir fait un très bon voyage ..." à Barbier, 1823-05-21, https://constance-de-salm.de/archiv/#/document/4072 #onthisday</t>
+          <t>»Me voilà enfin ici, Monsieur, après avoir fait un très bon voyage ...« à Barbier, 1823-05-21, https://constance-de-salm.de/archiv/#/document/4072 #onthisday</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4027,17 +4027,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2028-5-23</t>
+          <t>2028-05-23</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>19:00:58</t>
+          <t>17:27:17</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>"Je n’entends pas parler de toi, cher frère, j’ai pensé souvent à t’écrire ..." à Théis, 1837-05-23, https://constance-de-salm.de/archiv/#/document/10893 #onthisday</t>
+          <t>»Je n’entends pas parler de toi, cher frère, j’ai pensé souvent à t’écrire ...« à Théis, 1837-05-23, https://constance-de-salm.de/archiv/#/document/10893 #onthisday</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4054,17 +4054,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2028-5-24</t>
+          <t>2028-05-24</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>16:46:14</t>
+          <t>13:48:22</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>"J’ai voulu hier au soir vous dire un mot de la „Biographie des hommes du jour“ ..." à Ladoucette, 1836-05-24, https://constance-de-salm.de/archiv/#/document/9752 #onthisday</t>
+          <t>»J’ai voulu hier au soir vous dire un mot de la „Biographie des hommes du jour“ ...« à Ladoucette, 1836-05-24, https://constance-de-salm.de/archiv/#/document/9752 #onthisday</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4081,17 +4081,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2028-5-25</t>
+          <t>2028-05-25</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>16:40:02</t>
+          <t>10:39:50</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>"Voilà bien longtemps, cher frère, que je projette de t‘écrire; ..." à Théis, 1836-05-25, https://constance-de-salm.de/archiv/#/document/10871 #onthisday</t>
+          <t>»Voilà bien longtemps, cher frère, que je projette de t‘écrire; ...« à Théis, 1836-05-25, https://constance-de-salm.de/archiv/#/document/10871 #onthisday</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4108,17 +4108,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2028-5-25</t>
+          <t>2028-05-25</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>15:23:55</t>
+          <t>19:56:04</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>"Je me plains toujours de ne vous avoir pas vu cet hiver, mon cher Docteur ..." à Alibert, 1836-05-25, https://constance-de-salm.de/archiv/#/document/9753 #onthisday</t>
+          <t>»Je me plains toujours de ne vous avoir pas vu cet hiver, mon cher Docteur ...« à Alibert, 1836-05-25, https://constance-de-salm.de/archiv/#/document/9753 #onthisday</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4135,17 +4135,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2028-5-26</t>
+          <t>2028-05-26</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>11:15:37</t>
+          <t>08:38:16</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>"J’ai reçu à Paris au moment de mon départ, Madame, la lettre que vous m’aviez adressée à Aix ..." à Montigny, 1829-05-26, https://constance-de-salm.de/archiv/#/document/9387 #onthisday</t>
+          <t>»J’ai reçu à Paris au moment de mon départ, Madame, la lettre que vous m’aviez adressée à Aix ...« à Montigny, 1829-05-26, https://constance-de-salm.de/archiv/#/document/9387 #onthisday</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4162,17 +4162,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2028-5-27</t>
+          <t>2028-05-27</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>14:29:56</t>
+          <t>19:41:42</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>"Vous aurez peut-être été surpris, Monsieur, de n’avoir plus entendu parler de moi à Paris ..." à Pailliet, 1826-05-27, https://constance-de-salm.de/archiv/#/document/11357 #onthisday</t>
+          <t>»Vous aurez peut-être été surpris, Monsieur, de n’avoir plus entendu parler de moi à Paris ...« à Pailliet, 1826-05-27, https://constance-de-salm.de/archiv/#/document/11357 #onthisday</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4189,17 +4189,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2028-5-27</t>
+          <t>2028-05-27</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>14:05:04</t>
+          <t>18:54:53</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>"La perte irréparable que j’ai faite m’a tellement désolée, ma chère amie, que depuis deux mois il m’a été impossible de vous écrire ..." à Naigeon, 1835-05-27, https://constance-de-salm.de/archiv/#/document/9605 #onthisday</t>
+          <t>»La perte irréparable que j’ai faite m’a tellement désolée, ma chère amie, que depuis deux mois il m’a été impossible de vous écrire ...« à Naigeon, 1835-05-27, https://constance-de-salm.de/archiv/#/document/9605 #onthisday</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4216,17 +4216,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2028-5-28</t>
+          <t>2028-05-28</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>17:39:38</t>
+          <t>16:58:35</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>"Je reçois enfin cinquante exemplaires de mes „Soixante ans“ ..." à Paganel, 1833-05-28, https://constance-de-salm.de/archiv/#/document/5214 #onthisday</t>
+          <t>»Je reçois enfin cinquante exemplaires de mes „Soixante ans“ ...« à Paganel, 1833-05-28, https://constance-de-salm.de/archiv/#/document/5214 #onthisday</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4243,17 +4243,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2028-5-28</t>
+          <t>2028-05-28</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>10:52:35</t>
+          <t>09:34:41</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>"Voici enfin mes „Souvenirs“, Monsieur, quoique je compte sur vous et votre famille aujourd'hui ..." à Villenave, 1833-05-28, https://constance-de-salm.de/archiv/#/document/5215 #onthisday</t>
+          <t>»Voici enfin mes „Souvenirs“, Monsieur, quoique je compte sur vous et votre famille aujourd'hui ...« à Villenave, 1833-05-28, https://constance-de-salm.de/archiv/#/document/5215 #onthisday</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4270,17 +4270,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2028-5-29</t>
+          <t>2028-05-29</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>12:51:19</t>
+          <t>18:46:29</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>"Je viens de recevoir votre lettre, Monsieur, et je m'empresse de vous dire que je l'ai lue avec un véritable plaisir ..." à Châtelain, 1834-05-29, https://constance-de-salm.de/archiv/#/document/5569 #onthisday</t>
+          <t>»Je viens de recevoir votre lettre, Monsieur, et je m'empresse de vous dire que je l'ai lue avec un véritable plaisir ...« à Châtelain, 1834-05-29, https://constance-de-salm.de/archiv/#/document/5569 #onthisday</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4297,17 +4297,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2028-5-29</t>
+          <t>2028-05-29</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>19:43:38</t>
+          <t>12:48:21</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>"Monsieur Drais m’a envoyé, mon ancien ami, un mot que vous lui avez écrit, et qui m’a plus touchée qu’il ne m’est possible de vous le dire ..." à Duval, 1835-05-29, https://constance-de-salm.de/archiv/#/document/9606 #onthisday</t>
+          <t>»Monsieur Drais m’a envoyé, mon ancien ami, un mot que vous lui avez écrit, et qui m’a plus touchée qu’il ne m’est possible de vous le dire ...« à Duval, 1835-05-29, https://constance-de-salm.de/archiv/#/document/9606 #onthisday</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4324,17 +4324,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2028-5-30</t>
+          <t>2028-05-30</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>19:52:40</t>
+          <t>16:23:52</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>"Vous êtes trop aimable, Monsieur, d’avoir repensé à la petite affaire de l’abonnement à l’Époque ..." à Montémont, 1836-05-30, https://constance-de-salm.de/archiv/#/document/9755 #onthisday</t>
+          <t>»Vous êtes trop aimable, Monsieur, d’avoir repensé à la petite affaire de l’abonnement à l’Époque ...« à Montémont, 1836-05-30, https://constance-de-salm.de/archiv/#/document/9755 #onthisday</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4351,17 +4351,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2028-5-30</t>
+          <t>2028-05-30</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>15:38:29</t>
+          <t>14:16:18</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>"Je compte sur vous mercredi, Monsieur, et je vous prie de me rapporter sans faute l'exemplaire de ma notice ..." à Boucharlat, 1839-05-30, https://constance-de-salm.de/archiv/#/document/8037 #onthisday</t>
+          <t>»Je compte sur vous mercredi, Monsieur, et je vous prie de me rapporter sans faute l'exemplaire de ma notice ...« à Boucharlat, 1839-05-30, https://constance-de-salm.de/archiv/#/document/8037 #onthisday</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4378,17 +4378,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2028-5-31</t>
+          <t>2028-05-31</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>16:26:08</t>
+          <t>12:15:09</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>"Vous allez rire, Monsieur, vous m'avez rapporté une fois l'exemplaire de la notice que je vous donnée [sic] ..." à Bignan, 1839-05-31, https://constance-de-salm.de/archiv/#/document/8042 #onthisday</t>
+          <t>»Vous allez rire, Monsieur, vous m'avez rapporté une fois l'exemplaire de la notice que je vous donnée [sic] ...« à Bignan, 1839-05-31, https://constance-de-salm.de/archiv/#/document/8042 #onthisday</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4405,17 +4405,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2028-5-31</t>
+          <t>2028-05-31</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>08:42:20</t>
+          <t>11:23:41</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>"Vous allez rire, Monsieur, il faut encore que vous me rapportiez les six exemplaires de ma notice ..." à Barbier, 1839-05-31, https://constance-de-salm.de/archiv/#/document/8041 #onthisday</t>
+          <t>»Vous allez rire, Monsieur, il faut encore que vous me rapportiez les six exemplaires de ma notice ...« à Barbier, 1839-05-31, https://constance-de-salm.de/archiv/#/document/8041 #onthisday</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4432,17 +4432,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2028-6-1</t>
+          <t>2028-06-01</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>10:38:11</t>
+          <t>10:20:32</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>"Loin de Paris dans ce moment, Madame, je n'apprends qu'aujourd'hui qu'on ..." à Genlis, 1820-06-01, https://constance-de-salm.de/archiv/#/document/10487 #onthisday</t>
+          <t>»Loin de Paris dans ce moment, Madame, je n'apprends qu'aujourd'hui qu'on ...« à Genlis, 1820-06-01, https://constance-de-salm.de/archiv/#/document/10487 #onthisday</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4459,17 +4459,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2028-6-1</t>
+          <t>2028-06-01</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>14:26:00</t>
+          <t>14:11:44</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>"Un petit accès de mon vieux mal causé par le mauvais temps que nous avons ..." à Théis, 1825-06-01, https://constance-de-salm.de/archiv/#/document/10627 #onthisday</t>
+          <t>»Un petit accès de mon vieux mal causé par le mauvais temps que nous avons ...« à Théis, 1825-06-01, https://constance-de-salm.de/archiv/#/document/10627 #onthisday</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4486,17 +4486,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2028-6-2</t>
+          <t>2028-06-02</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>13:49:02</t>
+          <t>17:48:09</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>"Mon petit-fils Constant qui a rencontré Monsieur Comte, vient de me dire que l’on retrancherait au Constitutionnel quelques lignes ..." à Comte, 1833-06-02, https://constance-de-salm.de/archiv/#/document/9524 #onthisday</t>
+          <t>»Mon petit-fils Constant qui a rencontré Monsieur Comte, vient de me dire que l’on retrancherait au Constitutionnel quelques lignes ...« à Comte, 1833-06-02, https://constance-de-salm.de/archiv/#/document/9524 #onthisday</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4513,17 +4513,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2028-6-3</t>
+          <t>2028-06-03</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>16:53:19</t>
+          <t>11:19:16</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>"Sire, je me proposais à mon arrivée à Paris de demander à Votre Majesté ..." à Louis-Philippe Ier, 1831-06-03, https://constance-de-salm.de/archiv/#/document/6330 #onthisday</t>
+          <t>»Sire, je me proposais à mon arrivée à Paris de demander à Votre Majesté ...« à Louis-Philippe Ier, 1831-06-03, https://constance-de-salm.de/archiv/#/document/6330 #onthisday</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4540,17 +4540,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2028-6-3</t>
+          <t>2028-06-03</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>17:55:23</t>
+          <t>09:34:04</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>"Votre lettre que j’ai reçue dans un moment bien terrible pour moi, m’a extrêmement touchée, ma chère amie, et il y a longtemps ..." à Berr, 1835-06-03, https://constance-de-salm.de/archiv/#/document/9608 #onthisday</t>
+          <t>»Votre lettre que j’ai reçue dans un moment bien terrible pour moi, m’a extrêmement touchée, ma chère amie, et il y a longtemps ...« à Berr, 1835-06-03, https://constance-de-salm.de/archiv/#/document/9608 #onthisday</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4567,17 +4567,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2028-6-5</t>
+          <t>2028-06-05</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>15:37:39</t>
+          <t>11:22:11</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>"Je m'empresse, Madame et aimable amie, de vous envoyer pour vous et votre cher mari ..." à Laya, 1833-06-05, https://constance-de-salm.de/archiv/#/document/5271 #onthisday</t>
+          <t>»Je m'empresse, Madame et aimable amie, de vous envoyer pour vous et votre cher mari ...« à Laya, 1833-06-05, https://constance-de-salm.de/archiv/#/document/5271 #onthisday</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4594,17 +4594,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2028-6-6</t>
+          <t>2028-06-06</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>15:32:41</t>
+          <t>13:36:47</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>"Après avoir lu avec attention votre dernier billet, Monsieur ..." à Sauvo, 1831-06-06, https://constance-de-salm.de/archiv/#/document/6418 #onthisday</t>
+          <t>»Après avoir lu avec attention votre dernier billet, Monsieur ...« à Sauvo, 1831-06-06, https://constance-de-salm.de/archiv/#/document/6418 #onthisday</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4621,17 +4621,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2028-6-7</t>
+          <t>2028-06-07</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>18:06:30</t>
+          <t>10:41:04</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>"Je veux vous reprocher, mon ancien ami, de ne m'avoir pas fait partager vous même la joie que m'a causé votre nomination à l'académie ..." à Thurot, 1830-06-07, https://constance-de-salm.de/archiv/#/document/5171 #onthisday</t>
+          <t>»Je veux vous reprocher, mon ancien ami, de ne m'avoir pas fait partager vous même la joie que m'a causé votre nomination à l'académie ...« à Thurot, 1830-06-07, https://constance-de-salm.de/archiv/#/document/5171 #onthisday</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4648,17 +4648,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2028-6-7</t>
+          <t>2028-06-07</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>11:13:43</t>
+          <t>14:57:40</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>"J'ai été bien malade depuis le jour où vous nous avez fait le plaisir ..." à Sauvo, 1833-06-07, https://constance-de-salm.de/archiv/#/document/5219 #onthisday</t>
+          <t>»J'ai été bien malade depuis le jour où vous nous avez fait le plaisir ...« à Sauvo, 1833-06-07, https://constance-de-salm.de/archiv/#/document/5219 #onthisday</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4675,17 +4675,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2028-6-8</t>
+          <t>2028-06-08</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>17:38:08</t>
+          <t>14:23:09</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>"Je viens, Monsieur le baron, de dicter une lettre pour Monsieur Charles Malo qui m'a écrit relativement à la „France littéraire“ ..." à Ladoucette, 1832-06-08, https://constance-de-salm.de/archiv/#/document/5407 #onthisday</t>
+          <t>»Je viens, Monsieur le baron, de dicter une lettre pour Monsieur Charles Malo qui m'a écrit relativement à la „France littéraire“ ...« à Ladoucette, 1832-06-08, https://constance-de-salm.de/archiv/#/document/5407 #onthisday</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4702,17 +4702,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2028-6-9</t>
+          <t>2028-06-09</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>08:39:31</t>
+          <t>10:56:38</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>"Je reçois à l'instant votre lettre, Monsieur, et je m'empresse de vous témoigner le regret que j'éprouve de ne pouvoir vous envoyer ..." à Malo, 1832-06-09, https://constance-de-salm.de/archiv/#/document/5408 #onthisday</t>
+          <t>»Je reçois à l'instant votre lettre, Monsieur, et je m'empresse de vous témoigner le regret que j'éprouve de ne pouvoir vous envoyer ...« à Malo, 1832-06-09, https://constance-de-salm.de/archiv/#/document/5408 #onthisday</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4729,17 +4729,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2028-6-10</t>
+          <t>2028-06-10</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>16:13:02</t>
+          <t>16:37:37</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>"Sire, j’ai eu l’honneur d’offrir à Votre Majesté, il y a quelques années, un petit volume de Pensées; ..." à Friedrich Wilhelm III., 1836-06-10, https://constance-de-salm.de/archiv/#/document/9757 #onthisday</t>
+          <t>»Sire, j’ai eu l’honneur d’offrir à Votre Majesté, il y a quelques années, un petit volume de Pensées; ...« à Friedrich Wilhelm III., 1836-06-10, https://constance-de-salm.de/archiv/#/document/9757 #onthisday</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4756,17 +4756,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2028-6-10</t>
+          <t>2028-06-10</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>09:34:46</t>
+          <t>08:27:14</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>"Je serai charmée, très aimable dame, de recevoir Madame la comtesse Dupont, et de tenir ..." à Waldor, 1839-06-10, https://constance-de-salm.de/archiv/#/document/8050 #onthisday</t>
+          <t>»Je serai charmée, très aimable dame, de recevoir Madame la comtesse Dupont, et de tenir ...« à Waldor, 1839-06-10, https://constance-de-salm.de/archiv/#/document/8050 #onthisday</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4783,17 +4783,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2028-6-11</t>
+          <t>2028-06-11</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>15:56:27</t>
+          <t>12:18:54</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>"Je laisse cueillir des fraises, Monsieur, je suis charmée de ce qu’elles vous ont fait du bien et à ces dames ..." à Prous, 1816-06-11, https://constance-de-salm.de/archiv/#/document/2794 #onthisday</t>
+          <t>»Je laisse cueillir des fraises, Monsieur, je suis charmée de ce qu’elles vous ont fait du bien et à ces dames ...« à Prous, 1816-06-11, https://constance-de-salm.de/archiv/#/document/2794 #onthisday</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4810,17 +4810,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2028-6-11</t>
+          <t>2028-06-11</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>17:02:15</t>
+          <t>18:35:02</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>"Me voilà à la campagne, Monsieur, un de mes premiers soins est de vous écrire ..." à Pailliet, 1827-06-11, https://constance-de-salm.de/archiv/#/document/11367 #onthisday</t>
+          <t>»Me voilà à la campagne, Monsieur, un de mes premiers soins est de vous écrire ...« à Pailliet, 1827-06-11, https://constance-de-salm.de/archiv/#/document/11367 #onthisday</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4837,17 +4837,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2028-6-12</t>
+          <t>2028-06-12</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>19:02:36</t>
+          <t>19:28:01</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>"J’étais sur le point de quitter Paris, Monsieur, lorsque j’ai reçu votre dernière lettre ..." à Guyet, 1836-06-12, https://constance-de-salm.de/archiv/#/document/9758 #onthisday</t>
+          <t>»J’étais sur le point de quitter Paris, Monsieur, lorsque j’ai reçu votre dernière lettre ...« à Guyet, 1836-06-12, https://constance-de-salm.de/archiv/#/document/9758 #onthisday</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4864,17 +4864,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2028-6-13</t>
+          <t>2028-06-13</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>13:05:23</t>
+          <t>10:48:54</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>"J’ai reçu presque au moment de mon départ, Monsieur, une très bonne petite lettre de vous ..." à Villenave, 1836-06-13, https://constance-de-salm.de/archiv/#/document/9774 #onthisday</t>
+          <t>»J’ai reçu presque au moment de mon départ, Monsieur, une très bonne petite lettre de vous ...« à Villenave, 1836-06-13, https://constance-de-salm.de/archiv/#/document/9774 #onthisday</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4891,17 +4891,17 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2028-6-14</t>
+          <t>2028-06-14</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>09:40:07</t>
+          <t>19:27:06</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>"Il y a bien trop longtemps que je projete [sic] de vous écrire, mon cher voisin ..." à Maison, 1830-06-14, https://constance-de-salm.de/archiv/#/document/5172 #onthisday</t>
+          <t>»Il y a bien trop longtemps que je projete [sic] de vous écrire, mon cher voisin ...« à Maison, 1830-06-14, https://constance-de-salm.de/archiv/#/document/5172 #onthisday</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4918,17 +4918,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2028-6-15</t>
+          <t>2028-06-15</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>17:55:16</t>
+          <t>19:57:49</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>"Je reçois à l'instant ta lettre, cher frère, et comme tu le verras, j'avais justement fait mettre à la poste ..." à Théis, 1841-06-15, https://constance-de-salm.de/archiv/#/document/7433 #onthisday</t>
+          <t>»Je reçois à l'instant ta lettre, cher frère, et comme tu le verras, j'avais justement fait mettre à la poste ...« à Théis, 1841-06-15, https://constance-de-salm.de/archiv/#/document/7433 #onthisday</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4945,17 +4945,17 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2028-6-16</t>
+          <t>2028-06-16</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>17:05:46</t>
+          <t>13:32:34</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>"Depuis trois mois, mon ancienne amie, j’ai été tellement accablée par la douleur, les regrets, les tristes souvenirs ..." à Salis, 1835-06-16, https://constance-de-salm.de/archiv/#/document/9612 #onthisday</t>
+          <t>»Depuis trois mois, mon ancienne amie, j’ai été tellement accablée par la douleur, les regrets, les tristes souvenirs ...« à Salis, 1835-06-16, https://constance-de-salm.de/archiv/#/document/9612 #onthisday</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4972,17 +4972,17 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2028-6-17</t>
+          <t>2028-06-17</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>12:23:05</t>
+          <t>12:04:53</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>"J’ai été plus touchée que je ne puis vous l’exprimer, Madame, du sentiment qui vous a fait m‘écrire dès que vous avez appris la perte cruelle ..." à Babois, 1835-06-17, https://constance-de-salm.de/archiv/#/document/9614 #onthisday</t>
+          <t>»J’ai été plus touchée que je ne puis vous l’exprimer, Madame, du sentiment qui vous a fait m‘écrire dès que vous avez appris la perte cruelle ...« à Babois, 1835-06-17, https://constance-de-salm.de/archiv/#/document/9614 #onthisday</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4999,17 +4999,17 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2028-6-18</t>
+          <t>2028-06-18</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>09:20:48</t>
+          <t>09:28:57</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>"Ce billet vous sera remis, Madame, par Monsieur Forster ..." à Vien, 1833-06-18, https://constance-de-salm.de/archiv/#/document/5228 #onthisday</t>
+          <t>»Ce billet vous sera remis, Madame, par Monsieur Forster ...« à Vien, 1833-06-18, https://constance-de-salm.de/archiv/#/document/5228 #onthisday</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5026,17 +5026,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2028-6-19</t>
+          <t>2028-06-19</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>18:04:15</t>
+          <t>08:58:31</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>"Il me semble, Monsieur, qu'en recevant cette lettre, vous serez étonné de la voir datée de Paris ..." à Sanson de Pongerville, 1837-06-19, https://constance-de-salm.de/archiv/#/document/7785 #onthisday</t>
+          <t>»Il me semble, Monsieur, qu'en recevant cette lettre, vous serez étonné de la voir datée de Paris ...« à Sanson de Pongerville, 1837-06-19, https://constance-de-salm.de/archiv/#/document/7785 #onthisday</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5053,17 +5053,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2028-6-20</t>
+          <t>2028-06-20</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>09:32:39</t>
+          <t>08:05:30</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>"J’ai reçu ta lettre, il y a quelques jours, cher frère; j’ai depuis travaillé ..." à Théis, 1825-06-20, https://constance-de-salm.de/archiv/#/document/10629 #onthisday</t>
+          <t>»J’ai reçu ta lettre, il y a quelques jours, cher frère; j’ai depuis travaillé ...« à Théis, 1825-06-20, https://constance-de-salm.de/archiv/#/document/10629 #onthisday</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5080,17 +5080,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2028-6-22</t>
+          <t>2028-06-22</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>14:02:14</t>
+          <t>13:12:55</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps, Monsieur, que vous n'avez entendu parler de moi ..." à Paillet, 1833-06-22, https://constance-de-salm.de/archiv/#/document/5230 #onthisday</t>
+          <t>»Il y a bien longtemps, Monsieur, que vous n'avez entendu parler de moi ...« à Paillet, 1833-06-22, https://constance-de-salm.de/archiv/#/document/5230 #onthisday</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5107,17 +5107,17 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2028-6-22</t>
+          <t>2028-06-22</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>17:30:19</t>
+          <t>15:04:50</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>"J'ai été si souffrante et si occupée depuis que j'ai reçu votre toute aimable lettre, Madame et amie ..." à Salis, 1833-06-22, https://constance-de-salm.de/archiv/#/document/5267 #onthisday</t>
+          <t>»J'ai été si souffrante et si occupée depuis que j'ai reçu votre toute aimable lettre, Madame et amie ...« à Salis, 1833-06-22, https://constance-de-salm.de/archiv/#/document/5267 #onthisday</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5134,17 +5134,17 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2028-6-23</t>
+          <t>2028-06-23</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>12:29:36</t>
+          <t>14:41:45</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>"Peut-être, Monsieur, savez vous déjà que je suis enfin ici; ..." à Boucharlat, 1836-06-23, https://constance-de-salm.de/archiv/#/document/9775 #onthisday</t>
+          <t>»Peut-être, Monsieur, savez vous déjà que je suis enfin ici; ...« à Boucharlat, 1836-06-23, https://constance-de-salm.de/archiv/#/document/9775 #onthisday</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5161,17 +5161,17 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2028-6-24</t>
+          <t>2028-06-24</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>19:28:10</t>
+          <t>13:39:35</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>"Je m'empresse, Monsieur, de vous dire que le „Moniteur“ ..." à Berville, 1831-06-24, https://constance-de-salm.de/archiv/#/document/6466 #onthisday</t>
+          <t>»Je m'empresse, Monsieur, de vous dire que le „Moniteur“ ...« à Berville, 1831-06-24, https://constance-de-salm.de/archiv/#/document/6466 #onthisday</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5188,17 +5188,17 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2028-6-24</t>
+          <t>2028-06-24</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>17:27:42</t>
+          <t>17:33:58</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>"J'ai voulu, Monsieur, laisser passer les premiers moments de votre douleur ..." à Fabre, 1831-06-24, https://constance-de-salm.de/archiv/#/document/6472 #onthisday</t>
+          <t>»J'ai voulu, Monsieur, laisser passer les premiers moments de votre douleur ...« à Fabre, 1831-06-24, https://constance-de-salm.de/archiv/#/document/6472 #onthisday</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5215,17 +5215,17 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2028-6-25</t>
+          <t>2028-06-25</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>19:33:00</t>
+          <t>13:47:08</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>"C’est avec une vive satisfaction, Monsieur le président, que j’ai appris que la Société française de statistique universelle m’avait admise au nombre ..." à N.N., 1833-06-25, https://constance-de-salm.de/archiv/#/document/9527 #onthisday</t>
+          <t>»C’est avec une vive satisfaction, Monsieur le président, que j’ai appris que la Société française de statistique universelle m’avait admise au nombre ...« à N.N., 1833-06-25, https://constance-de-salm.de/archiv/#/document/9527 #onthisday</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5242,17 +5242,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2028-6-25</t>
+          <t>2028-06-25</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>12:16:45</t>
+          <t>16:39:26</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>"Vous serez bien étonné, mon cher Général, de recevoir une nouvelle lettre de moi après celle que je vous ai écrite hier; ..." à Saint-Mars, 1835-06-25, https://constance-de-salm.de/archiv/#/document/9618 #onthisday</t>
+          <t>»Vous serez bien étonné, mon cher Général, de recevoir une nouvelle lettre de moi après celle que je vous ai écrite hier; ...« à Saint-Mars, 1835-06-25, https://constance-de-salm.de/archiv/#/document/9618 #onthisday</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5269,17 +5269,17 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2028-6-26</t>
+          <t>2028-06-26</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>09:29:23</t>
+          <t>15:34:09</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>"Il y a déjà quelque temps, Monsieur, que j’ai reçu votre bonne et grande lettre, et je me reprocherais ..." à Jullien de Paris, 1835-06-26, https://constance-de-salm.de/archiv/#/document/9620 #onthisday</t>
+          <t>»Il y a déjà quelque temps, Monsieur, que j’ai reçu votre bonne et grande lettre, et je me reprocherais ...« à Jullien de Paris, 1835-06-26, https://constance-de-salm.de/archiv/#/document/9620 #onthisday</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5296,17 +5296,17 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2028-6-27</t>
+          <t>2028-06-27</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>12:55:03</t>
+          <t>15:34:26</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>"Je reçois votre lettre, Monsieur le baron, et je ne veux pas perdre un instant pour y répondre et vous féliciter sur votre nomination ..." à Ladoucette, 1834-06-27, https://constance-de-salm.de/archiv/#/document/5574 #onthisday</t>
+          <t>»Je reçois votre lettre, Monsieur le baron, et je ne veux pas perdre un instant pour y répondre et vous féliciter sur votre nomination ...« à Ladoucette, 1834-06-27, https://constance-de-salm.de/archiv/#/document/5574 #onthisday</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5323,17 +5323,17 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2028-6-28</t>
+          <t>2028-06-28</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>09:53:32</t>
+          <t>12:14:38</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>"Me voilà à la campagne, Monsieur, et sans avoir pu trouver le moment de vous écrire de Paris ..." à Pailliet, 1836-06-28, https://constance-de-salm.de/archiv/#/document/9807 #onthisday</t>
+          <t>»Me voilà à la campagne, Monsieur, et sans avoir pu trouver le moment de vous écrire de Paris ...« à Pailliet, 1836-06-28, https://constance-de-salm.de/archiv/#/document/9807 #onthisday</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5350,17 +5350,17 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2028-6-29</t>
+          <t>2028-06-29</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>08:56:06</t>
+          <t>09:47:48</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>"Quoique je vous aie dit hier, Monsieur, combien j’étais sensible à l’accueil que l’Athénée a fait ..." à Delestre-Poirson, 1833-06-29, https://constance-de-salm.de/archiv/#/document/9528 #onthisday</t>
+          <t>»Quoique je vous aie dit hier, Monsieur, combien j’étais sensible à l’accueil que l’Athénée a fait ...« à Delestre-Poirson, 1833-06-29, https://constance-de-salm.de/archiv/#/document/9528 #onthisday</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5377,17 +5377,17 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2028-6-29</t>
+          <t>2028-06-29</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>17:22:31</t>
+          <t>16:07:43</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>"J’ai reçu, Monsieur, la circulaire par laquelle vous m’engagez à me réunir aux personnes ..." à Caumont, 1833-06-29, https://constance-de-salm.de/archiv/#/document/9529 #onthisday</t>
+          <t>»J’ai reçu, Monsieur, la circulaire par laquelle vous m’engagez à me réunir aux personnes ...« à Caumont, 1833-06-29, https://constance-de-salm.de/archiv/#/document/9529 #onthisday</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5404,17 +5404,17 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2028-6-30</t>
+          <t>2028-06-30</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>19:11:13</t>
+          <t>13:20:51</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>"Voici, Monsieur, le portrait que j'ai fait habiller de mon mieux ..." à Sanson de Pongerville, 1837-06-30, https://constance-de-salm.de/archiv/#/document/7794 #onthisday</t>
+          <t>»Voici, Monsieur, le portrait que j'ai fait habiller de mon mieux ...« à Sanson de Pongerville, 1837-06-30, https://constance-de-salm.de/archiv/#/document/7794 #onthisday</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5431,17 +5431,17 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2028-7-1</t>
+          <t>2028-07-01</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>19:27:49</t>
+          <t>13:13:40</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>"Voulez vous bien, Monsieur, prier Monsieur Hervey de ma part de venir me voir aujourd'hui ..." à Jullien de Paris, 1840-07-01, https://constance-de-salm.de/archiv/#/document/8212 #onthisday</t>
+          <t>»Voulez vous bien, Monsieur, prier Monsieur Hervey de ma part de venir me voir aujourd'hui ...« à Jullien de Paris, 1840-07-01, https://constance-de-salm.de/archiv/#/document/8212 #onthisday</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5458,17 +5458,17 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2028-7-1</t>
+          <t>2028-07-01</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>11:19:39</t>
+          <t>13:48:27</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>"Je n'entends point parler de vous, Madame et ancienne amie, et je m'empresse de vous dire ..." à Gay, 1840-07-01, https://constance-de-salm.de/archiv/#/document/8214 #onthisday</t>
+          <t>»Je n'entends point parler de vous, Madame et ancienne amie, et je m'empresse de vous dire ...« à Gay, 1840-07-01, https://constance-de-salm.de/archiv/#/document/8214 #onthisday</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5485,17 +5485,17 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2028-7-2</t>
+          <t>2028-07-02</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>19:08:41</t>
+          <t>11:11:55</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>"Mon départ étant retardé de deux jours, Monsieur, j'ai encore aujourd'hui à dîner ..." à Christian, 1837-07-02, https://constance-de-salm.de/archiv/#/document/7803 #onthisday</t>
+          <t>»Mon départ étant retardé de deux jours, Monsieur, j'ai encore aujourd'hui à dîner ...« à Christian, 1837-07-02, https://constance-de-salm.de/archiv/#/document/7803 #onthisday</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5512,17 +5512,17 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2028-7-2</t>
+          <t>2028-07-02</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>12:32:18</t>
+          <t>15:06:42</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>"J'ai appris avec beaucoup de plaisir, Monsieur, que vous aviez reçu les deux exemplaires ..." à Ladoucette, 1838-07-02, https://constance-de-salm.de/archiv/#/document/7928 #onthisday</t>
+          <t>»J'ai appris avec beaucoup de plaisir, Monsieur, que vous aviez reçu les deux exemplaires ...« à Ladoucette, 1838-07-02, https://constance-de-salm.de/archiv/#/document/7928 #onthisday</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5539,17 +5539,17 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2028-7-3</t>
+          <t>2028-07-03</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>18:56:33</t>
+          <t>12:05:18</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>"Je reçois à l’instant la réponse de Monsieur le baron de Humboldt ..." à Humboldt, 1841-07-03, https://constance-de-salm.de/archiv/#/document/7443 #onthisday</t>
+          <t>»Je reçois à l’instant la réponse de Monsieur le baron de Humboldt ...« à Humboldt, 1841-07-03, https://constance-de-salm.de/archiv/#/document/7443 #onthisday</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5566,17 +5566,17 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2028-7-4</t>
+          <t>2028-07-04</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>17:20:37</t>
+          <t>09:09:45</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>"Monsieur Drais m’a écrit, Monsieur, qu’il vous avait vu, qu’il vous avait donné de mes nouvelles ..." à Barbier, 1836-07-04, https://constance-de-salm.de/archiv/#/document/9809 #onthisday</t>
+          <t>»Monsieur Drais m’a écrit, Monsieur, qu’il vous avait vu, qu’il vous avait donné de mes nouvelles ...« à Barbier, 1836-07-04, https://constance-de-salm.de/archiv/#/document/9809 #onthisday</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5593,17 +5593,17 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2028-7-8</t>
+          <t>2028-07-08</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>09:45:03</t>
+          <t>10:03:26</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>"Votre lettre que j'ai reçu il y a 15 jours, mon ancien [sic] amie, m'a fort touchée, et elle m'aurait fait ..." à Salis, 1840-07-08, https://constance-de-salm.de/archiv/#/document/8223 #onthisday</t>
+          <t>»Votre lettre que j'ai reçu il y a 15 jours, mon ancien [sic] amie, m'a fort touchée, et elle m'aurait fait ...« à Salis, 1840-07-08, https://constance-de-salm.de/archiv/#/document/8223 #onthisday</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5620,17 +5620,17 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2028-7-9</t>
+          <t>2028-07-09</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>11:09:50</t>
+          <t>10:43:43</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>"Je veux vous apprendre moi-même, Monsieur et Madame, que je suis arrivée ici depuis trois semaines; ..." à Raboteau, 1836-07-09, https://constance-de-salm.de/archiv/#/document/9817 #onthisday</t>
+          <t>»Je veux vous apprendre moi-même, Monsieur et Madame, que je suis arrivée ici depuis trois semaines; ...« à Raboteau, 1836-07-09, https://constance-de-salm.de/archiv/#/document/9817 #onthisday</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5647,17 +5647,17 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2028-7-11</t>
+          <t>2028-07-11</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>16:17:11</t>
+          <t>16:42:43</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>"Vos articles sont parfaits, Monsieur, vous ne pourriez faire de mes „Pensées“ un éloge plus flatteur, plus convenable ..." à Christian, 1839-07-11, https://constance-de-salm.de/archiv/#/document/8068 #onthisday</t>
+          <t>»Vos articles sont parfaits, Monsieur, vous ne pourriez faire de mes „Pensées“ un éloge plus flatteur, plus convenable ...« à Christian, 1839-07-11, https://constance-de-salm.de/archiv/#/document/8068 #onthisday</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5674,17 +5674,17 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2028-7-12</t>
+          <t>2028-07-12</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>16:22:11</t>
+          <t>13:42:12</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>"J’attendais de vos nouvelles avec beaucoup d’impatience, Monsieur et ami ..." à Raboteau, 1813-07-12, https://constance-de-salm.de/archiv/#/document/3912 #onthisday</t>
+          <t>»J’attendais de vos nouvelles avec beaucoup d’impatience, Monsieur et ami ...« à Raboteau, 1813-07-12, https://constance-de-salm.de/archiv/#/document/3912 #onthisday</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5701,17 +5701,17 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2028-7-12</t>
+          <t>2028-07-12</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>10:32:31</t>
+          <t>10:27:43</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>"Voici, Monsieur et véritable ami, une petite lettre pour Monsieur Lesur ..." à Barbier, 1821-07-12, https://constance-de-salm.de/archiv/#/document/8289 #onthisday</t>
+          <t>»Voici, Monsieur et véritable ami, une petite lettre pour Monsieur Lesur ...« à Barbier, 1821-07-12, https://constance-de-salm.de/archiv/#/document/8289 #onthisday</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5728,17 +5728,17 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2028-7-13</t>
+          <t>2028-07-13</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>19:08:39</t>
+          <t>12:08:46</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>"Quoique je sois partie un jour plus tard que je ne le croyais, Monsieur ..." à Montémont, 1837-07-13, https://constance-de-salm.de/archiv/#/document/7801 #onthisday</t>
+          <t>»Quoique je sois partie un jour plus tard que je ne le croyais, Monsieur ...« à Montémont, 1837-07-13, https://constance-de-salm.de/archiv/#/document/7801 #onthisday</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5755,17 +5755,17 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2028-7-14</t>
+          <t>2028-07-14</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>16:10:58</t>
+          <t>10:05:49</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>"Je pars demain matin, Monsieur, depuis quinze jours je suis accablée d’ennuis et d’embarras; ..." à Paganel, 1833-07-14, https://constance-de-salm.de/archiv/#/document/9537 #onthisday</t>
+          <t>»Je pars demain matin, Monsieur, depuis quinze jours je suis accablée d’ennuis et d’embarras; ...« à Paganel, 1833-07-14, https://constance-de-salm.de/archiv/#/document/9537 #onthisday</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5782,17 +5782,17 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2028-7-15</t>
+          <t>2028-07-15</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>08:30:54</t>
+          <t>16:30:35</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>"Votre bel article étant tout copié et mis au net pour l'impression ..." à Villenave, 1831-07-15, https://constance-de-salm.de/archiv/#/document/6517 #onthisday</t>
+          <t>»Votre bel article étant tout copié et mis au net pour l'impression ...« à Villenave, 1831-07-15, https://constance-de-salm.de/archiv/#/document/6517 #onthisday</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5809,17 +5809,17 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2028-7-16</t>
+          <t>2028-07-16</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>16:08:44</t>
+          <t>15:55:21</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>"Si vous n’avez rien dit à Monsieur et Madame de Châlot, Monsieur, du projet de notre petit dîner de jeudi ..." à Villenave, 1838-07-16, https://constance-de-salm.de/archiv/#/document/7931 #onthisday</t>
+          <t>»Si vous n’avez rien dit à Monsieur et Madame de Châlot, Monsieur, du projet de notre petit dîner de jeudi ...« à Villenave, 1838-07-16, https://constance-de-salm.de/archiv/#/document/7931 #onthisday</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5836,17 +5836,17 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2028-7-17</t>
+          <t>2028-07-17</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>18:19:00</t>
+          <t>12:36:10</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>"Ma pauvre santé qui va de mal en pis ne me permettra pas de partir dimanche ..." à Sanson de Pongerville, 1839-07-17, https://constance-de-salm.de/archiv/#/document/8073 #onthisday</t>
+          <t>»Ma pauvre santé qui va de mal en pis ne me permettra pas de partir dimanche ...« à Sanson de Pongerville, 1839-07-17, https://constance-de-salm.de/archiv/#/document/8073 #onthisday</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5863,17 +5863,17 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2028-7-18</t>
+          <t>2028-07-18</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>16:55:04</t>
+          <t>13:31:34</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>"Je veux vous dire, Monsieur, que je suis arrivée ici après six jours de route ..." à Jullien de Paris, 1837-07-18, https://constance-de-salm.de/archiv/#/document/7808 #onthisday</t>
+          <t>»Je veux vous dire, Monsieur, que je suis arrivée ici après six jours de route ...« à Jullien de Paris, 1837-07-18, https://constance-de-salm.de/archiv/#/document/7808 #onthisday</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -5890,17 +5890,17 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2028-7-19</t>
+          <t>2028-07-19</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>09:47:46</t>
+          <t>11:53:22</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>"J'annonce mon arrivée ici à tous mes amis, Monsieur, je veux aussi vous l'apprendre moi-même ..." à Berville, 1837-07-19, https://constance-de-salm.de/archiv/#/document/7811 #onthisday</t>
+          <t>»J'annonce mon arrivée ici à tous mes amis, Monsieur, je veux aussi vous l'apprendre moi-même ...« à Berville, 1837-07-19, https://constance-de-salm.de/archiv/#/document/7811 #onthisday</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -5917,17 +5917,17 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2028-7-20</t>
+          <t>2028-07-20</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>09:09:44</t>
+          <t>19:29:04</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>"C’est moi qui vous réponds cette fois, mon cher voisin; ..." à Hompesch-Rurich, 1827-07-20, https://constance-de-salm.de/archiv/#/document/9083 #onthisday</t>
+          <t>»C’est moi qui vous réponds cette fois, mon cher voisin; ...« à Hompesch-Rurich, 1827-07-20, https://constance-de-salm.de/archiv/#/document/9083 #onthisday</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -5944,17 +5944,17 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2028-7-20</t>
+          <t>2028-07-20</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>10:10:43</t>
+          <t>14:33:22</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>"Je vous remerice, mon cher Didot, de vos chants de Tyrtée ..." à Didot, 1831-07-20, https://constance-de-salm.de/archiv/#/document/6522 #onthisday</t>
+          <t>»Je vous remerice, mon cher Didot, de vos chants de Tyrtée ...« à Didot, 1831-07-20, https://constance-de-salm.de/archiv/#/document/6522 #onthisday</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -5971,17 +5971,17 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2028-7-22</t>
+          <t>2028-07-22</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>09:09:12</t>
+          <t>17:35:48</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>"Je veux vous dire moi-même, mon cher voisin, que vous êtes sorcier ..." à Ladoucette, 1838-07-22, https://constance-de-salm.de/archiv/#/document/7936 #onthisday</t>
+          <t>»Je veux vous dire moi-même, mon cher voisin, que vous êtes sorcier ...« à Ladoucette, 1838-07-22, https://constance-de-salm.de/archiv/#/document/7936 #onthisday</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -5998,17 +5998,17 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2028-7-22</t>
+          <t>2028-07-22</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>18:22:29</t>
+          <t>17:46:23</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>"Je retourne dans deux jours à Dyck, mon ancienne amie, et je ne veux pas quitter Paris sans vous en prévenir ..." à Salis, 1838-07-22, https://constance-de-salm.de/archiv/#/document/7935 #onthisday</t>
+          <t>»Je retourne dans deux jours à Dyck, mon ancienne amie, et je ne veux pas quitter Paris sans vous en prévenir ...« à Salis, 1838-07-22, https://constance-de-salm.de/archiv/#/document/7935 #onthisday</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6025,17 +6025,17 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2028-7-23</t>
+          <t>2028-07-23</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>10:03:11</t>
+          <t>12:20:21</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>"Quelques jours après vous avoir vue, Madame et ancienne amie, je suis tombé [sic] malade ..." à Gay, 1838-07-23, https://constance-de-salm.de/archiv/#/document/7938 #onthisday</t>
+          <t>»Quelques jours après vous avoir vue, Madame et ancienne amie, je suis tombé [sic] malade ...« à Gay, 1838-07-23, https://constance-de-salm.de/archiv/#/document/7938 #onthisday</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6052,17 +6052,17 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2028-7-24</t>
+          <t>2028-07-24</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>08:01:33</t>
+          <t>15:13:08</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>"Monsieur Drais m’a écrit, Monsieur, qu’il vous avait rencontré, et que vous étiez étonné et alarmé de mon long silence ..." à Audiffret, 1835-07-24, https://constance-de-salm.de/archiv/#/document/9629 #onthisday</t>
+          <t>»Monsieur Drais m’a écrit, Monsieur, qu’il vous avait rencontré, et que vous étiez étonné et alarmé de mon long silence ...« à Audiffret, 1835-07-24, https://constance-de-salm.de/archiv/#/document/9629 #onthisday</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6079,17 +6079,17 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2028-7-25</t>
+          <t>2028-07-25</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>19:43:53</t>
+          <t>11:43:39</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>"Je m'ennuie fort, Monsieur et ami, de n'avoir pas le journal ..." à Raboteau, 1817-07-25, https://constance-de-salm.de/archiv/#/document/4373 #onthisday</t>
+          <t>»Je m'ennuie fort, Monsieur et ami, de n'avoir pas le journal ...« à Raboteau, 1817-07-25, https://constance-de-salm.de/archiv/#/document/4373 #onthisday</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6106,17 +6106,17 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2028-7-26</t>
+          <t>2028-07-26</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>15:49:46</t>
+          <t>10:53:53</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>"J’ai reçu hier, Monsieur le baron, votre compte-rendu des travaux de la Société philotechnique ..." à Ladoucette, 1835-07-26, https://constance-de-salm.de/archiv/#/document/9630 #onthisday</t>
+          <t>»J’ai reçu hier, Monsieur le baron, votre compte-rendu des travaux de la Société philotechnique ...« à Ladoucette, 1835-07-26, https://constance-de-salm.de/archiv/#/document/9630 #onthisday</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -6133,17 +6133,17 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2028-7-26</t>
+          <t>2028-07-26</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>12:42:02</t>
+          <t>17:36:51</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier votre aimable lettre, Monsieur le baron, j'étais et je suis encore fort souffrante d'un rhumatisme ..." à Ladoucette, 1837-07-26, https://constance-de-salm.de/archiv/#/document/7813 #onthisday</t>
+          <t>»J'ai reçu hier votre aimable lettre, Monsieur le baron, j'étais et je suis encore fort souffrante d'un rhumatisme ...« à Ladoucette, 1837-07-26, https://constance-de-salm.de/archiv/#/document/7813 #onthisday</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -6160,17 +6160,17 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2028-7-27</t>
+          <t>2028-07-27</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>15:18:17</t>
+          <t>16:09:48</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>"Voilà bien longtemps, Monsieur et Madame, que je projette de vous écrire; ..." à Ponce, 1829-07-27, https://constance-de-salm.de/archiv/#/document/9439 #onthisday</t>
+          <t>»Voilà bien longtemps, Monsieur et Madame, que je projette de vous écrire; ...« à Ponce, 1829-07-27, https://constance-de-salm.de/archiv/#/document/9439 #onthisday</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -6187,17 +6187,17 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2028-7-29</t>
+          <t>2028-07-29</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>15:22:51</t>
+          <t>18:29:25</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>"J'ai reçu ces jours-ci, Madame, le numéro du „Journal des femmes“ qui contient votre excellent article ..." à Waldor, 1833-07-29, https://constance-de-salm.de/archiv/#/document/5264 #onthisday</t>
+          <t>»J'ai reçu ces jours-ci, Madame, le numéro du „Journal des femmes“ qui contient votre excellent article ...« à Waldor, 1833-07-29, https://constance-de-salm.de/archiv/#/document/5264 #onthisday</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -6214,17 +6214,17 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2028-7-30</t>
+          <t>2028-07-30</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>12:03:30</t>
+          <t>15:23:37</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>"J'ai été accablée de tant d'embarras au moment de mon départ, Monsieur ..." à Depping, 1833-07-30, https://constance-de-salm.de/archiv/#/document/5240 #onthisday</t>
+          <t>»J'ai été accablée de tant d'embarras au moment de mon départ, Monsieur ...« à Depping, 1833-07-30, https://constance-de-salm.de/archiv/#/document/5240 #onthisday</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -6241,17 +6241,17 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2028-7-31</t>
+          <t>2028-07-31</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>10:10:30</t>
+          <t>17:21:44</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>"Me voilà enfin ici, chère voisine, et charmée de m'y trouver en repos, et quitte au moins d'une partie de mes embarras de Paris ..." à Hompesch, 1834-07-31, https://constance-de-salm.de/archiv/#/document/5587 #onthisday</t>
+          <t>»Me voilà enfin ici, chère voisine, et charmée de m'y trouver en repos, et quitte au moins d'une partie de mes embarras de Paris ...« à Hompesch, 1834-07-31, https://constance-de-salm.de/archiv/#/document/5587 #onthisday</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -6268,17 +6268,17 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2028-8-1</t>
+          <t>2028-08-01</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>15:44:43</t>
+          <t>09:43:37</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>"J’ai quitté Paris sans avoir de tes nouvelles, cher frère, je n’en reçois point non plus ici ..." à Théis, 1834-08-01, https://constance-de-salm.de/archiv/#/document/10845 #onthisday</t>
+          <t>»J’ai quitté Paris sans avoir de tes nouvelles, cher frère, je n’en reçois point non plus ici ...« à Théis, 1834-08-01, https://constance-de-salm.de/archiv/#/document/10845 #onthisday</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -6295,17 +6295,17 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2028-8-2</t>
+          <t>2028-08-02</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>18:39:08</t>
+          <t>08:25:04</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>"Enfin, Madame, j’ai reçu votre très intéressant ouvrage et au moment où j'allais prier Monsieur Drais de m'en acheter un nouvel exemplaire et de me l'envoyer par la poste ..." à Waldor, 1832-08-02, https://constance-de-salm.de/archiv/#/document/5416 #onthisday</t>
+          <t>»Enfin, Madame, j’ai reçu votre très intéressant ouvrage et au moment où j'allais prier Monsieur Drais de m'en acheter un nouvel exemplaire et de me l'envoyer par la poste ...« à Waldor, 1832-08-02, https://constance-de-salm.de/archiv/#/document/5416 #onthisday</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -6322,17 +6322,17 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2028-8-3</t>
+          <t>2028-08-03</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>14:49:57</t>
+          <t>10:03:43</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>"Je ne puis vous dire, Monsieur et ami, combien je suis fâchée de ne vous avoir écrit depuis si longtemps ..." à Barbier, 1824-08-03, https://constance-de-salm.de/archiv/#/document/8919 #onthisday</t>
+          <t>»Je ne puis vous dire, Monsieur et ami, combien je suis fâchée de ne vous avoir écrit depuis si longtemps ...« à Barbier, 1824-08-03, https://constance-de-salm.de/archiv/#/document/8919 #onthisday</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -6349,17 +6349,17 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2028-8-4</t>
+          <t>2028-08-04</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>09:50:21</t>
+          <t>11:56:20</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>"Je vous ai écrit un mot à mon arrivée ici, Monsieur, et je suis étonnée et inquiète de ne pas entendre parler de vous ..." à Boucharlat, 1837-08-04, https://constance-de-salm.de/archiv/#/document/7816 #onthisday</t>
+          <t>»Je vous ai écrit un mot à mon arrivée ici, Monsieur, et je suis étonnée et inquiète de ne pas entendre parler de vous ...« à Boucharlat, 1837-08-04, https://constance-de-salm.de/archiv/#/document/7816 #onthisday</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -6376,17 +6376,17 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2028-8-5</t>
+          <t>2028-08-05</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>14:48:20</t>
+          <t>11:36:30</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>"Lorsque je suis arrivée ici, Monsieur, j'étais si fatiguée, si accablée, que je n'ai pu que me reposer et jouir du bonheur ..." à Villenave, 1837-08-05, https://constance-de-salm.de/archiv/#/document/7818 #onthisday</t>
+          <t>»Lorsque je suis arrivée ici, Monsieur, j'étais si fatiguée, si accablée, que je n'ai pu que me reposer et jouir du bonheur ...« à Villenave, 1837-08-05, https://constance-de-salm.de/archiv/#/document/7818 #onthisday</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -6403,17 +6403,17 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2028-8-6</t>
+          <t>2028-08-06</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>10:49:37</t>
+          <t>09:01:13</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>"Je reçois votre nouvelle lettre, Monsieur, au moment où j’allais vous envoyer celle que je joins à ce billet ..." à Mirault, 1836-08-06, https://constance-de-salm.de/archiv/#/document/9830 #onthisday</t>
+          <t>»Je reçois votre nouvelle lettre, Monsieur, au moment où j’allais vous envoyer celle que je joins à ce billet ...« à Mirault, 1836-08-06, https://constance-de-salm.de/archiv/#/document/9830 #onthisday</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -6430,17 +6430,17 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2028-8-7</t>
+          <t>2028-08-07</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>13:49:03</t>
+          <t>10:52:31</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>"Je n’entends point parler de vous, ma bien chère voisine, et vous n’entendez pas non plus parler de moi, ce qui vous aura peut-être surprise ..." à Hompesch, 1835-08-07, https://constance-de-salm.de/archiv/#/document/9632 #onthisday</t>
+          <t>»Je n’entends point parler de vous, ma bien chère voisine, et vous n’entendez pas non plus parler de moi, ce qui vous aura peut-être surprise ...« à Hompesch, 1835-08-07, https://constance-de-salm.de/archiv/#/document/9632 #onthisday</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -6457,17 +6457,17 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2028-8-8</t>
+          <t>2028-08-08</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>08:56:48</t>
+          <t>08:19:05</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>"Vous apprendrez peut-être par Monsieur Villenave à qui je viens d'écrire un mot, ma chère amie ..." à Vanhove, 1839-08-08, https://constance-de-salm.de/archiv/#/document/8087 #onthisday</t>
+          <t>»Vous apprendrez peut-être par Monsieur Villenave à qui je viens d'écrire un mot, ma chère amie ...« à Vanhove, 1839-08-08, https://constance-de-salm.de/archiv/#/document/8087 #onthisday</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -6484,17 +6484,17 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2028-8-9</t>
+          <t>2028-08-09</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>12:40:22</t>
+          <t>15:37:14</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>"Me voilà enfin ici, Monsieur et Madame. Mon premier soin, après quelques jours de repos, est d'annoncer mon heureuse arrivée à mes amis ..." à Sanson de Pongerville, 1838-08-09, https://constance-de-salm.de/archiv/#/document/7940 #onthisday</t>
+          <t>»Me voilà enfin ici, Monsieur et Madame. Mon premier soin, après quelques jours de repos, est d'annoncer mon heureuse arrivée à mes amis ...« à Sanson de Pongerville, 1838-08-09, https://constance-de-salm.de/archiv/#/document/7940 #onthisday</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -6511,17 +6511,17 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2028-8-10</t>
+          <t>2028-08-10</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>17:35:13</t>
+          <t>09:33:58</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>"Monsieur le baron, Madame votre sœur reçoit à l’instant votre lettre ..." à Théis, 1839-08-10, https://constance-de-salm.de/archiv/#/document/10934 #onthisday</t>
+          <t>»Monsieur le baron, Madame votre sœur reçoit à l’instant votre lettre ...« à Théis, 1839-08-10, https://constance-de-salm.de/archiv/#/document/10934 #onthisday</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -6538,17 +6538,17 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2028-8-11</t>
+          <t>2028-08-11</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>15:01:43</t>
+          <t>14:54:30</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>"Je n’entends point parler de toi, cher frère, je pensais que tu m’écrirais un mot ..." à Théis, 1838-08-11, https://constance-de-salm.de/archiv/#/document/10904 #onthisday</t>
+          <t>»Je n’entends point parler de toi, cher frère, je pensais que tu m’écrirais un mot ...« à Théis, 1838-08-11, https://constance-de-salm.de/archiv/#/document/10904 #onthisday</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -6565,17 +6565,17 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2028-8-12</t>
+          <t>2028-08-12</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>19:22:33</t>
+          <t>16:03:45</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>"Je suis ici depuis huit jours, Monsieur le colonel, comme vous le savez, sans doute ..." à Schepeler, 1839-08-12, https://constance-de-salm.de/archiv/#/document/8091 #onthisday</t>
+          <t>»Je suis ici depuis huit jours, Monsieur le colonel, comme vous le savez, sans doute ...« à Schepeler, 1839-08-12, https://constance-de-salm.de/archiv/#/document/8091 #onthisday</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -6592,17 +6592,17 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2028-8-13</t>
+          <t>2028-08-13</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>13:10:41</t>
+          <t>16:22:43</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>"Je ne puis vous dire, Monsieur, à quel point j’ai été charmée de recevoir votre toute aimable lettre ..." à Sanson de Pongerville, 1836-08-13, https://constance-de-salm.de/archiv/#/document/9832 #onthisday</t>
+          <t>»Je ne puis vous dire, Monsieur, à quel point j’ai été charmée de recevoir votre toute aimable lettre ...« à Sanson de Pongerville, 1836-08-13, https://constance-de-salm.de/archiv/#/document/9832 #onthisday</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -6619,17 +6619,17 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2028-8-14</t>
+          <t>2028-08-14</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>08:35:39</t>
+          <t>09:11:40</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>"C'est avec grand plaisir, Monsieur, que j'ajoute un mot à cette lettre pour vous engager aussi à nous rendre le petit service dont Constant vous parle ..." à Barbier, 1832-08-14, https://constance-de-salm.de/archiv/#/document/5420 #onthisday</t>
+          <t>»C'est avec grand plaisir, Monsieur, que j'ajoute un mot à cette lettre pour vous engager aussi à nous rendre le petit service dont Constant vous parle ...« à Barbier, 1832-08-14, https://constance-de-salm.de/archiv/#/document/5420 #onthisday</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -6646,17 +6646,17 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2028-8-15</t>
+          <t>2028-08-15</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>13:44:58</t>
+          <t>13:15:02</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>"Votre lettre m’a fait grand plaisir, mon cher voisin de Paris ..." à Ladoucette, 1836-08-15, https://constance-de-salm.de/archiv/#/document/9835 #onthisday</t>
+          <t>»Votre lettre m’a fait grand plaisir, mon cher voisin de Paris ...« à Ladoucette, 1836-08-15, https://constance-de-salm.de/archiv/#/document/9835 #onthisday</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -6673,17 +6673,17 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2028-8-16</t>
+          <t>2028-08-16</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>14:17:16</t>
+          <t>19:27:58</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>"Mon petit-fils Constant qui est avec nous, Madame, m'a dit qu'il ..." à Vien, 1833-08-16, https://constance-de-salm.de/archiv/#/document/5247 #onthisday</t>
+          <t>»Mon petit-fils Constant qui est avec nous, Madame, m'a dit qu'il ...« à Vien, 1833-08-16, https://constance-de-salm.de/archiv/#/document/5247 #onthisday</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -6700,17 +6700,17 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2028-8-17</t>
+          <t>2028-08-17</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>16:32:40</t>
+          <t>18:15:22</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>"Je suppose que vous êtes à Paris dans ce moment, Monsieur, et à tout hasard je veux vous écrire ..." à Montémont, 1833-08-17, https://constance-de-salm.de/archiv/#/document/9541 #onthisday</t>
+          <t>»Je suppose que vous êtes à Paris dans ce moment, Monsieur, et à tout hasard je veux vous écrire ...« à Montémont, 1833-08-17, https://constance-de-salm.de/archiv/#/document/9541 #onthisday</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -6727,17 +6727,17 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2028-8-17</t>
+          <t>2028-08-17</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>16:58:37</t>
+          <t>15:00:55</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>"Quoique ce soit avec beaucoup de peine, Monsieur, que je renouvelle votre douleur, en vous parlant de la perte sensible que vous venez de faire ..." à Coëls, 1834-08-17, https://constance-de-salm.de/archiv/#/document/5591 #onthisday</t>
+          <t>»Quoique ce soit avec beaucoup de peine, Monsieur, que je renouvelle votre douleur, en vous parlant de la perte sensible que vous venez de faire ...« à Coëls, 1834-08-17, https://constance-de-salm.de/archiv/#/document/5591 #onthisday</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -6754,17 +6754,17 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2028-8-18</t>
+          <t>2028-08-18</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>15:40:46</t>
+          <t>10:41:54</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>"Je veux vous apprendre, Monsieur, et en quelques mots, seulement, (car j'attends ce matin plusieurs visites) ..." à Boucharlat, 1839-08-18, https://constance-de-salm.de/archiv/#/document/8093 #onthisday</t>
+          <t>»Je veux vous apprendre, Monsieur, et en quelques mots, seulement, (car j'attends ce matin plusieurs visites) ...« à Boucharlat, 1839-08-18, https://constance-de-salm.de/archiv/#/document/8093 #onthisday</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -6781,17 +6781,17 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2028-8-19</t>
+          <t>2028-08-19</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>08:28:03</t>
+          <t>11:06:23</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>"Je ne puis assez vous remercier, Monsieur, de la lettre que vous m’avez écrite après l’attentat terrible ..." à Mirault, 1835-08-19, https://constance-de-salm.de/archiv/#/document/9634 #onthisday</t>
+          <t>»Je ne puis assez vous remercier, Monsieur, de la lettre que vous m’avez écrite après l’attentat terrible ...« à Mirault, 1835-08-19, https://constance-de-salm.de/archiv/#/document/9634 #onthisday</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -6808,17 +6808,17 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2028-8-20</t>
+          <t>2028-08-20</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>17:27:15</t>
+          <t>14:53:13</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>"Je veux, Monsieur et Madame, vous apprendre que je suis arrivée ici assez bien portante quoique le voyage m'ait d'abord extrêmement fatiguée ..." à Raboteau, 1838-08-20, https://constance-de-salm.de/archiv/#/document/4880 #onthisday</t>
+          <t>»Je veux, Monsieur et Madame, vous apprendre que je suis arrivée ici assez bien portante quoique le voyage m'ait d'abord extrêmement fatiguée ...« à Raboteau, 1838-08-20, https://constance-de-salm.de/archiv/#/document/4880 #onthisday</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -6835,17 +6835,17 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2028-8-20</t>
+          <t>2028-08-20</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>13:57:45</t>
+          <t>13:21:56</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>"Mille et mille remerciements, Monsieur, des fragments du „Moniteur parisien“que vous m'avez envoyés ..." à Barbier, 1839-08-20, https://constance-de-salm.de/archiv/#/document/8094 #onthisday</t>
+          <t>»Mille et mille remerciements, Monsieur, des fragments du „Moniteur parisien“que vous m'avez envoyés ...« à Barbier, 1839-08-20, https://constance-de-salm.de/archiv/#/document/8094 #onthisday</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -6862,17 +6862,17 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2028-8-21</t>
+          <t>2028-08-21</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>11:26:41</t>
+          <t>11:36:07</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>"Je suis ici depuis quinze jours, Monsieur, mais encore si fatiguée du voyage ..." à Sandt, 1838-08-21, https://constance-de-salm.de/archiv/#/document/7541 #onthisday</t>
+          <t>»Je suis ici depuis quinze jours, Monsieur, mais encore si fatiguée du voyage ...« à Sandt, 1838-08-21, https://constance-de-salm.de/archiv/#/document/7541 #onthisday</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -6889,17 +6889,17 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2028-8-23</t>
+          <t>2028-08-23</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>16:27:30</t>
+          <t>12:18:24</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>"Cher ami, c’est bien cette fois que je ne t‘écrirai que quelques mots tant je suis accablée de fatigue et d’ennui ..." à Salm-Reifferscheidt-Dyck, 1844-08-23, https://constance-de-salm.de/archiv/#/document/5372 #onthisday</t>
+          <t>»Cher ami, c’est bien cette fois que je ne t‘écrirai que quelques mots tant je suis accablée de fatigue et d’ennui ...« à Salm-Reifferscheidt-Dyck, 1844-08-23, https://constance-de-salm.de/archiv/#/document/5372 #onthisday</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -6916,17 +6916,17 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2028-8-25</t>
+          <t>2028-08-25</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>08:33:47</t>
+          <t>08:17:10</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier votre lettre, Madame, et je veux y répondre à l'instant ..." à Montigny, 1833-08-25, https://constance-de-salm.de/archiv/#/document/5265 #onthisday</t>
+          <t>»J'ai reçu hier votre lettre, Madame, et je veux y répondre à l'instant ...« à Montigny, 1833-08-25, https://constance-de-salm.de/archiv/#/document/5265 #onthisday</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -6943,17 +6943,17 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2028-8-27</t>
+          <t>2028-08-27</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>18:19:11</t>
+          <t>17:11:06</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>"J'ai reçu ta lettre à Paris, mon cher Charles, en même tems que celle du Prince qui m'annonçait ..." à Théis, 1840-08-27, https://constance-de-salm.de/archiv/#/document/8239 #onthisday</t>
+          <t>»J'ai reçu ta lettre à Paris, mon cher Charles, en même tems que celle du Prince qui m'annonçait ...« à Théis, 1840-08-27, https://constance-de-salm.de/archiv/#/document/8239 #onthisday</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -6970,17 +6970,17 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2028-8-28</t>
+          <t>2028-08-28</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>12:32:42</t>
+          <t>16:35:31</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>"Je réponds à l'instant, Monsieur, à la lettre que je viens de recevoir ..." à Pailliet, 1825-08-28, https://constance-de-salm.de/archiv/#/document/11341 #onthisday</t>
+          <t>»Je réponds à l'instant, Monsieur, à la lettre que je viens de recevoir ...« à Pailliet, 1825-08-28, https://constance-de-salm.de/archiv/#/document/11341 #onthisday</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -6997,17 +6997,17 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2028-8-29</t>
+          <t>2028-08-29</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>19:46:53</t>
+          <t>14:23:25</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>"J’étais si malade la dernière fois que je t’ai écrit, cher frère, que je ne veux pas tarder ..." à Théis, 1835-08-29, https://constance-de-salm.de/archiv/#/document/10853 #onthisday</t>
+          <t>»J’étais si malade la dernière fois que je t’ai écrit, cher frère, que je ne veux pas tarder ...« à Théis, 1835-08-29, https://constance-de-salm.de/archiv/#/document/10853 #onthisday</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -7024,17 +7024,17 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2028-8-29</t>
+          <t>2028-08-29</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>14:14:15</t>
+          <t>15:28:23</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>"Monsieur Drais m’a écrit, Monsieur, que vous lui aviez envoyé demander mes 4 petits vol[umes] et qu’il n’avait osé les donner ..." à Villenave, 1835-08-29, https://constance-de-salm.de/archiv/#/document/9640 #onthisday</t>
+          <t>»Monsieur Drais m’a écrit, Monsieur, que vous lui aviez envoyé demander mes 4 petits vol[umes] et qu’il n’avait osé les donner ...« à Villenave, 1835-08-29, https://constance-de-salm.de/archiv/#/document/9640 #onthisday</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -7051,17 +7051,17 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2028-8-30</t>
+          <t>2028-08-30</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>19:24:32</t>
+          <t>18:25:47</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>"Il me semble, Monsieur le baron, qu'il vous sera agréable de recevoir quelques nouvelles de nos pays ..." à Ladoucette, 1830-08-30, https://constance-de-salm.de/archiv/#/document/5186 #onthisday</t>
+          <t>»Il me semble, Monsieur le baron, qu'il vous sera agréable de recevoir quelques nouvelles de nos pays ...« à Ladoucette, 1830-08-30, https://constance-de-salm.de/archiv/#/document/5186 #onthisday</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -7078,17 +7078,17 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2028-9-1</t>
+          <t>2028-09-01</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>08:07:33</t>
+          <t>13:04:51</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>"Je reçois à l'instant votre lettre de Plombières, Monsieur le baron, et je me hâte de vous dire ..." à Ladoucette, 1837-09-01, https://constance-de-salm.de/archiv/#/document/7832 #onthisday</t>
+          <t>»Je reçois à l'instant votre lettre de Plombières, Monsieur le baron, et je me hâte de vous dire ...« à Ladoucette, 1837-09-01, https://constance-de-salm.de/archiv/#/document/7832 #onthisday</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -7105,17 +7105,17 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2028-9-2</t>
+          <t>2028-09-02</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>12:36:07</t>
+          <t>17:08:29</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>"J’ai reçu hier votre lettre, Monsieur, et je me hâte de vous écrire un mot pour vous demander et vous donner quelques explications ..." à Barbier, 1835-09-02, https://constance-de-salm.de/archiv/#/document/9642 #onthisday</t>
+          <t>»J’ai reçu hier votre lettre, Monsieur, et je me hâte de vous écrire un mot pour vous demander et vous donner quelques explications ...« à Barbier, 1835-09-02, https://constance-de-salm.de/archiv/#/document/9642 #onthisday</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -7132,17 +7132,17 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2028-9-2</t>
+          <t>2028-09-02</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>13:22:56</t>
+          <t>11:32:16</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>"Je reçois votre lettre, ma chère amie, et je veux y répondre à l’instant pour ne pas vous laisser plus longtemps ..." à Vanhove, 1836-09-02, https://constance-de-salm.de/archiv/#/document/9838 #onthisday</t>
+          <t>»Je reçois votre lettre, ma chère amie, et je veux y répondre à l’instant pour ne pas vous laisser plus longtemps ...« à Vanhove, 1836-09-02, https://constance-de-salm.de/archiv/#/document/9838 #onthisday</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -7159,17 +7159,17 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2028-9-3</t>
+          <t>2028-09-03</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>12:25:25</t>
+          <t>12:32:55</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>"Je m'aperçois d'un mot repété vers 85 ..." à Barbier, 1817-09-03, https://constance-de-salm.de/archiv/#/document/4382 #onthisday</t>
+          <t>»Je m'aperçois d'un mot repété vers 85 ...« à Barbier, 1817-09-03, https://constance-de-salm.de/archiv/#/document/4382 #onthisday</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -7186,17 +7186,17 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2028-9-6</t>
+          <t>2028-09-06</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>17:18:26</t>
+          <t>08:34:02</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>"J'ai été fort touchée, Madame la comtesse, de tout ce que vous m'avez écrit en faveur de Mademoiselle Dahmen ..." à Becdelièvre, 1838-09-06, https://constance-de-salm.de/archiv/#/document/7950 #onthisday</t>
+          <t>»J'ai été fort touchée, Madame la comtesse, de tout ce que vous m'avez écrit en faveur de Mademoiselle Dahmen ...« à Becdelièvre, 1838-09-06, https://constance-de-salm.de/archiv/#/document/7950 #onthisday</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -7213,17 +7213,17 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2028-9-7</t>
+          <t>2028-09-07</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>09:25:19</t>
+          <t>14:50:08</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>"Je reçois votre lettre, Monsieur, à l'instant où j'en fait partir une pour Monsieur Drais ..." à Boucharlat, 1831-09-07, https://constance-de-salm.de/archiv/#/document/6563 #onthisday</t>
+          <t>»Je reçois votre lettre, Monsieur, à l'instant où j'en fait partir une pour Monsieur Drais ...« à Boucharlat, 1831-09-07, https://constance-de-salm.de/archiv/#/document/6563 #onthisday</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -7240,17 +7240,17 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2028-9-8</t>
+          <t>2028-09-08</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>12:27:11</t>
+          <t>08:32:18</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>"Je viens de recevoir, Monsieur, une lettre du jeune Villenave à qui j’avais fait savoir que je vous avais donné son épître ..." à Stassart, 1841-09-08, https://constance-de-salm.de/archiv/#/document/11247 #onthisday</t>
+          <t>»Je viens de recevoir, Monsieur, une lettre du jeune Villenave à qui j’avais fait savoir que je vous avais donné son épître ...« à Stassart, 1841-09-08, https://constance-de-salm.de/archiv/#/document/11247 #onthisday</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -7267,17 +7267,17 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2028-9-9</t>
+          <t>2028-09-09</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>08:43:43</t>
+          <t>09:23:45</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>"Cher ami, je ne t‘écris aujourd’hui qu’un mot ; mais pour te dire une chose que je crois essentielle ..." à Salm-Reifferscheidt-Dyck, 1844-09-09, https://constance-de-salm.de/archiv/#/document/5361 #onthisday</t>
+          <t>»Cher ami, je ne t‘écris aujourd’hui qu’un mot ; mais pour te dire une chose que je crois essentielle ...« à Salm-Reifferscheidt-Dyck, 1844-09-09, https://constance-de-salm.de/archiv/#/document/5361 #onthisday</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -7294,17 +7294,17 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2028-9-10</t>
+          <t>2028-09-10</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>14:02:40</t>
+          <t>14:08:29</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>"Je suis ici depuis un mois, ma chère cousine, mais relevant d'une grande maladie que j'ai eue à Paris ..." à Novakowsky, 1839-09-10, https://constance-de-salm.de/archiv/#/document/8105 #onthisday</t>
+          <t>»Je suis ici depuis un mois, ma chère cousine, mais relevant d'une grande maladie que j'ai eue à Paris ...« à Novakowsky, 1839-09-10, https://constance-de-salm.de/archiv/#/document/8105 #onthisday</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -7321,17 +7321,17 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2028-9-12</t>
+          <t>2028-09-12</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>18:07:28</t>
+          <t>15:10:12</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>"Je n’ai pas oublié, Monsieur, le plaisir que j’ai eu à lire l’ouvrage que vous m’avez adressé ..." à Du Château, 1836-09-12, https://constance-de-salm.de/archiv/#/document/9841 #onthisday</t>
+          <t>»Je n’ai pas oublié, Monsieur, le plaisir que j’ai eu à lire l’ouvrage que vous m’avez adressé ...« à Du Château, 1836-09-12, https://constance-de-salm.de/archiv/#/document/9841 #onthisday</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -7348,17 +7348,17 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2028-9-14</t>
+          <t>2028-09-14</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>18:44:33</t>
+          <t>14:04:38</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>"Je veux, Monsieur, vous donner de mes nouvelles ..." à Depping, 1831-09-14, https://constance-de-salm.de/archiv/#/document/6567 #onthisday</t>
+          <t>»Je veux, Monsieur, vous donner de mes nouvelles ...« à Depping, 1831-09-14, https://constance-de-salm.de/archiv/#/document/6567 #onthisday</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -7375,17 +7375,17 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2028-9-15</t>
+          <t>2028-09-15</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>10:20:03</t>
+          <t>14:15:14</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>"J’ai reçu votre aimable lettre déjà il y a quelque temps, Madame et ancienne amie, et je vous aurais répondu ..." à Salis, 1829-09-15, https://constance-de-salm.de/archiv/#/document/10346 #onthisday</t>
+          <t>»J’ai reçu votre aimable lettre déjà il y a quelque temps, Madame et ancienne amie, et je vous aurais répondu ...« à Salis, 1829-09-15, https://constance-de-salm.de/archiv/#/document/10346 #onthisday</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -7402,17 +7402,17 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2028-9-16</t>
+          <t>2028-09-16</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>09:48:58</t>
+          <t>19:35:05</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>"Vous serez étonné, mon cher ami et ancien correspondant, de recevoir une lettre de moi ..." à Amalric, 1831-09-16, https://constance-de-salm.de/archiv/#/document/6569 #onthisday</t>
+          <t>»Vous serez étonné, mon cher ami et ancien correspondant, de recevoir une lettre de moi ...« à Amalric, 1831-09-16, https://constance-de-salm.de/archiv/#/document/6569 #onthisday</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -7429,17 +7429,17 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2028-9-17</t>
+          <t>2028-09-17</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>19:25:28</t>
+          <t>08:57:13</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>"On m'a écrit, Monsieur, que vous êtes malade ..." à Ritz, 1830-09-17, https://constance-de-salm.de/archiv/#/document/5188 #onthisday</t>
+          <t>»On m'a écrit, Monsieur, que vous êtes malade ...« à Ritz, 1830-09-17, https://constance-de-salm.de/archiv/#/document/5188 #onthisday</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -7456,17 +7456,17 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2028-9-18</t>
+          <t>2028-09-18</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>11:07:51</t>
+          <t>15:24:00</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>"Je suis bien aise, mon voisin, de savoir que je me porte mieux ..." à Prous, 1821-09-18, https://constance-de-salm.de/archiv/#/document/4564 #onthisday</t>
+          <t>»Je suis bien aise, mon voisin, de savoir que je me porte mieux ...« à Prous, 1821-09-18, https://constance-de-salm.de/archiv/#/document/4564 #onthisday</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -7483,17 +7483,17 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2028-9-18</t>
+          <t>2028-09-18</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>10:02:29</t>
+          <t>14:18:20</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>"J'ai bien tardé à vous répondre, Monsieur le colonel ..." à Schepeler, 1830-09-18, https://constance-de-salm.de/archiv/#/document/5189 #onthisday</t>
+          <t>»J'ai bien tardé à vous répondre, Monsieur le colonel ...« à Schepeler, 1830-09-18, https://constance-de-salm.de/archiv/#/document/5189 #onthisday</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -7510,17 +7510,17 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2028-9-19</t>
+          <t>2028-09-19</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>09:52:48</t>
+          <t>14:34:44</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>"Il y a déjà quelques jours que j'ai reçu ta dernière lettre, mon cher Felix, tu m'y annonçais que tu comptes revenir ..." à Francq, 1844-09-19, https://constance-de-salm.de/archiv/#/document/5325 #onthisday</t>
+          <t>»Il y a déjà quelques jours que j'ai reçu ta dernière lettre, mon cher Felix, tu m'y annonçais que tu comptes revenir ...« à Francq, 1844-09-19, https://constance-de-salm.de/archiv/#/document/5325 #onthisday</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -7537,17 +7537,17 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2028-9-20</t>
+          <t>2028-09-20</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>08:04:54</t>
+          <t>15:34:46</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>"Je profite d’une occasion, Mademoiselle, pour vous écrire un petit mot ..." à Sobry, 1828-09-20, https://constance-de-salm.de/archiv/#/document/9226 #onthisday</t>
+          <t>»Je profite d’une occasion, Mademoiselle, pour vous écrire un petit mot ...« à Sobry, 1828-09-20, https://constance-de-salm.de/archiv/#/document/9226 #onthisday</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -7564,17 +7564,17 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2028-9-21</t>
+          <t>2028-09-21</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>17:20:14</t>
+          <t>14:40:07</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre dernière lettre, mon ancien ami, au moment même où je venais de faire partir celle que vous devez avoir maintenant ..." à Duval, 1832-09-21, https://constance-de-salm.de/archiv/#/document/10821 #onthisday</t>
+          <t>»J'ai reçu votre dernière lettre, mon ancien ami, au moment même où je venais de faire partir celle que vous devez avoir maintenant ...« à Duval, 1832-09-21, https://constance-de-salm.de/archiv/#/document/10821 #onthisday</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -7591,17 +7591,17 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2028-9-22</t>
+          <t>2028-09-22</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>16:40:45</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>"Depuis que j'ai reçu votre lettre, ma chère amie, je suis accablée par des douleurs de rhumatisme qui me tiennent tout un côté ..." à Vanhove, 1834-09-22, https://constance-de-salm.de/archiv/#/document/5599 #onthisday</t>
+          <t>»Depuis que j'ai reçu votre lettre, ma chère amie, je suis accablée par des douleurs de rhumatisme qui me tiennent tout un côté ...« à Vanhove, 1834-09-22, https://constance-de-salm.de/archiv/#/document/5599 #onthisday</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -7618,17 +7618,17 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2028-9-23</t>
+          <t>2028-09-23</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>19:21:13</t>
+          <t>11:26:54</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>"Monsieur le président, retenue depuis plus d’un an à la campagne, et en Allemagne, par suite de la maladie d’un fils ..." à N.N., 1835-09-23, https://constance-de-salm.de/archiv/#/document/9646 #onthisday</t>
+          <t>»Monsieur le président, retenue depuis plus d’un an à la campagne, et en Allemagne, par suite de la maladie d’un fils ...« à N.N., 1835-09-23, https://constance-de-salm.de/archiv/#/document/9646 #onthisday</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -7645,17 +7645,17 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2028-9-26</t>
+          <t>2028-09-26</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>09:35:36</t>
+          <t>11:42:22</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>"J’ai reçu hier votre bonne et touchante lettre, mon ancienne amie, et je me hâte de vous répondre un mot de ma main ..." à Salis, 1833-09-26, https://constance-de-salm.de/archiv/#/document/9545 #onthisday</t>
+          <t>»J’ai reçu hier votre bonne et touchante lettre, mon ancienne amie, et je me hâte de vous répondre un mot de ma main ...« à Salis, 1833-09-26, https://constance-de-salm.de/archiv/#/document/9545 #onthisday</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -7672,17 +7672,17 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2028-9-28</t>
+          <t>2028-09-28</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>18:51:12</t>
+          <t>08:28:11</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>"Il est cinq heures et demie, cher ami. Je n’ai pas beaucoup de temps pour dicter cette lettre ..." à Salm-Reifferscheidt-Dyck, 1844-09-28, https://constance-de-salm.de/archiv/#/document/5365 #onthisday</t>
+          <t>»Il est cinq heures et demie, cher ami. Je n’ai pas beaucoup de temps pour dicter cette lettre ...« à Salm-Reifferscheidt-Dyck, 1844-09-28, https://constance-de-salm.de/archiv/#/document/5365 #onthisday</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -7699,17 +7699,17 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2028-9-30</t>
+          <t>2028-09-30</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>19:53:42</t>
+          <t>09:47:36</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>"Je veux joindre un mot pour vous, ma chère amie, à un paquet de lettres que j'envoie à Monsieur Drais ..." à Vanhove, 1830-09-30, https://constance-de-salm.de/archiv/#/document/5205 #onthisday</t>
+          <t>»Je veux joindre un mot pour vous, ma chère amie, à un paquet de lettres que j'envoie à Monsieur Drais ...« à Vanhove, 1830-09-30, https://constance-de-salm.de/archiv/#/document/5205 #onthisday</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -7726,17 +7726,17 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2028-10-2</t>
+          <t>2028-10-02</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>13:18:06</t>
+          <t>12:47:48</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>"J'ai enfin reçu de tes nouvelles, cher frère, j'en avais besoin, je me tourmentais de ton silence ..." à Théis, 1837-10-02, https://constance-de-salm.de/archiv/#/document/7839 #onthisday</t>
+          <t>»J'ai enfin reçu de tes nouvelles, cher frère, j'en avais besoin, je me tourmentais de ton silence ...« à Théis, 1837-10-02, https://constance-de-salm.de/archiv/#/document/7839 #onthisday</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -7753,17 +7753,17 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2028-10-3</t>
+          <t>2028-10-03</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>11:43:29</t>
+          <t>12:16:10</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>"Je ne puis vous dire, Monsieur, tout le chagrin que m’a fait la fin de votre dernière lettre, votre cruelle position ..." à Jullien de Paris, 1831-10-03, https://constance-de-salm.de/archiv/#/document/9510 #onthisday</t>
+          <t>»Je ne puis vous dire, Monsieur, tout le chagrin que m’a fait la fin de votre dernière lettre, votre cruelle position ...« à Jullien de Paris, 1831-10-03, https://constance-de-salm.de/archiv/#/document/9510 #onthisday</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -7780,17 +7780,17 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2028-10-4</t>
+          <t>2028-10-04</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>15:42:06</t>
+          <t>11:41:16</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre lettre, ma bien chère voisine, au moment même où je pensais à vous écrire ..." à Hompesch, 1830-10-04, https://constance-de-salm.de/archiv/#/document/5194 #onthisday</t>
+          <t>»J'ai reçu votre lettre, ma bien chère voisine, au moment même où je pensais à vous écrire ...« à Hompesch, 1830-10-04, https://constance-de-salm.de/archiv/#/document/5194 #onthisday</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -7807,17 +7807,17 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2028-10-5</t>
+          <t>2028-10-05</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>18:06:10</t>
+          <t>11:15:35</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>"Je reçois ici, Monsieur, la lettre que vous m'avez adressée à Paris, il y a déjà quelque temps ..." à N.N., 1837-10-05, https://constance-de-salm.de/archiv/#/document/7842 #onthisday</t>
+          <t>»Je reçois ici, Monsieur, la lettre que vous m'avez adressée à Paris, il y a déjà quelque temps ...« à N.N., 1837-10-05, https://constance-de-salm.de/archiv/#/document/7842 #onthisday</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -7834,17 +7834,17 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2028-10-8</t>
+          <t>2028-10-08</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>10:29:28</t>
+          <t>12:42:52</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>"Enfin, Monsieur, la réponse m'arrive avec l'expédition de l'acte ..." à Pailliet, 1825-10-08, https://constance-de-salm.de/archiv/#/document/11346 #onthisday</t>
+          <t>»Enfin, Monsieur, la réponse m'arrive avec l'expédition de l'acte ...« à Pailliet, 1825-10-08, https://constance-de-salm.de/archiv/#/document/11346 #onthisday</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -7861,17 +7861,17 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2028-10-8</t>
+          <t>2028-10-08</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>14:47:50</t>
+          <t>09:14:06</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>"Je fais partir une foule de petits billets pour Paris, Monsieur et ancien ami, j’ai reçu votre bonne et longue lettre ..." à Duval, 1828-10-08, https://constance-de-salm.de/archiv/#/document/9236 #onthisday</t>
+          <t>»Je fais partir une foule de petits billets pour Paris, Monsieur et ancien ami, j’ai reçu votre bonne et longue lettre ...« à Duval, 1828-10-08, https://constance-de-salm.de/archiv/#/document/9236 #onthisday</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -7888,17 +7888,17 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2028-10-9</t>
+          <t>2028-10-09</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>12:42:09</t>
+          <t>19:25:45</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>"Cher ami, il est près de 6 heures; je suis abîmée de fatigue, non pour être sortie et avoir trop marché, mais pour être restée dans la maison bien malgré moi depuis 2 jours; ..." à Salm-Reifferscheidt-Dyck, 1844-10-09, https://constance-de-salm.de/archiv/#/document/5340 #onthisday</t>
+          <t>»Cher ami, il est près de 6 heures; je suis abîmée de fatigue, non pour être sortie et avoir trop marché, mais pour être restée dans la maison bien malgré moi depuis 2 jours; ...« à Salm-Reifferscheidt-Dyck, 1844-10-09, https://constance-de-salm.de/archiv/#/document/5340 #onthisday</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -7920,12 +7920,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>16:41:30</t>
+          <t>12:38:47</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>"Monsieur de Ladoucette vous lira, Monsieur, la lettre que je viens de lui écrire pour lui, pour vous, et pour mes amis ..." à Depping, 1835-10-10, https://constance-de-salm.de/archiv/#/document/9649 #onthisday</t>
+          <t>»Monsieur de Ladoucette vous lira, Monsieur, la lettre que je viens de lui écrire pour lui, pour vous, et pour mes amis ...« à Depping, 1835-10-10, https://constance-de-salm.de/archiv/#/document/9649 #onthisday</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -7947,12 +7947,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>09:58:11</t>
+          <t>12:29:26</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>"Que faites-vous, mon cher voisin, êtes-vous à Paris, à Metz, à la campagne ..." à Ladoucette, 1838-10-12, https://constance-de-salm.de/archiv/#/document/7958 #onthisday</t>
+          <t>»Que faites-vous, mon cher voisin, êtes-vous à Paris, à Metz, à la campagne ...« à Ladoucette, 1838-10-12, https://constance-de-salm.de/archiv/#/document/7958 #onthisday</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -7974,12 +7974,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>13:47:44</t>
+          <t>11:08:00</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>"Je reçois à l’instant votre lettre, Monsieur le comte, je vois que vous croyez ..." à Dulac, 1840-10-13, https://constance-de-salm.de/archiv/#/document/7722 #onthisday</t>
+          <t>»Je reçois à l’instant votre lettre, Monsieur le comte, je vois que vous croyez ...« à Dulac, 1840-10-13, https://constance-de-salm.de/archiv/#/document/7722 #onthisday</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -8001,12 +8001,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>12:54:33</t>
+          <t>09:40:08</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>"J’ai reçu, Monsieur, la lettre dans laquelle vous me témoignez le désir de faire insérer quelques articles sur mes ouvrages dans des journaux littéraires de l’Allemagne; ..." à Rittinghausen, 1835-10-14, https://constance-de-salm.de/archiv/#/document/9650 #onthisday</t>
+          <t>»J’ai reçu, Monsieur, la lettre dans laquelle vous me témoignez le désir de faire insérer quelques articles sur mes ouvrages dans des journaux littéraires de l’Allemagne; ...« à Rittinghausen, 1835-10-14, https://constance-de-salm.de/archiv/#/document/9650 #onthisday</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -8028,12 +8028,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>17:55:25</t>
+          <t>13:31:12</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>"Je vais bien vous étonner, Monsieur le baron, en vous écrivant si promptement ..." à Ladoucette, 1831-10-15, https://constance-de-salm.de/archiv/#/document/6581 #onthisday</t>
+          <t>»Je vais bien vous étonner, Monsieur le baron, en vous écrivant si promptement ...« à Ladoucette, 1831-10-15, https://constance-de-salm.de/archiv/#/document/6581 #onthisday</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -8055,12 +8055,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>10:03:48</t>
+          <t>19:45:42</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>"Monsieur Drais a dû aller chez vous de ma part, ma chère amie ..." à Leroy de Bacre, 1834-10-16, https://constance-de-salm.de/archiv/#/document/5601 #onthisday</t>
+          <t>»Monsieur Drais a dû aller chez vous de ma part, ma chère amie ...« à Leroy de Bacre, 1834-10-16, https://constance-de-salm.de/archiv/#/document/5601 #onthisday</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -8082,12 +8082,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>19:23:14</t>
+          <t>14:40:26</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>"Depuis longtemps, Madame, je me propose de répondre aux deux lettres que j’ai reçues de vous; ..." à Dauriat, 1835-10-17, https://constance-de-salm.de/archiv/#/document/9653 #onthisday</t>
+          <t>»Depuis longtemps, Madame, je me propose de répondre aux deux lettres que j’ai reçues de vous; ...« à Dauriat, 1835-10-17, https://constance-de-salm.de/archiv/#/document/9653 #onthisday</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -8109,12 +8109,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>12:14:42</t>
+          <t>11:35:37</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>"Je veux, Monsieur, vous apprendre moi-même que j’arriverai bientôt dans votre cité ..." à Ritz, 1825-10-18, https://constance-de-salm.de/archiv/#/document/8967 #onthisday</t>
+          <t>»Je veux, Monsieur, vous apprendre moi-même que j’arriverai bientôt dans votre cité ...« à Ritz, 1825-10-18, https://constance-de-salm.de/archiv/#/document/8967 #onthisday</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -8136,12 +8136,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>14:44:26</t>
+          <t>13:15:56</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>"Je ne sais où vous êtes dans ce moment, mon cher voisin ..." à Ladoucette, 1841-10-20, https://constance-de-salm.de/archiv/#/document/7549 #onthisday</t>
+          <t>»Je ne sais où vous êtes dans ce moment, mon cher voisin ...« à Ladoucette, 1841-10-20, https://constance-de-salm.de/archiv/#/document/7549 #onthisday</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -8163,12 +8163,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>15:15:52</t>
+          <t>15:20:57</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre lettre en réponse à la mienne, Monsieur, mais vous m'auriez fait grand plaisir ..." à Boucharlat, 1833-10-21, https://constance-de-salm.de/archiv/#/document/5277 #onthisday</t>
+          <t>»J'ai reçu votre lettre en réponse à la mienne, Monsieur, mais vous m'auriez fait grand plaisir ...« à Boucharlat, 1833-10-21, https://constance-de-salm.de/archiv/#/document/5277 #onthisday</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -8190,12 +8190,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>16:44:01</t>
+          <t>11:52:44</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps, Monsieur, que je ne vous ai écrit, mais j'ai été depuis deux mois si souffrante si accablée ..." à Boucharlat, 1837-10-22, https://constance-de-salm.de/archiv/#/document/7844 #onthisday</t>
+          <t>»Il y a bien longtemps, Monsieur, que je ne vous ai écrit, mais j'ai été depuis deux mois si souffrante si accablée ...« à Boucharlat, 1837-10-22, https://constance-de-salm.de/archiv/#/document/7844 #onthisday</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -8217,12 +8217,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>16:57:49</t>
+          <t>08:32:23</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>"J’ai reçu hier, cher ami, ta lettre dont la dernière date est du 18 ..." à Salm-Reifferscheidt-Dyck, 1840-10-22, https://constance-de-salm.de/archiv/#/document/6302 #onthisday</t>
+          <t>»J’ai reçu hier, cher ami, ta lettre dont la dernière date est du 18 ...« à Salm-Reifferscheidt-Dyck, 1840-10-22, https://constance-de-salm.de/archiv/#/document/6302 #onthisday</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -8244,12 +8244,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>09:27:19</t>
+          <t>18:13:23</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>"Je n'entends point parler de vous, Monsieur ..." à Villenave, 1831-10-23, https://constance-de-salm.de/archiv/#/document/8403 #onthisday</t>
+          <t>»Je n'entends point parler de vous, Monsieur ...« à Villenave, 1831-10-23, https://constance-de-salm.de/archiv/#/document/8403 #onthisday</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -8271,12 +8271,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>10:57:38</t>
+          <t>19:52:23</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>"Je vous ai adressé à Berlin, il y a près de deux mois, Monsieur le baron ..." à Humboldt, 1833-10-23, https://constance-de-salm.de/archiv/#/document/5280 #onthisday</t>
+          <t>»Je vous ai adressé à Berlin, il y a près de deux mois, Monsieur le baron ...« à Humboldt, 1833-10-23, https://constance-de-salm.de/archiv/#/document/5280 #onthisday</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -8298,12 +8298,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>16:14:11</t>
+          <t>08:33:58</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>"Je vous ai écrit une grande lettre presqu'en arrivant ici, Monsieur, et j'ai reçu la vôtre ..." à Sanson de Pongerville, 1839-10-25, https://constance-de-salm.de/archiv/#/document/8123 #onthisday</t>
+          <t>»Je vous ai écrit une grande lettre presqu'en arrivant ici, Monsieur, et j'ai reçu la vôtre ...« à Sanson de Pongerville, 1839-10-25, https://constance-de-salm.de/archiv/#/document/8123 #onthisday</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -8325,12 +8325,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>11:23:13</t>
+          <t>16:26:57</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>"Je m'empresse de répondre, Monsieur, à la lettre que je viens de recevoir de vous ..." à Mathon de Fogères, 1837-10-26, https://constance-de-salm.de/archiv/#/document/7848 #onthisday</t>
+          <t>»Je m'empresse de répondre, Monsieur, à la lettre que je viens de recevoir de vous ...« à Mathon de Fogères, 1837-10-26, https://constance-de-salm.de/archiv/#/document/7848 #onthisday</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -8352,12 +8352,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>08:15:53</t>
+          <t>18:17:17</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>"Je ne sais, Monsieur le aron, si en ouvrant cette lettre, vous allez être fâché de n’y pas reconnaître ma belle écriture ..." à Ladoucette, 1827-10-27, https://constance-de-salm.de/archiv/#/document/9098 #onthisday</t>
+          <t>»Je ne sais, Monsieur le aron, si en ouvrant cette lettre, vous allez être fâché de n’y pas reconnaître ma belle écriture ...« à Ladoucette, 1827-10-27, https://constance-de-salm.de/archiv/#/document/9098 #onthisday</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -8379,12 +8379,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>17:49:43</t>
+          <t>09:58:52</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>"J'ai reçu avant-hier votre dernière lettre, Monsieur, c‘est-à-dire la première de Paris ..." à Drais, 1839-10-29, https://constance-de-salm.de/archiv/#/document/8125 #onthisday</t>
+          <t>»J'ai reçu avant-hier votre dernière lettre, Monsieur, c‘est-à-dire la première de Paris ...« à Drais, 1839-10-29, https://constance-de-salm.de/archiv/#/document/8125 #onthisday</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -8406,12 +8406,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>08:32:12</t>
+          <t>15:19:51</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>"Je veux, Monsieur, vous écrire à part ce petit mot que je n'ai pas voulu dicter à la fin de la lettre ci-jointe ..." à Drais, 1839-10-29, https://constance-de-salm.de/archiv/#/document/8127 #onthisday</t>
+          <t>»Je veux, Monsieur, vous écrire à part ce petit mot que je n'ai pas voulu dicter à la fin de la lettre ci-jointe ...« à Drais, 1839-10-29, https://constance-de-salm.de/archiv/#/document/8127 #onthisday</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -8433,12 +8433,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>09:13:46</t>
+          <t>17:41:19</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>"J’étais fort occupée et souffrante, Monsieur, lorsque je vous ai écrit mes dernières lettres ..." à Pailliet, 1824-10-30, https://constance-de-salm.de/archiv/#/document/11321 #onthisday</t>
+          <t>»J’étais fort occupée et souffrante, Monsieur, lorsque je vous ai écrit mes dernières lettres ...« à Pailliet, 1824-10-30, https://constance-de-salm.de/archiv/#/document/11321 #onthisday</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -8460,12 +8460,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>15:38:00</t>
+          <t>17:45:50</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>"C’est avec une vive satisfaction, Monsieur le président, que j’ai reçu le diplôme de membre correspondant de la société académique de Nantes ..." à Ursin, 1828-10-30, https://constance-de-salm.de/archiv/#/document/9276 #onthisday</t>
+          <t>»C’est avec une vive satisfaction, Monsieur le président, que j’ai reçu le diplôme de membre correspondant de la société académique de Nantes ...« à Ursin, 1828-10-30, https://constance-de-salm.de/archiv/#/document/9276 #onthisday</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -8487,12 +8487,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>10:42:44</t>
+          <t>09:54:58</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>"Je n'ai pu hier te dire que quelques mots, cher ami ..." à Salm-Reifferscheidt-Dyck, 1844-10-31, https://constance-de-salm.de/archiv/#/document/5342 #onthisday</t>
+          <t>»Je n'ai pu hier te dire que quelques mots, cher ami ...« à Salm-Reifferscheidt-Dyck, 1844-10-31, https://constance-de-salm.de/archiv/#/document/5342 #onthisday</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -8509,17 +8509,17 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2028-11-2</t>
+          <t>2028-11-02</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>09:52:24</t>
+          <t>17:22:25</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>"Il y a déjà quelque temps, Monsieur, que j'ai reçu votre bonne lettre que m'avait annoncée Monsieur Drais ..." à Montémont, 1838-11-02, https://constance-de-salm.de/archiv/#/document/7960 #onthisday</t>
+          <t>»Il y a déjà quelque temps, Monsieur, que j'ai reçu votre bonne lettre que m'avait annoncée Monsieur Drais ...« à Montémont, 1838-11-02, https://constance-de-salm.de/archiv/#/document/7960 #onthisday</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -8536,17 +8536,17 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2028-11-3</t>
+          <t>2028-11-03</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>19:06:03</t>
+          <t>15:16:00</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>"Je n'ai pas reçu de lettre de vous hier au soir, Monsieur, et j'en suis presque contente ..." à Drais, 1842-11-03, https://constance-de-salm.de/archiv/#/document/7474 #onthisday</t>
+          <t>»Je n'ai pas reçu de lettre de vous hier au soir, Monsieur, et j'en suis presque contente ...« à Drais, 1842-11-03, https://constance-de-salm.de/archiv/#/document/7474 #onthisday</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -8563,17 +8563,17 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>2028-11-4</t>
+          <t>2028-11-04</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>09:30:09</t>
+          <t>19:27:03</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>"Un de mes enfants qui a été hier chez Mme de Loquenghien, m'a bien chère voisine ..." à Hompesch, 1834-11-04, https://constance-de-salm.de/archiv/#/document/5606 #onthisday</t>
+          <t>»Un de mes enfants qui a été hier chez Mme de Loquenghien, m'a bien chère voisine ...« à Hompesch, 1834-11-04, https://constance-de-salm.de/archiv/#/document/5606 #onthisday</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -8590,17 +8590,17 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>2028-11-6</t>
+          <t>2028-11-06</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>15:31:41</t>
+          <t>11:20:52</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>"Je ne sais, mon cher Charles, où tu es dans ce moment, si c'est à l'aventure, en route, ou à Paris; ..." à Théis, 1837-11-06, https://constance-de-salm.de/archiv/#/document/7856 #onthisday</t>
+          <t>»Je ne sais, mon cher Charles, où tu es dans ce moment, si c'est à l'aventure, en route, ou à Paris; ...« à Théis, 1837-11-06, https://constance-de-salm.de/archiv/#/document/7856 #onthisday</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -8617,17 +8617,17 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>2028-11-7</t>
+          <t>2028-11-07</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>08:24:12</t>
+          <t>19:46:38</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>"Cher ami, c‘est donc aujourd’hui mon jour de naissance ..." à Salm-Reifferscheidt-Dyck, 1844-11-07, https://constance-de-salm.de/archiv/#/document/5343 #onthisday</t>
+          <t>»Cher ami, c‘est donc aujourd’hui mon jour de naissance ...« à Salm-Reifferscheidt-Dyck, 1844-11-07, https://constance-de-salm.de/archiv/#/document/5343 #onthisday</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -8644,17 +8644,17 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>2028-11-8</t>
+          <t>2028-11-08</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>15:15:01</t>
+          <t>15:40:41</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier, Monsieur, la lettre que vous aviez chargé, sans doute, un de vos compatriotes de mettre ..." à Depping, 1833-11-08, https://constance-de-salm.de/archiv/#/document/5289 #onthisday</t>
+          <t>»J'ai reçu hier, Monsieur, la lettre que vous aviez chargé, sans doute, un de vos compatriotes de mettre ...« à Depping, 1833-11-08, https://constance-de-salm.de/archiv/#/document/5289 #onthisday</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -8671,17 +8671,17 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>2028-11-8</t>
+          <t>2028-11-08</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>11:09:24</t>
+          <t>10:27:47</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier votre lettre, Monsieur, et je me hâte d'y répondre ..." à Sandt, 1837-11-08, https://constance-de-salm.de/archiv/#/document/7858 #onthisday</t>
+          <t>»J'ai reçu hier votre lettre, Monsieur, et je me hâte d'y répondre ...« à Sandt, 1837-11-08, https://constance-de-salm.de/archiv/#/document/7858 #onthisday</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -8703,12 +8703,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>15:15:57</t>
+          <t>09:35:00</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>"Je ne sais, Monsieur, ce que vous pensez de mon long silence ..." à Jullien de Paris, 1837-11-10, https://constance-de-salm.de/archiv/#/document/7861 #onthisday</t>
+          <t>»Je ne sais, Monsieur, ce que vous pensez de mon long silence ...« à Jullien de Paris, 1837-11-10, https://constance-de-salm.de/archiv/#/document/7861 #onthisday</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -8730,12 +8730,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>15:37:53</t>
+          <t>12:32:08</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>"J'ai reçu, il y a déjà quelque temps, mon cher voisin, la lettre par laquelle vous m'annoncez le mariage ..." à Ladoucette, 1839-11-12, https://constance-de-salm.de/archiv/#/document/8130 #onthisday</t>
+          <t>»J'ai reçu, il y a déjà quelque temps, mon cher voisin, la lettre par laquelle vous m'annoncez le mariage ...« à Ladoucette, 1839-11-12, https://constance-de-salm.de/archiv/#/document/8130 #onthisday</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -8757,12 +8757,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>10:54:00</t>
+          <t>12:55:58</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>"Cher ami, il est 5 h ½, dans une heure je devrais être habillée et prête à recevoir… ..." à Salm-Reifferscheidt-Dyck, 1844-11-14, https://constance-de-salm.de/archiv/#/document/5344 #onthisday</t>
+          <t>»Cher ami, il est 5 h ½, dans une heure je devrais être habillée et prête à recevoir… ...« à Salm-Reifferscheidt-Dyck, 1844-11-14, https://constance-de-salm.de/archiv/#/document/5344 #onthisday</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -8784,12 +8784,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>11:06:38</t>
+          <t>14:44:02</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>"J'ai reçu, Monsieur, la lettre que vous venez de m'écrire, et à laquelle était jointe celle que Monsieur le Landrath Schumacher ..." à Süss, 1837-11-15, https://constance-de-salm.de/archiv/#/document/7865 #onthisday</t>
+          <t>»J'ai reçu, Monsieur, la lettre que vous venez de m'écrire, et à laquelle était jointe celle que Monsieur le Landrath Schumacher ...« à Süss, 1837-11-15, https://constance-de-salm.de/archiv/#/document/7865 #onthisday</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -8811,12 +8811,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>12:26:05</t>
+          <t>17:25:45</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>"Je reçois ici votre lettre, Monsieur, et je m'empresse d'y répondre ..." à Montémont, 1831-11-16, https://constance-de-salm.de/archiv/#/document/6631 #onthisday</t>
+          <t>»Je reçois ici votre lettre, Monsieur, et je m'empresse d'y répondre ...« à Montémont, 1831-11-16, https://constance-de-salm.de/archiv/#/document/6631 #onthisday</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -8838,12 +8838,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>19:09:36</t>
+          <t>10:44:01</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>"J'ai reçu vos deux lettres, Monsieur le baron, et je ne puis résister de vous dire ..." à Humboldt, 1833-11-16, https://constance-de-salm.de/archiv/#/document/5297 #onthisday</t>
+          <t>»J'ai reçu vos deux lettres, Monsieur le baron, et je ne puis résister de vous dire ...« à Humboldt, 1833-11-16, https://constance-de-salm.de/archiv/#/document/5297 #onthisday</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -8865,12 +8865,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>16:21:36</t>
+          <t>18:33:33</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>"C'est de ma main, Monsieur et Madame, que je veux vous apprendre ..." à Sanson de Pongerville, 1838-11-17, https://constance-de-salm.de/archiv/#/document/7964 #onthisday</t>
+          <t>»C'est de ma main, Monsieur et Madame, que je veux vous apprendre ...« à Sanson de Pongerville, 1838-11-17, https://constance-de-salm.de/archiv/#/document/7964 #onthisday</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -8892,12 +8892,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>08:02:57</t>
+          <t>14:32:49</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>"J’aurais beaucoup de choses à répondre à la bonne et excellente lettre ..." à Villenave, 1836-11-18, https://constance-de-salm.de/archiv/#/document/9860 #onthisday</t>
+          <t>»J’aurais beaucoup de choses à répondre à la bonne et excellente lettre ...« à Villenave, 1836-11-18, https://constance-de-salm.de/archiv/#/document/9860 #onthisday</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -8919,12 +8919,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>08:22:37</t>
+          <t>19:22:51</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>"J’aurais déjà répondu, Monsieur le colonel, à la lettre que vous m’avez écrite ..." à Schepeler, 1836-11-19, https://constance-de-salm.de/archiv/#/document/9861 #onthisday</t>
+          <t>»J’aurais déjà répondu, Monsieur le colonel, à la lettre que vous m’avez écrite ...« à Schepeler, 1836-11-19, https://constance-de-salm.de/archiv/#/document/9861 #onthisday</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -8946,12 +8946,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>09:10:41</t>
+          <t>13:52:39</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>"Voici, cher frère, une lettre pour ta fille, je ne te répèterai pas ce que je lui dis; ..." à Théis, 1828-11-20, https://constance-de-salm.de/archiv/#/document/10743 #onthisday</t>
+          <t>»Voici, cher frère, une lettre pour ta fille, je ne te répèterai pas ce que je lui dis; ...« à Théis, 1828-11-20, https://constance-de-salm.de/archiv/#/document/10743 #onthisday</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -8973,12 +8973,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>14:35:05</t>
+          <t>15:40:10</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>"J’apprends, Monsieur, avec une extrême satisfaction que vous avez bien voulu vous charger de ma notice ..." à Sanson de Pongerville, 1835-11-22, https://constance-de-salm.de/archiv/#/document/9667 #onthisday</t>
+          <t>»J’apprends, Monsieur, avec une extrême satisfaction que vous avez bien voulu vous charger de ma notice ...« à Sanson de Pongerville, 1835-11-22, https://constance-de-salm.de/archiv/#/document/9667 #onthisday</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -9000,12 +9000,12 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>13:52:17</t>
+          <t>12:17:58</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier, mon cher Félix, deux lettres bien différentes l'une de l'autre: l'une de Monsieur Drais, et l'autre du Roi ..." à Francq, 1842-11-23, https://constance-de-salm.de/archiv/#/document/7460 #onthisday</t>
+          <t>»J'ai reçu hier, mon cher Félix, deux lettres bien différentes l'une de l'autre: l'une de Monsieur Drais, et l'autre du Roi ...« à Francq, 1842-11-23, https://constance-de-salm.de/archiv/#/document/7460 #onthisday</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -9027,12 +9027,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>17:31:27</t>
+          <t>15:05:32</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>"On me dit, Madame, que la santé de Monsieur votre père est fort altérée dans ce moment ..." à Mazois, 1838-11-24, https://constance-de-salm.de/archiv/#/document/7970 #onthisday</t>
+          <t>»On me dit, Madame, que la santé de Monsieur votre père est fort altérée dans ce moment ...« à Mazois, 1838-11-24, https://constance-de-salm.de/archiv/#/document/7970 #onthisday</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -9054,12 +9054,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>11:15:08</t>
+          <t>12:42:12</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps, Monsieur, que j'ai reçu votre lettre; elle m'a intéressée de toute façon ..." à Châtelain, 1839-11-27, https://constance-de-salm.de/archiv/#/document/8136 #onthisday</t>
+          <t>»Il y a bien longtemps, Monsieur, que j'ai reçu votre lettre; elle m'a intéressée de toute façon ...« à Châtelain, 1839-11-27, https://constance-de-salm.de/archiv/#/document/8136 #onthisday</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -9081,12 +9081,12 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>13:04:29</t>
+          <t>16:13:35</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>"Sire, depuis longtemps, lorsque je publiais un nouvel ouvrage, je m’empressais ..." à Friedrich Wilhelm IV., 1840-11-28, https://constance-de-salm.de/archiv/#/document/3347 #onthisday</t>
+          <t>»Sire, depuis longtemps, lorsque je publiais un nouvel ouvrage, je m’empressais ...« à Friedrich Wilhelm IV., 1840-11-28, https://constance-de-salm.de/archiv/#/document/3347 #onthisday</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -9108,12 +9108,12 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>18:07:05</t>
+          <t>08:08:01</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>"Enfin, Monsieur, j’aurai bientôt le plaisir de me retrouver dans mon véritable pays ..." à Villenave, 1841-11-30, https://constance-de-salm.de/archiv/#/document/11045 #onthisday</t>
+          <t>»Enfin, Monsieur, j’aurai bientôt le plaisir de me retrouver dans mon véritable pays ...« à Villenave, 1841-11-30, https://constance-de-salm.de/archiv/#/document/11045 #onthisday</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -9130,17 +9130,17 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>2028-12-1</t>
+          <t>2028-12-01</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>10:45:14</t>
+          <t>18:55:46</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>"Je vois, Monsieur, que vous ignorez ce que me dit Monsieur de Labouïsse dans la lettre de recommandation qu’il vous a donnée pour moi; ..." à Montferrand, 1835-12-01, https://constance-de-salm.de/archiv/#/document/9672 #onthisday</t>
+          <t>»Je vois, Monsieur, que vous ignorez ce que me dit Monsieur de Labouïsse dans la lettre de recommandation qu’il vous a donnée pour moi; ...« à Montferrand, 1835-12-01, https://constance-de-salm.de/archiv/#/document/9672 #onthisday</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -9157,17 +9157,17 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>2028-12-4</t>
+          <t>2028-12-04</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>09:44:53</t>
+          <t>18:04:12</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>"J’ajoute un mot à la lettre que j’ai dit à la demoiselle de t’écrire ; elle vient de me lire son brouillon, au milieu de mes corrections d’épreuves: ..." à Salm-Reifferscheidt-Dyck, 1844-12-04, https://constance-de-salm.de/archiv/#/document/5345 #onthisday</t>
+          <t>»J’ajoute un mot à la lettre que j’ai dit à la demoiselle de t’écrire ; elle vient de me lire son brouillon, au milieu de mes corrections d’épreuves: ...« à Salm-Reifferscheidt-Dyck, 1844-12-04, https://constance-de-salm.de/archiv/#/document/5345 #onthisday</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -9184,17 +9184,17 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>2028-12-6</t>
+          <t>2028-12-06</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>13:43:53</t>
+          <t>10:47:27</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>"Je veux vous écrire un mot, Monsieur le baron, pour vous dire qu'il m'est impossible ..." à Ladoucette, 1830-12-06, https://constance-de-salm.de/archiv/#/document/5198 #onthisday</t>
+          <t>»Je veux vous écrire un mot, Monsieur le baron, pour vous dire qu'il m'est impossible ...« à Ladoucette, 1830-12-06, https://constance-de-salm.de/archiv/#/document/5198 #onthisday</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -9211,17 +9211,17 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>2028-12-7</t>
+          <t>2028-12-07</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>16:52:32</t>
+          <t>11:08:43</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>"Me voilà, comme vous le voyez, Monsieur, à Aix-la-Chapelle, c'est à dire sur la route de Paris ..." à Sanson de Pongerville, 1842-12-07, https://constance-de-salm.de/archiv/#/document/7488 #onthisday</t>
+          <t>»Me voilà, comme vous le voyez, Monsieur, à Aix-la-Chapelle, c'est à dire sur la route de Paris ...« à Sanson de Pongerville, 1842-12-07, https://constance-de-salm.de/archiv/#/document/7488 #onthisday</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -9238,17 +9238,17 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>2028-12-8</t>
+          <t>2028-12-08</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>16:13:45</t>
+          <t>15:58:50</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>"Que direz-vous de mon long silence, chère Princesse? ..." à Thurn und Taxis, 1829-12-08, https://constance-de-salm.de/archiv/#/document/9478 #onthisday</t>
+          <t>»Que direz-vous de mon long silence, chère Princesse? ...« à Thurn und Taxis, 1829-12-08, https://constance-de-salm.de/archiv/#/document/9478 #onthisday</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -9265,17 +9265,17 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>2028-12-9</t>
+          <t>2028-12-09</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>16:30:37</t>
+          <t>09:05:47</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>"Je veux joindre un mot à la lettre que mon mari écrit au maréchal, ma chère et aimable amie ..." à Gouvion Saint-Cyr, 1821-12-09, https://constance-de-salm.de/archiv/#/document/4664 #onthisday</t>
+          <t>»Je veux joindre un mot à la lettre que mon mari écrit au maréchal, ma chère et aimable amie ...« à Gouvion Saint-Cyr, 1821-12-09, https://constance-de-salm.de/archiv/#/document/4664 #onthisday</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -9297,12 +9297,12 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>08:09:53</t>
+          <t>08:03:49</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>"Monsieur Drais m’écrit, Monsieur, que vous êtes venu chez lui pour savoir de mes nouvelles ..." à Villenave, 1830-12-10, https://constance-de-salm.de/archiv/#/document/11019 #onthisday</t>
+          <t>»Monsieur Drais m’écrit, Monsieur, que vous êtes venu chez lui pour savoir de mes nouvelles ...« à Villenave, 1830-12-10, https://constance-de-salm.de/archiv/#/document/11019 #onthisday</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -9324,12 +9324,12 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>17:38:41</t>
+          <t>14:12:01</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>"Je ne sais, Monsieur, si vous m’en voulez de mon long silence, vous auriez bien tort ..." à Villenave, 1828-12-12, https://constance-de-salm.de/archiv/#/document/9296 #onthisday</t>
+          <t>»Je ne sais, Monsieur, si vous m’en voulez de mon long silence, vous auriez bien tort ...« à Villenave, 1828-12-12, https://constance-de-salm.de/archiv/#/document/9296 #onthisday</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -9351,12 +9351,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>15:37:42</t>
+          <t>13:03:51</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>"Il y a déjà quelque temps que je vous ai écrit, Monsieur. Je vous engageais, s’il m’en souvient bien, à me donner souvent de vos nouvelles ..." à Boucharlat, 1834-12-13, https://constance-de-salm.de/archiv/#/document/9550 #onthisday</t>
+          <t>»Il y a déjà quelque temps que je vous ai écrit, Monsieur. Je vous engageais, s’il m’en souvient bien, à me donner souvent de vos nouvelles ...« à Boucharlat, 1834-12-13, https://constance-de-salm.de/archiv/#/document/9550 #onthisday</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -9378,12 +9378,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>09:17:55</t>
+          <t>18:44:05</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>"Sire, j’étais sur le point de partir pour Paris, lorsque j’ai reçu la lettre que Votre Majesté m’a fait l’honneur de m’écrire ..." à Friedrich Wilhelm III., 1827-12-15, https://constance-de-salm.de/archiv/#/document/9102 #onthisday</t>
+          <t>»Sire, j’étais sur le point de partir pour Paris, lorsque j’ai reçu la lettre que Votre Majesté m’a fait l’honneur de m’écrire ...« à Friedrich Wilhelm III., 1827-12-15, https://constance-de-salm.de/archiv/#/document/9102 #onthisday</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -9405,12 +9405,12 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>19:23:37</t>
+          <t>16:30:35</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>"J’ai reçu ta lettre, cher frère, peu de temps avant mon départ de Dyck et j’ai remis à y répondre à Paris ..." à Théis, 1836-12-21, https://constance-de-salm.de/archiv/#/document/10883 #onthisday</t>
+          <t>»J’ai reçu ta lettre, cher frère, peu de temps avant mon départ de Dyck et j’ai remis à y répondre à Paris ...« à Théis, 1836-12-21, https://constance-de-salm.de/archiv/#/document/10883 #onthisday</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -9432,12 +9432,12 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>12:20:57</t>
+          <t>12:41:04</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>"J’ai appris avec peine, Monsieur, que vous n’aviez pu supprimer mon nom en tête de l’épître ..." à Malo, 1835-12-22, https://constance-de-salm.de/archiv/#/document/9676 #onthisday</t>
+          <t>»J’ai appris avec peine, Monsieur, que vous n’aviez pu supprimer mon nom en tête de l’épître ...« à Malo, 1835-12-22, https://constance-de-salm.de/archiv/#/document/9676 #onthisday</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -9459,12 +9459,12 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>17:46:33</t>
+          <t>16:47:32</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>"Je reçois cette lettre, Monsieur, au moment où j’adresse un paquet de lettres à Monsieur Drais ..." à Villenave, 1830-12-25, https://constance-de-salm.de/archiv/#/document/11020 #onthisday</t>
+          <t>»Je reçois cette lettre, Monsieur, au moment où j’adresse un paquet de lettres à Monsieur Drais ...« à Villenave, 1830-12-25, https://constance-de-salm.de/archiv/#/document/11020 #onthisday</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -9486,12 +9486,12 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>15:01:19</t>
+          <t>12:40:51</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>"Je ne sais que vous dire, ma bien sincère amie, pour excuser mon long silence ..." à Salis, 1838-12-26, https://constance-de-salm.de/archiv/#/document/7982 #onthisday</t>
+          <t>»Je ne sais que vous dire, ma bien sincère amie, pour excuser mon long silence ...« à Salis, 1838-12-26, https://constance-de-salm.de/archiv/#/document/7982 #onthisday</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -9513,12 +9513,12 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>09:55:20</t>
+          <t>10:36:36</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>"Monsieur Drais m’a écrit, Monsieur et ancien ami, qu’il vous avait vu, et que vous vous plaigniez de mon silence ..." à Duval, 1834-12-27, https://constance-de-salm.de/archiv/#/document/9554 #onthisday</t>
+          <t>»Monsieur Drais m’a écrit, Monsieur et ancien ami, qu’il vous avait vu, et que vous vous plaigniez de mon silence ...« à Duval, 1834-12-27, https://constance-de-salm.de/archiv/#/document/9554 #onthisday</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -9540,12 +9540,12 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>17:43:58</t>
+          <t>14:30:38</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>"Je ne vous ai pas répondu plutôt, Monsieur le baron, parce que j’ai eu mille petits embarras; ..." à Ladoucette, 1828-12-28, https://constance-de-salm.de/archiv/#/document/9306 #onthisday</t>
+          <t>»Je ne vous ai pas répondu plutôt, Monsieur le baron, parce que j’ai eu mille petits embarras; ...« à Ladoucette, 1828-12-28, https://constance-de-salm.de/archiv/#/document/9306 #onthisday</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -9567,12 +9567,12 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>14:19:39</t>
+          <t>09:58:30</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>"Monsieur Berville sort d’ici, Monsieur; nous nous sommes parfaitement entendus ..." à Malo, 1835-12-29, https://constance-de-salm.de/archiv/#/document/9680 #onthisday</t>
+          <t>»Monsieur Berville sort d’ici, Monsieur; nous nous sommes parfaitement entendus ...« à Malo, 1835-12-29, https://constance-de-salm.de/archiv/#/document/9680 #onthisday</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -9594,12 +9594,12 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>15:51:08</t>
+          <t>16:08:31</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>"Deux de nos amis communs que j'ai vus hier venant dîner avec nous ..." à Montémont, 1838-12-31, https://constance-de-salm.de/archiv/#/document/7984 #onthisday</t>
+          <t>»Deux de nos amis communs que j'ai vus hier venant dîner avec nous ...« à Montémont, 1838-12-31, https://constance-de-salm.de/archiv/#/document/7984 #onthisday</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -9616,17 +9616,17 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>2029-1-1</t>
+          <t>2029-01-01</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>13:01:26</t>
+          <t>17:03:31</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>"Depuis près de 15 jours, Madame, je me propose d'aller vous voir ..." à Vien, 1833-01-01, https://constance-de-salm.de/archiv/#/document/5311 #onthisday</t>
+          <t>»Depuis près de 15 jours, Madame, je me propose d'aller vous voir ...« à Vien, 1833-01-01, https://constance-de-salm.de/archiv/#/document/5311 #onthisday</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -9643,17 +9643,17 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>2029-1-2</t>
+          <t>2029-01-02</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>16:18:07</t>
+          <t>18:17:19</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>"Il y a déjà quelques jours, Monsieur, que j’ai reçu votre bonne lettre, depuis ce moment, j’ai été si occupée, si accablée ..." à Villenave, 1836-01-02, https://constance-de-salm.de/archiv/#/document/9682 #onthisday</t>
+          <t>»Il y a déjà quelques jours, Monsieur, que j’ai reçu votre bonne lettre, depuis ce moment, j’ai été si occupée, si accablée ...« à Villenave, 1836-01-02, https://constance-de-salm.de/archiv/#/document/9682 #onthisday</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -9670,17 +9670,17 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>2029-1-7</t>
+          <t>2029-01-07</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>11:40:30</t>
+          <t>18:34:08</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>"C'est avec le plus véritable plaisir, Monsieur et ami, que j'ai appris, par votre dernière lettre, l'heureux événement qui porte la joie dans votre famille ..." à Duval, 1832-01-07, https://constance-de-salm.de/archiv/#/document/5392 #onthisday</t>
+          <t>»C'est avec le plus véritable plaisir, Monsieur et ami, que j'ai appris, par votre dernière lettre, l'heureux événement qui porte la joie dans votre famille ...« à Duval, 1832-01-07, https://constance-de-salm.de/archiv/#/document/5392 #onthisday</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -9697,17 +9697,17 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>2029-1-8</t>
+          <t>2029-01-08</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>18:04:05</t>
+          <t>16:24:50</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier, Monsieur, votre bonne et aimable lettre: je suis plus sensible que je ne puis vous le dire à l'obligeance ..." à Villenave, 1843-01-08, https://constance-de-salm.de/archiv/#/document/7491 #onthisday</t>
+          <t>»J'ai reçu hier, Monsieur, votre bonne et aimable lettre: je suis plus sensible que je ne puis vous le dire à l'obligeance ...« à Villenave, 1843-01-08, https://constance-de-salm.de/archiv/#/document/7491 #onthisday</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -9724,17 +9724,17 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>2029-1-9</t>
+          <t>2029-01-09</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>13:45:14</t>
+          <t>08:08:13</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>"Je pars après demain pour Aix, Monsieur le baron; je suis accablée d’embarras de départ ..." à Ladoucette, 1835-01-09, https://constance-de-salm.de/archiv/#/document/9559 #onthisday</t>
+          <t>»Je pars après demain pour Aix, Monsieur le baron; je suis accablée d’embarras de départ ...« à Ladoucette, 1835-01-09, https://constance-de-salm.de/archiv/#/document/9559 #onthisday</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -9751,17 +9751,17 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>2029-1-10</t>
+          <t>2029-01-10</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>10:14:22</t>
+          <t>15:14:35</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>"Je ne doute pas, Madame, de la sincérité des sentiments que vous me faites l’amitié de m’exprimer ..." à Salis, 1821-01-10, https://constance-de-salm.de/archiv/#/document/10333 #onthisday</t>
+          <t>»Je ne doute pas, Madame, de la sincérité des sentiments que vous me faites l’amitié de m’exprimer ...« à Salis, 1821-01-10, https://constance-de-salm.de/archiv/#/document/10333 #onthisday</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -9778,17 +9778,17 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>2029-1-12</t>
+          <t>2029-01-12</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>12:42:16</t>
+          <t>13:20:28</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>"J’écris encore aujourd’hui, Monsieur, à Monsieur Drais, et je veux profiter de cette occasion pour ajouter ..." à Boucharlat, 1834-01-12, https://constance-de-salm.de/archiv/#/document/9547 #onthisday</t>
+          <t>»J’écris encore aujourd’hui, Monsieur, à Monsieur Drais, et je veux profiter de cette occasion pour ajouter ...« à Boucharlat, 1834-01-12, https://constance-de-salm.de/archiv/#/document/9547 #onthisday</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -9805,17 +9805,17 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>2029-1-14</t>
+          <t>2029-01-14</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>08:57:28</t>
+          <t>12:07:14</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>"Je reçois à l'instant votre lettre, Monsieur le baron, et j'y réponds aussi à l'instant ..." à Ladoucette, 1832-01-14, https://constance-de-salm.de/archiv/#/document/5394 #onthisday</t>
+          <t>»Je reçois à l'instant votre lettre, Monsieur le baron, et j'y réponds aussi à l'instant ...« à Ladoucette, 1832-01-14, https://constance-de-salm.de/archiv/#/document/5394 #onthisday</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -9832,17 +9832,17 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>2029-1-14</t>
+          <t>2029-01-14</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>16:14:51</t>
+          <t>15:43:46</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>"Cette lettre n’a pu partir hier, Monsieur, tant j’avais d’embarras à mon arrivée, et je reçois justement aujourd’hui votre dernière ..." à Drais, 1835-01-14, https://constance-de-salm.de/archiv/#/document/9560 #onthisday</t>
+          <t>»Cette lettre n’a pu partir hier, Monsieur, tant j’avais d’embarras à mon arrivée, et je reçois justement aujourd’hui votre dernière ...« à Drais, 1835-01-14, https://constance-de-salm.de/archiv/#/document/9560 #onthisday</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -9859,17 +9859,17 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>2029-1-15</t>
+          <t>2029-01-15</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>16:13:24</t>
+          <t>18:23:57</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>"Monsieur Drais m’a dit, mon ancienne amie, que vous lui auriez écrit pour savoir si j’étais enfin arrivée à Paris ..." à Salis, 1836-01-15, https://constance-de-salm.de/archiv/#/document/10361 #onthisday</t>
+          <t>»Monsieur Drais m’a dit, mon ancienne amie, que vous lui auriez écrit pour savoir si j’étais enfin arrivée à Paris ...« à Salis, 1836-01-15, https://constance-de-salm.de/archiv/#/document/10361 #onthisday</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -9886,17 +9886,17 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>2029-1-16</t>
+          <t>2029-01-16</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>13:58:30</t>
+          <t>14:48:58</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>"Je crois devoir dire à Monsieur Darcosse, pour qu’il ne soit point surpris de ne plus entendre parler ..." à Fossé-Darcosse, 1833-01-16, https://constance-de-salm.de/archiv/#/document/9520 #onthisday</t>
+          <t>»Je crois devoir dire à Monsieur Darcosse, pour qu’il ne soit point surpris de ne plus entendre parler ...« à Fossé-Darcosse, 1833-01-16, https://constance-de-salm.de/archiv/#/document/9520 #onthisday</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -9913,17 +9913,17 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>2029-1-18</t>
+          <t>2029-01-18</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>15:56:08</t>
+          <t>17:13:31</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>"C'est encore ici, cher frère, que je reçois la lettre que tu m'as adressée à Paris ..." à Théis, 1838-01-18, https://constance-de-salm.de/archiv/#/document/7883 #onthisday</t>
+          <t>»C'est encore ici, cher frère, que je reçois la lettre que tu m'as adressée à Paris ...« à Théis, 1838-01-18, https://constance-de-salm.de/archiv/#/document/7883 #onthisday</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -9940,17 +9940,17 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>2029-1-21</t>
+          <t>2029-01-21</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>09:27:05</t>
+          <t>08:04:26</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>"Monsieur Masselin m’apprend, Monsieur, que vous êtes étonné de ne pas recevoir de mes nouvelles ..." à Pailliet, 1829-01-21, https://constance-de-salm.de/archiv/#/document/11068 #onthisday</t>
+          <t>»Monsieur Masselin m’apprend, Monsieur, que vous êtes étonné de ne pas recevoir de mes nouvelles ...« à Pailliet, 1829-01-21, https://constance-de-salm.de/archiv/#/document/11068 #onthisday</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -9967,17 +9967,17 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>2029-1-23</t>
+          <t>2029-01-23</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>09:18:58</t>
+          <t>10:40:57</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>"Depuis que je ne vous ai écrit, Monsieur, je me suis bien mal porté [sic] ..." à Drais, 1840-01-23, https://constance-de-salm.de/archiv/#/document/8152 #onthisday</t>
+          <t>»Depuis que je ne vous ai écrit, Monsieur, je me suis bien mal porté [sic] ...« à Drais, 1840-01-23, https://constance-de-salm.de/archiv/#/document/8152 #onthisday</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -9994,17 +9994,17 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>2029-1-25</t>
+          <t>2029-01-25</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>10:25:52</t>
+          <t>10:00:33</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>"J’ai été si occupée et si souffrante depuis que j’ai reçu votre lettre, Monsieur, que je n’ai pu trouver le moment de vous répondre; ..." à Raboteau, 1836-01-25, https://constance-de-salm.de/archiv/#/document/9695 #onthisday</t>
+          <t>»J’ai été si occupée et si souffrante depuis que j’ai reçu votre lettre, Monsieur, que je n’ai pu trouver le moment de vous répondre; ...« à Raboteau, 1836-01-25, https://constance-de-salm.de/archiv/#/document/9695 #onthisday</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -10021,17 +10021,17 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>2029-1-27</t>
+          <t>2029-01-27</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>11:19:40</t>
+          <t>17:36:41</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>"En pensant à tout ce nous avons dit hier, Monsieur le baron, j’ai vu qu’il y a dans cette petite affaire des circonstances ..." à Ladoucette, 1836-01-27, https://constance-de-salm.de/archiv/#/document/9697 #onthisday</t>
+          <t>»En pensant à tout ce nous avons dit hier, Monsieur le baron, j’ai vu qu’il y a dans cette petite affaire des circonstances ...« à Ladoucette, 1836-01-27, https://constance-de-salm.de/archiv/#/document/9697 #onthisday</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -10048,17 +10048,17 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>2029-1-28</t>
+          <t>2029-01-28</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>10:26:04</t>
+          <t>16:03:00</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>"J'ai reçu il y a quelques jours, Monsieur, votre lettre que l'on m'a renvoyée ici ..." à Forster, 1834-01-28, https://constance-de-salm.de/archiv/#/document/5540 #onthisday</t>
+          <t>»J'ai reçu il y a quelques jours, Monsieur, votre lettre que l'on m'a renvoyée ici ...« à Forster, 1834-01-28, https://constance-de-salm.de/archiv/#/document/5540 #onthisday</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -10075,17 +10075,17 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>2029-2-5</t>
+          <t>2029-02-05</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>08:32:11</t>
+          <t>14:21:00</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>"Je reçois vos livres, et je les remettrai demain en place ..." à Prous, 1821-02-05, https://constance-de-salm.de/archiv/#/document/2839 #onthisday</t>
+          <t>»Je reçois vos livres, et je les remettrai demain en place ...« à Prous, 1821-02-05, https://constance-de-salm.de/archiv/#/document/2839 #onthisday</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -10102,17 +10102,17 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>2029-2-7</t>
+          <t>2029-02-07</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>11:41:07</t>
+          <t>19:28:27</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>"Je m'empresse de vous apprendre, mon cher voisin, que j'ai reçu votre lettre, et que le Prince vient d'écrire ..." à Ladoucette, 1840-02-07, https://constance-de-salm.de/archiv/#/document/8154 #onthisday</t>
+          <t>»Je m'empresse de vous apprendre, mon cher voisin, que j'ai reçu votre lettre, et que le Prince vient d'écrire ...« à Ladoucette, 1840-02-07, https://constance-de-salm.de/archiv/#/document/8154 #onthisday</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -10129,17 +10129,17 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>2029-2-8</t>
+          <t>2029-02-08</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>18:01:30</t>
+          <t>12:30:47</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>"Il y a déjà bien longtemps, Madame, que j'ai reçu votre dernière lettre toute bonne et toute aimable ..." à Maleszewski, 1839-02-08, https://constance-de-salm.de/archiv/#/document/8013 #onthisday</t>
+          <t>»Il y a déjà bien longtemps, Madame, que j'ai reçu votre dernière lettre toute bonne et toute aimable ...« à Maleszewski, 1839-02-08, https://constance-de-salm.de/archiv/#/document/8013 #onthisday</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -10156,17 +10156,17 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>2029-2-11</t>
+          <t>2029-02-11</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>10:04:06</t>
+          <t>12:31:11</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>"Je ne puis vous exprimer, Madame et amie, toute la satisfaction que j'ai éprouvée en apprenant la justice ..." à Waldor, 1839-02-11, https://constance-de-salm.de/archiv/#/document/8001 #onthisday</t>
+          <t>»Je ne puis vous exprimer, Madame et amie, toute la satisfaction que j'ai éprouvée en apprenant la justice ...« à Waldor, 1839-02-11, https://constance-de-salm.de/archiv/#/document/8001 #onthisday</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -10183,17 +10183,17 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>2029-2-12</t>
+          <t>2029-02-12</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>16:29:50</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>"Chère Princesse, j'apprends par un journal que vous venez d'éprouver un accident qui pouvait avoir les suites les plus funestes ..." à Thurn und Taxis, 1832-02-12, https://constance-de-salm.de/archiv/#/document/5398 #onthisday</t>
+          <t>»Chère Princesse, j'apprends par un journal que vous venez d'éprouver un accident qui pouvait avoir les suites les plus funestes ...« à Thurn und Taxis, 1832-02-12, https://constance-de-salm.de/archiv/#/document/5398 #onthisday</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -10210,17 +10210,17 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>2029-2-15</t>
+          <t>2029-02-15</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>18:33:42</t>
+          <t>15:06:17</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>"Princesse, ce n’est pas pour placer à la fin, mais bien pour mettre au commencement de la deuxième livraison ..." à Montferrand, 1836-02-15, https://constance-de-salm.de/archiv/#/document/9702 #onthisday</t>
+          <t>»Princesse, ce n’est pas pour placer à la fin, mais bien pour mettre au commencement de la deuxième livraison ...« à Montferrand, 1836-02-15, https://constance-de-salm.de/archiv/#/document/9702 #onthisday</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -10237,17 +10237,17 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>2029-2-19</t>
+          <t>2029-02-19</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>18:13:11</t>
+          <t>16:31:37</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>"Je suis revenue hier, Monsieur, charmée de votre ouvrage, de vos honorables éloges et pénétrée de votre complaisance ..." à Sanson de Pongerville, 1836-02-19, https://constance-de-salm.de/archiv/#/document/9709 #onthisday</t>
+          <t>»Je suis revenue hier, Monsieur, charmée de votre ouvrage, de vos honorables éloges et pénétrée de votre complaisance ...« à Sanson de Pongerville, 1836-02-19, https://constance-de-salm.de/archiv/#/document/9709 #onthisday</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -10264,17 +10264,17 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>2029-2-20</t>
+          <t>2029-02-20</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>18:57:01</t>
+          <t>16:08:13</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>"Il me semble, Monsieur et Madame, que je vous ferai passer un moment agréable en vous envoyant ..." à Sanson de Pongerville, 1839-02-20, https://constance-de-salm.de/archiv/#/document/8003 #onthisday</t>
+          <t>»Il me semble, Monsieur et Madame, que je vous ferai passer un moment agréable en vous envoyant ...« à Sanson de Pongerville, 1839-02-20, https://constance-de-salm.de/archiv/#/document/8003 #onthisday</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -10291,17 +10291,17 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>2029-2-21</t>
+          <t>2029-02-21</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>15:05:11</t>
+          <t>16:05:04</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>"Je veux vous dire encore, Monsieur, une chose de bien peu d’importance; ..." à Sanson de Pongerville, 1836-02-21, https://constance-de-salm.de/archiv/#/document/9712 #onthisday</t>
+          <t>»Je veux vous dire encore, Monsieur, une chose de bien peu d’importance; ...« à Sanson de Pongerville, 1836-02-21, https://constance-de-salm.de/archiv/#/document/9712 #onthisday</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -10318,17 +10318,17 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>2029-2-23</t>
+          <t>2029-02-23</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>12:51:54</t>
+          <t>08:40:43</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>"Rien de plus prompt, de plus aimable, de plus obligeant que l'insertion de l'article ..." à Sauvo, 1839-02-23, https://constance-de-salm.de/archiv/#/document/8006 #onthisday</t>
+          <t>»Rien de plus prompt, de plus aimable, de plus obligeant que l'insertion de l'article ...« à Sauvo, 1839-02-23, https://constance-de-salm.de/archiv/#/document/8006 #onthisday</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -10345,17 +10345,17 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>2029-2-26</t>
+          <t>2029-02-26</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>15:57:17</t>
+          <t>08:09:11</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>"Madame votre fille, qui est venue me voir, il y a quelques jours, Monsieur, s'est chargée de vous inviter ..." à Villenave, 1841-02-26, https://constance-de-salm.de/archiv/#/document/7209 #onthisday</t>
+          <t>»Madame votre fille, qui est venue me voir, il y a quelques jours, Monsieur, s'est chargée de vous inviter ...« à Villenave, 1841-02-26, https://constance-de-salm.de/archiv/#/document/7209 #onthisday</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -10372,17 +10372,17 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>2029-2-27</t>
+          <t>2029-02-27</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>18:44:22</t>
+          <t>15:37:54</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>"C’est avec beaucoup de plaisir que j’ai reçu ta lettre, mon cher Charles ..." à Théis, 1839-02-27, https://constance-de-salm.de/archiv/#/document/10915 #onthisday</t>
+          <t>»C’est avec beaucoup de plaisir que j’ai reçu ta lettre, mon cher Charles ...« à Théis, 1839-02-27, https://constance-de-salm.de/archiv/#/document/10915 #onthisday</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -10399,17 +10399,17 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>2029-3-2</t>
+          <t>2029-03-02</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>13:41:42</t>
+          <t>12:46:22</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>"Je m'empresse de vous dire, Monsieur, que j'ai retrouvé la lettre de Monsieur Fayolle ..." à Barbier, 1842-03-02, https://constance-de-salm.de/archiv/#/document/7581 #onthisday</t>
+          <t>»Je m'empresse de vous dire, Monsieur, que j'ai retrouvé la lettre de Monsieur Fayolle ...« à Barbier, 1842-03-02, https://constance-de-salm.de/archiv/#/document/7581 #onthisday</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -10426,17 +10426,17 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>2029-3-3</t>
+          <t>2029-03-03</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>11:17:15</t>
+          <t>12:38:07</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre lettre Monsieur ..." à Aubard / Aubart, 1839-03-03, https://constance-de-salm.de/archiv/#/document/8008 #onthisday</t>
+          <t>»J'ai reçu votre lettre Monsieur ...« à Aubard / Aubart, 1839-03-03, https://constance-de-salm.de/archiv/#/document/8008 #onthisday</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -10453,17 +10453,17 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>2029-3-5</t>
+          <t>2029-03-05</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>10:56:15</t>
+          <t>11:40:54</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>"J’ai reçu, il y a quelques jours, cher frère, la petite lettre où tu me parles enfin de la maladie de Constant ..." à Théis, 1835-03-05, https://constance-de-salm.de/archiv/#/document/9578 #onthisday</t>
+          <t>»J’ai reçu, il y a quelques jours, cher frère, la petite lettre où tu me parles enfin de la maladie de Constant ...« à Théis, 1835-03-05, https://constance-de-salm.de/archiv/#/document/9578 #onthisday</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -10480,17 +10480,17 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>2029-3-6</t>
+          <t>2029-03-06</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>11:29:17</t>
+          <t>08:11:11</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>"Quelque confiance que vous veuillez bien avoir en moi, Monsieur, avant de vous faire parler dans mes notes ..." à Bernard de Rennes, 1834-03-06, https://constance-de-salm.de/archiv/#/document/5547 #onthisday</t>
+          <t>»Quelque confiance que vous veuillez bien avoir en moi, Monsieur, avant de vous faire parler dans mes notes ...« à Bernard de Rennes, 1834-03-06, https://constance-de-salm.de/archiv/#/document/5547 #onthisday</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -10507,17 +10507,17 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>2029-3-8</t>
+          <t>2029-03-08</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>12:46:13</t>
+          <t>12:37:13</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>"Votre lettre m'a fait le plus grand plaisir, Monsieur, non seulement parce que j'ai été charmée d'avoir de vos nouvelles ..." à Boucharlat, 1832-03-08, https://constance-de-salm.de/archiv/#/document/5402 #onthisday</t>
+          <t>»Votre lettre m'a fait le plus grand plaisir, Monsieur, non seulement parce que j'ai été charmée d'avoir de vos nouvelles ...« à Boucharlat, 1832-03-08, https://constance-de-salm.de/archiv/#/document/5402 #onthisday</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -10534,17 +10534,17 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>2029-3-9</t>
+          <t>2029-03-09</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>10:37:53</t>
+          <t>19:44:48</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>"C’est avec beaucoup de satisfaction, Monsieur, que j’accepte la proposition que vous m’avez faite ..." à Paillet, 1836-03-09, https://constance-de-salm.de/archiv/#/document/9718 #onthisday</t>
+          <t>»C’est avec beaucoup de satisfaction, Monsieur, que j’accepte la proposition que vous m’avez faite ...« à Paillet, 1836-03-09, https://constance-de-salm.de/archiv/#/document/9718 #onthisday</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -10561,17 +10561,17 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>2029-3-10</t>
+          <t>2029-03-10</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>19:54:07</t>
+          <t>18:39:00</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>"Je ne puis vous dire, Monsieur le colonel, combien de fois je me suis proposé de vous écrire ..." à Schepeler, 1839-03-10, https://constance-de-salm.de/archiv/#/document/8009 #onthisday</t>
+          <t>»Je ne puis vous dire, Monsieur le colonel, combien de fois je me suis proposé de vous écrire ...« à Schepeler, 1839-03-10, https://constance-de-salm.de/archiv/#/document/8009 #onthisday</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -10588,17 +10588,17 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>2029-3-12</t>
+          <t>2029-03-12</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>09:31:05</t>
+          <t>12:27:53</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>"Vous venez de partir, Monsieur, et je pense tout-à-coup que, quoique tout ce que nous avons décidé pour la vente ..." à Lainé, 1842-03-12, https://constance-de-salm.de/archiv/#/document/7590 #onthisday</t>
+          <t>»Vous venez de partir, Monsieur, et je pense tout-à-coup que, quoique tout ce que nous avons décidé pour la vente ...« à Lainé, 1842-03-12, https://constance-de-salm.de/archiv/#/document/7590 #onthisday</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -10615,17 +10615,17 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>2029-3-14</t>
+          <t>2029-03-14</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>13:15:42</t>
+          <t>09:43:26</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>"Je regrette beaucoup de ne vous avoir pas vu pendant tout ce temps ci ..." à Amalric, 1830-03-14, https://constance-de-salm.de/archiv/#/document/5157 #onthisday</t>
+          <t>»Je regrette beaucoup de ne vous avoir pas vu pendant tout ce temps ci ...« à Amalric, 1830-03-14, https://constance-de-salm.de/archiv/#/document/5157 #onthisday</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -10642,17 +10642,17 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>2029-3-15</t>
+          <t>2029-03-15</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>12:26:38</t>
+          <t>13:14:23</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>"Je pars, je vais revoir la France, mes vieux pénates, mes amis ..." à N.N., 1838-03-15, https://constance-de-salm.de/archiv/#/document/7890 #onthisday</t>
+          <t>»Je pars, je vais revoir la France, mes vieux pénates, mes amis ...« à N.N., 1838-03-15, https://constance-de-salm.de/archiv/#/document/7890 #onthisday</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -10669,17 +10669,17 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>2029-3-20</t>
+          <t>2029-03-20</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>17:53:14</t>
+          <t>18:42:00</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>"Permettez, mon ancien ami, que je dicte le commencement de cette lettre à Monsieur Drais à qui vous venez d'écrire ..." à Raboteau, 1823-03-20, https://constance-de-salm.de/archiv/#/document/3997 #onthisday</t>
+          <t>»Permettez, mon ancien ami, que je dicte le commencement de cette lettre à Monsieur Drais à qui vous venez d'écrire ...« à Raboteau, 1823-03-20, https://constance-de-salm.de/archiv/#/document/3997 #onthisday</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -10696,17 +10696,17 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>2029-3-24</t>
+          <t>2029-03-24</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>13:58:13</t>
+          <t>14:22:55</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>"Mille remerciements, Monsieur, de votre extrême complaisance ..." à Sanson de Pongerville, 1839-03-24, https://constance-de-salm.de/archiv/#/document/8014 #onthisday</t>
+          <t>»Mille remerciements, Monsieur, de votre extrême complaisance ...« à Sanson de Pongerville, 1839-03-24, https://constance-de-salm.de/archiv/#/document/8014 #onthisday</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -10723,17 +10723,17 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>2029-3-25</t>
+          <t>2029-03-25</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>10:10:05</t>
+          <t>15:04:06</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>"Me voilà enfin à Paris, Monsieur et ancien ami, je m'empresse de vous l'apprendre ..." à Duval, 1838-03-25, https://constance-de-salm.de/archiv/#/document/7892 #onthisday</t>
+          <t>»Me voilà enfin à Paris, Monsieur et ancien ami, je m'empresse de vous l'apprendre ...« à Duval, 1838-03-25, https://constance-de-salm.de/archiv/#/document/7892 #onthisday</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -10750,17 +10750,17 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>2029-3-25</t>
+          <t>2029-03-25</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>17:32:12</t>
+          <t>18:15:24</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>"Je suis ici depuis deux jours, Monsieur; j'y revois les amis qui me restent encore ..." à Prony, 1838-03-25, https://constance-de-salm.de/archiv/#/document/7893 #onthisday</t>
+          <t>»Je suis ici depuis deux jours, Monsieur; j'y revois les amis qui me restent encore ...« à Prony, 1838-03-25, https://constance-de-salm.de/archiv/#/document/7893 #onthisday</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -10777,17 +10777,17 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>2029-3-26</t>
+          <t>2029-03-26</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>19:44:02</t>
+          <t>14:10:53</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>"Me voilà enfin ici, Madame et amie, souffrante, accablée des fatigues de la route ..." à Laya, 1838-03-26, https://constance-de-salm.de/archiv/#/document/7895 #onthisday</t>
+          <t>»Me voilà enfin ici, Madame et amie, souffrante, accablée des fatigues de la route ...« à Laya, 1838-03-26, https://constance-de-salm.de/archiv/#/document/7895 #onthisday</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -10804,17 +10804,17 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>2029-3-27</t>
+          <t>2029-03-27</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>11:42:21</t>
+          <t>09:45:15</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>"Je profite pour vous écrire, Monsieur, de l’occasion de Monsieur Forstmann qui retourne à Aix ..." à Bavier, 1836-03-27, https://constance-de-salm.de/archiv/#/document/9727 #onthisday</t>
+          <t>»Je profite pour vous écrire, Monsieur, de l’occasion de Monsieur Forstmann qui retourne à Aix ...« à Bavier, 1836-03-27, https://constance-de-salm.de/archiv/#/document/9727 #onthisday</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -10831,17 +10831,17 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>2029-3-28</t>
+          <t>2029-03-28</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>09:12:42</t>
+          <t>09:28:54</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>"J'ai hésité longtemps, Monsieur le baron, avant de vous donner la petite note dont je vous ai parlé ..." à Ladoucette, 1841-03-28, https://constance-de-salm.de/archiv/#/document/7218 #onthisday</t>
+          <t>»J'ai hésité longtemps, Monsieur le baron, avant de vous donner la petite note dont je vous ai parlé ...« à Ladoucette, 1841-03-28, https://constance-de-salm.de/archiv/#/document/7218 #onthisday</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -10858,17 +10858,17 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>2029-3-29</t>
+          <t>2029-03-29</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>14:18:03</t>
+          <t>10:13:21</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>"Pour qu'il ne soit pas dit, Monsieur, que je n'ai rien répondu à la toute aimable lettre que vous m'avez adressée dans ce pays ..." à Sanson de Pongerville, 1832-03-29, https://constance-de-salm.de/archiv/#/document/9513 #onthisday</t>
+          <t>»Pour qu'il ne soit pas dit, Monsieur, que je n'ai rien répondu à la toute aimable lettre que vous m'avez adressée dans ce pays ...« à Sanson de Pongerville, 1832-03-29, https://constance-de-salm.de/archiv/#/document/9513 #onthisday</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -10885,17 +10885,17 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>2029-3-29</t>
+          <t>2029-03-29</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>18:13:14</t>
+          <t>12:43:38</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps que je n'ai vu Monsieur Audiffret: j'ai regretté bien vivement ..." à Audiffret, 1841-03-29, https://constance-de-salm.de/archiv/#/document/7219 #onthisday</t>
+          <t>»Il y a bien longtemps que je n'ai vu Monsieur Audiffret: j'ai regretté bien vivement ...« à Audiffret, 1841-03-29, https://constance-de-salm.de/archiv/#/document/7219 #onthisday</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -10912,17 +10912,17 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>2029-3-30</t>
+          <t>2029-03-30</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>17:37:20</t>
+          <t>11:43:29</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>"Depuis près d’un mois, mon ancienne amie, je me propose de vous écrire, sans en avoir eu encore le courage ..." à Salis, 1835-03-30, https://constance-de-salm.de/archiv/#/document/9590 #onthisday</t>
+          <t>»Depuis près d’un mois, mon ancienne amie, je me propose de vous écrire, sans en avoir eu encore le courage ...« à Salis, 1835-03-30, https://constance-de-salm.de/archiv/#/document/9590 #onthisday</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -10939,17 +10939,17 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>2029-3-30</t>
+          <t>2029-03-30</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>17:22:55</t>
+          <t>15:53:01</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>"Depuis près d’un mois, mon ancienne amie, je me propose de vous écrire, sans en avoir eu encore le courage ..." à Salis, 1835-03-30, https://constance-de-salm.de/archiv/#/document/10357 #onthisday</t>
+          <t>»Depuis près d’un mois, mon ancienne amie, je me propose de vous écrire, sans en avoir eu encore le courage ...« à Salis, 1835-03-30, https://constance-de-salm.de/archiv/#/document/10357 #onthisday</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -10966,17 +10966,17 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>2029-4-1</t>
+          <t>2029-04-01</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>13:35:52</t>
+          <t>10:35:18</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>"Je suis confuse, Madame, de ne contribuer que pour la modique somme de 25 francs ..." à Maison, 1838-04-01, https://constance-de-salm.de/archiv/#/document/7897 #onthisday</t>
+          <t>»Je suis confuse, Madame, de ne contribuer que pour la modique somme de 25 francs ...« à Maison, 1838-04-01, https://constance-de-salm.de/archiv/#/document/7897 #onthisday</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -10993,17 +10993,17 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>2029-4-2</t>
+          <t>2029-04-02</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>09:00:27</t>
+          <t>17:03:52</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>"Voici, Monsieur, le volume que vous m'aviez prêté, et que je n'avais pu vous donner hier ..." à Barbier, 1837-04-02, https://constance-de-salm.de/archiv/#/document/7755 #onthisday</t>
+          <t>»Voici, Monsieur, le volume que vous m'aviez prêté, et que je n'avais pu vous donner hier ...« à Barbier, 1837-04-02, https://constance-de-salm.de/archiv/#/document/7755 #onthisday</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -11020,17 +11020,17 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>2029-4-2</t>
+          <t>2029-04-02</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>15:15:02</t>
+          <t>08:17:43</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>"Je crois devoir vous prévenir moi-même, mon cher général, que le compte de la tutelle de mes enfants et leur acte de partage ..." à Saint-Mars, 1837-04-02, https://constance-de-salm.de/archiv/#/document/7754 #onthisday</t>
+          <t>»Je crois devoir vous prévenir moi-même, mon cher général, que le compte de la tutelle de mes enfants et leur acte de partage ...« à Saint-Mars, 1837-04-02, https://constance-de-salm.de/archiv/#/document/7754 #onthisday</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -11047,17 +11047,17 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>2029-4-3</t>
+          <t>2029-04-03</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>11:52:34</t>
+          <t>13:16:46</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>"La Princesse Constance de Salm envoye à Monsieur Dupaty ses deux derniers ouvrages ..." à Dupaty, 1839-04-03, https://constance-de-salm.de/archiv/#/document/8020 #onthisday</t>
+          <t>»La Princesse Constance de Salm envoye à Monsieur Dupaty ses deux derniers ouvrages ...« à Dupaty, 1839-04-03, https://constance-de-salm.de/archiv/#/document/8020 #onthisday</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -11074,17 +11074,17 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>2029-4-4</t>
+          <t>2029-04-04</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>18:05:18</t>
+          <t>10:33:41</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>"Je veux, avant de partir, vous remercier, Monsieur, de toutes les peines que vous avez prises ..." à Villenave, 1830-04-04, https://constance-de-salm.de/archiv/#/document/5162 #onthisday</t>
+          <t>»Je veux, avant de partir, vous remercier, Monsieur, de toutes les peines que vous avez prises ...« à Villenave, 1830-04-04, https://constance-de-salm.de/archiv/#/document/5162 #onthisday</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -11101,17 +11101,17 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>2029-4-5</t>
+          <t>2029-04-05</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>15:09:31</t>
+          <t>13:23:11</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>"Monsieur le baron, je m’empresse, comme vous en avez témoigné le désir ..." à Théis, 1839-04-05, https://constance-de-salm.de/archiv/#/document/10926 #onthisday</t>
+          <t>»Monsieur le baron, je m’empresse, comme vous en avez témoigné le désir ...« à Théis, 1839-04-05, https://constance-de-salm.de/archiv/#/document/10926 #onthisday</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -11128,17 +11128,17 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>2029-4-6</t>
+          <t>2029-04-06</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>13:53:34</t>
+          <t>10:38:40</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>"Il me semble, Monsieur, que vous m'avez dit que vous aviez un ouvrage ..." à Audiffret, 1840-04-06, https://constance-de-salm.de/archiv/#/document/8164 #onthisday</t>
+          <t>»Il me semble, Monsieur, que vous m'avez dit que vous aviez un ouvrage ...« à Audiffret, 1840-04-06, https://constance-de-salm.de/archiv/#/document/8164 #onthisday</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -11155,17 +11155,17 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>2029-4-7</t>
+          <t>2029-04-07</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>14:23:51</t>
+          <t>08:57:16</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>"Le Prince et la Princesse de Salm ont beaucoup regretté de n’avoir point trouvé Monsieur et Madame Pongerville chez eux ..." à Sanson de Pongerville, 1829-04-07, https://constance-de-salm.de/archiv/#/document/9341 #onthisday</t>
+          <t>»Le Prince et la Princesse de Salm ont beaucoup regretté de n’avoir point trouvé Monsieur et Madame Pongerville chez eux ...« à Sanson de Pongerville, 1829-04-07, https://constance-de-salm.de/archiv/#/document/9341 #onthisday</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -11182,17 +11182,17 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>2029-4-8</t>
+          <t>2029-04-08</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>16:43:55</t>
+          <t>10:30:35</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>"Si vous êtes libre après-demain samedi, Monsieur, et si vos occupations vous permettent ..." à Villenave, 1841-04-08, https://constance-de-salm.de/archiv/#/document/7226 #onthisday</t>
+          <t>»Si vous êtes libre après-demain samedi, Monsieur, et si vos occupations vous permettent ...« à Villenave, 1841-04-08, https://constance-de-salm.de/archiv/#/document/7226 #onthisday</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -11209,17 +11209,17 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>2029-4-9</t>
+          <t>2029-04-09</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>12:03:15</t>
+          <t>10:13:43</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>"J'ai dit à Monsieur Dupaty que je voulais lui donner moi-même mes poésies ..." à Dupaty, 1839-04-09, https://constance-de-salm.de/archiv/#/document/8021 #onthisday</t>
+          <t>»J'ai dit à Monsieur Dupaty que je voulais lui donner moi-même mes poésies ...« à Dupaty, 1839-04-09, https://constance-de-salm.de/archiv/#/document/8021 #onthisday</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -11236,17 +11236,17 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>2029-4-10</t>
+          <t>2029-04-10</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>19:57:37</t>
+          <t>11:13:11</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>"Je ne puis vous exprimer, ma chère et excellente voisine et amie, tout ce que j'ai éprouvé en apprenant ..." à Locquenghien, 1840-04-10, https://constance-de-salm.de/archiv/#/document/8166 #onthisday</t>
+          <t>»Je ne puis vous exprimer, ma chère et excellente voisine et amie, tout ce que j'ai éprouvé en apprenant ...« à Locquenghien, 1840-04-10, https://constance-de-salm.de/archiv/#/document/8166 #onthisday</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -11263,17 +11263,17 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>2029-4-11</t>
+          <t>2029-04-11</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>17:10:14</t>
+          <t>13:44:33</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>"Je rappelle à Monsieur Villenave qu’il m’a promis que Monsieur son fils porterait chez Monsieur Barbier ..." à Villenave, 1838-04-11, https://constance-de-salm.de/archiv/#/document/11037 #onthisday</t>
+          <t>»Je rappelle à Monsieur Villenave qu’il m’a promis que Monsieur son fils porterait chez Monsieur Barbier ...« à Villenave, 1838-04-11, https://constance-de-salm.de/archiv/#/document/11037 #onthisday</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -11290,17 +11290,17 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>2029-4-12</t>
+          <t>2029-04-12</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>19:07:45</t>
+          <t>13:52:32</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>"Je veux vous écrire deux choses, très aimable dame; ..." à Laya, 1838-04-12, https://constance-de-salm.de/archiv/#/document/7901 #onthisday</t>
+          <t>»Je veux vous écrire deux choses, très aimable dame; ...« à Laya, 1838-04-12, https://constance-de-salm.de/archiv/#/document/7901 #onthisday</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
